--- a/database/industries/ghand/ghesafha/product/quarterly_seprated.xlsx
+++ b/database/industries/ghand/ghesafha/product/quarterly_seprated.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="e:\Trade\database\industries\ghand\ghesafha\product\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{656B1ED6-6C65-46F7-AFB4-9154DCD5B7A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20430" windowHeight="7680"/>
+    <workbookView xWindow="3684" yWindow="2748" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -19,12 +20,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="366" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="376" uniqueCount="59">
   <si>
     <t>Pouya Finance</t>
   </si>
   <si>
-    <t>Copyright @2015 - 2022</t>
+    <t>Copyright @2015 - 2023</t>
   </si>
   <si>
     <t>قصفها-قنداصفهان‌</t>
@@ -36,9 +37,6 @@
     <t>مقدار فروش</t>
   </si>
   <si>
-    <t>فصل دوم منتهی به 1400/06</t>
-  </si>
-  <si>
     <t>فصل سوم منتهی به 1400/09</t>
   </si>
   <si>
@@ -51,6 +49,9 @@
     <t>فصل دوم منتهی به 1401/06</t>
   </si>
   <si>
+    <t>فصل سوم منتهی به 1401/09</t>
+  </si>
+  <si>
     <t>مقدار فروش داخلی</t>
   </si>
   <si>
@@ -60,6 +61,9 @@
     <t>تن</t>
   </si>
   <si>
+    <t>-</t>
+  </si>
+  <si>
     <t>ملاس</t>
   </si>
   <si>
@@ -73,9 +77,6 @@
   </si>
   <si>
     <t>شکر آفینه</t>
-  </si>
-  <si>
-    <t>-</t>
   </si>
   <si>
     <t>الکل</t>
@@ -201,7 +202,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -388,7 +389,7 @@
         <a:srgbClr val="E7E6E6"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="4472C4"/>
       </a:accent1>
       <a:accent2>
         <a:srgbClr val="ED7D31"/>
@@ -400,7 +401,7 @@
         <a:srgbClr val="FFC000"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="5B9BD5"/>
       </a:accent5>
       <a:accent6>
         <a:srgbClr val="70AD47"/>
@@ -447,6 +448,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -482,6 +500,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -633,17 +668,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:I131"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="9" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -653,7 +688,7 @@
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
     </row>
-    <row r="2" spans="2:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -665,7 +700,7 @@
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
     </row>
-    <row r="3" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
@@ -677,7 +712,7 @@
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
     </row>
-    <row r="4" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -687,7 +722,7 @@
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
     </row>
-    <row r="5" spans="2:9" ht="42" x14ac:dyDescent="0.65">
+    <row r="5" spans="2:9" ht="40.799999999999997" x14ac:dyDescent="0.75">
       <c r="B5" s="4" t="s">
         <v>2</v>
       </c>
@@ -699,7 +734,7 @@
       <c r="H5" s="4"/>
       <c r="I5" s="4"/>
     </row>
-    <row r="6" spans="2:9" ht="42" x14ac:dyDescent="0.65">
+    <row r="6" spans="2:9" ht="40.799999999999997" x14ac:dyDescent="0.75">
       <c r="B6" s="5" t="s">
         <v>3</v>
       </c>
@@ -711,7 +746,7 @@
       <c r="H6" s="4"/>
       <c r="I6" s="4"/>
     </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -721,7 +756,7 @@
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
     </row>
-    <row r="8" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B8" s="7" t="s">
         <v>4</v>
       </c>
@@ -743,7 +778,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
@@ -753,7 +788,7 @@
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
     </row>
-    <row r="10" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B10" s="8" t="s">
         <v>10</v>
       </c>
@@ -765,7 +800,7 @@
       <c r="H10" s="9"/>
       <c r="I10" s="9"/>
     </row>
-    <row r="11" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B11" s="10" t="s">
         <v>11</v>
       </c>
@@ -774,48 +809,48 @@
       </c>
       <c r="D11" s="11"/>
       <c r="E11" s="11">
-        <v>7590</v>
-      </c>
-      <c r="F11" s="11">
         <v>13186</v>
       </c>
+      <c r="F11" s="11" t="s">
+        <v>13</v>
+      </c>
       <c r="G11" s="11">
-        <v>3130</v>
+        <v>3257</v>
       </c>
       <c r="H11" s="11">
-        <v>3257</v>
+        <v>2583</v>
       </c>
       <c r="I11" s="11">
-        <v>2583</v>
-      </c>
-    </row>
-    <row r="12" spans="2:9" x14ac:dyDescent="0.25">
+        <v>15473</v>
+      </c>
+    </row>
+    <row r="12" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B12" s="12" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C12" s="13" t="s">
         <v>12</v>
       </c>
       <c r="D12" s="13"/>
       <c r="E12" s="13">
-        <v>5926</v>
-      </c>
-      <c r="F12" s="13">
         <v>5920</v>
       </c>
+      <c r="F12" s="13" t="s">
+        <v>13</v>
+      </c>
       <c r="G12" s="13">
-        <v>3542</v>
+        <v>1928</v>
       </c>
       <c r="H12" s="13">
-        <v>1928</v>
+        <v>5087</v>
       </c>
       <c r="I12" s="13">
-        <v>5087</v>
-      </c>
-    </row>
-    <row r="13" spans="2:9" x14ac:dyDescent="0.25">
+        <v>5969</v>
+      </c>
+    </row>
+    <row r="13" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B13" s="10" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C13" s="11" t="s">
         <v>12</v>
@@ -824,59 +859,59 @@
       <c r="E13" s="11">
         <v>0</v>
       </c>
-      <c r="F13" s="11">
-        <v>0</v>
+      <c r="F13" s="11" t="s">
+        <v>13</v>
       </c>
       <c r="G13" s="11">
-        <v>27</v>
+        <v>1</v>
       </c>
       <c r="H13" s="11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I13" s="11">
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B14" s="12" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C14" s="13" t="s">
         <v>12</v>
       </c>
       <c r="D14" s="13"/>
       <c r="E14" s="13">
-        <v>17900</v>
-      </c>
-      <c r="F14" s="13">
         <v>30534</v>
       </c>
+      <c r="F14" s="13" t="s">
+        <v>13</v>
+      </c>
       <c r="G14" s="13">
-        <v>14773</v>
+        <v>5154</v>
       </c>
       <c r="H14" s="13">
-        <v>5154</v>
+        <v>8193</v>
       </c>
       <c r="I14" s="13">
-        <v>8193</v>
-      </c>
-    </row>
-    <row r="15" spans="2:9" x14ac:dyDescent="0.25">
+        <v>21617</v>
+      </c>
+    </row>
+    <row r="15" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B15" s="10" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C15" s="11" t="s">
         <v>12</v>
       </c>
       <c r="D15" s="11"/>
       <c r="E15" s="11">
-        <v>1</v>
-      </c>
-      <c r="F15" s="11">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="F15" s="11" t="s">
+        <v>13</v>
       </c>
       <c r="G15" s="11">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="H15" s="11">
         <v>0</v>
@@ -885,31 +920,31 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B16" s="12" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C16" s="13" t="s">
         <v>12</v>
       </c>
       <c r="D16" s="13"/>
       <c r="E16" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="F16" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="G16" s="13">
-        <v>0</v>
+        <v>13</v>
+      </c>
+      <c r="F16" s="13">
+        <v>0</v>
+      </c>
+      <c r="G16" s="13" t="s">
+        <v>13</v>
       </c>
       <c r="H16" s="13" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="I16" s="13" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="17" spans="2:9" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="17" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B17" s="10" t="s">
         <v>19</v>
       </c>
@@ -918,22 +953,22 @@
       </c>
       <c r="D17" s="11"/>
       <c r="E17" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="F17" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="G17" s="11">
-        <v>0</v>
+        <v>13</v>
+      </c>
+      <c r="F17" s="11">
+        <v>0</v>
+      </c>
+      <c r="G17" s="11" t="s">
+        <v>13</v>
       </c>
       <c r="H17" s="11" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="I17" s="11" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="18" spans="2:9" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="18" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B18" s="12" t="s">
         <v>20</v>
       </c>
@@ -942,22 +977,22 @@
       </c>
       <c r="D18" s="13"/>
       <c r="E18" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="F18" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="G18" s="13">
-        <v>0</v>
+        <v>13</v>
+      </c>
+      <c r="F18" s="13">
+        <v>0</v>
+      </c>
+      <c r="G18" s="13" t="s">
+        <v>13</v>
       </c>
       <c r="H18" s="13" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="I18" s="13" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="19" spans="2:9" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="19" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B19" s="10" t="s">
         <v>21</v>
       </c>
@@ -966,22 +1001,22 @@
       </c>
       <c r="D19" s="11"/>
       <c r="E19" s="11" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="F19" s="11" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="G19" s="11">
-        <v>10723</v>
+        <v>121</v>
       </c>
       <c r="H19" s="11">
-        <v>121</v>
+        <v>2725</v>
       </c>
       <c r="I19" s="11">
-        <v>2725</v>
-      </c>
-    </row>
-    <row r="20" spans="2:9" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B20" s="12" t="s">
         <v>22</v>
       </c>
@@ -990,44 +1025,44 @@
       </c>
       <c r="D20" s="13"/>
       <c r="E20" s="13" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="F20" s="13" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="G20" s="13">
-        <v>1075</v>
+        <v>0</v>
       </c>
       <c r="H20" s="13">
-        <v>0</v>
+        <v>284</v>
       </c>
       <c r="I20" s="13">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="21" spans="2:9" x14ac:dyDescent="0.25">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="21" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B21" s="14" t="s">
         <v>23</v>
       </c>
       <c r="C21" s="15"/>
       <c r="D21" s="15"/>
       <c r="E21" s="15">
-        <v>31417</v>
+        <v>49640</v>
       </c>
       <c r="F21" s="15">
-        <v>49640</v>
+        <v>0</v>
       </c>
       <c r="G21" s="15">
-        <v>33269</v>
+        <v>10461</v>
       </c>
       <c r="H21" s="15">
-        <v>10461</v>
+        <v>18872</v>
       </c>
       <c r="I21" s="15">
-        <v>18872</v>
-      </c>
-    </row>
-    <row r="22" spans="2:9" x14ac:dyDescent="0.25">
+        <v>43159</v>
+      </c>
+    </row>
+    <row r="22" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B22" s="8" t="s">
         <v>24</v>
       </c>
@@ -1039,7 +1074,7 @@
       <c r="H22" s="9"/>
       <c r="I22" s="9"/>
     </row>
-    <row r="23" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B23" s="10" t="s">
         <v>25</v>
       </c>
@@ -1048,22 +1083,22 @@
       </c>
       <c r="D23" s="11"/>
       <c r="E23" s="11" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="F23" s="11" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="G23" s="11" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="H23" s="11" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="I23" s="11" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="24" spans="2:9" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="24" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B24" s="12" t="s">
         <v>26</v>
       </c>
@@ -1072,22 +1107,22 @@
       </c>
       <c r="D24" s="13"/>
       <c r="E24" s="13" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="F24" s="13" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="G24" s="13" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="H24" s="13" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="I24" s="13" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="25" spans="2:9" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="25" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B25" s="14" t="s">
         <v>27</v>
       </c>
@@ -1109,7 +1144,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B26" s="8" t="s">
         <v>28</v>
       </c>
@@ -1121,7 +1156,7 @@
       <c r="H26" s="9"/>
       <c r="I26" s="9"/>
     </row>
-    <row r="27" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B27" s="10" t="s">
         <v>29</v>
       </c>
@@ -1130,44 +1165,44 @@
       </c>
       <c r="D27" s="11"/>
       <c r="E27" s="11">
-        <v>32122</v>
-      </c>
-      <c r="F27" s="11">
         <v>12407</v>
       </c>
+      <c r="F27" s="11" t="s">
+        <v>13</v>
+      </c>
       <c r="G27" s="11">
-        <v>20620</v>
+        <v>5475</v>
       </c>
       <c r="H27" s="11">
-        <v>5475</v>
+        <v>29728</v>
       </c>
       <c r="I27" s="11">
-        <v>29728</v>
-      </c>
-    </row>
-    <row r="28" spans="2:9" x14ac:dyDescent="0.25">
+        <v>5243</v>
+      </c>
+    </row>
+    <row r="28" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B28" s="16" t="s">
         <v>30</v>
       </c>
       <c r="C28" s="17"/>
       <c r="D28" s="17"/>
       <c r="E28" s="17">
-        <v>32122</v>
+        <v>12407</v>
       </c>
       <c r="F28" s="17">
-        <v>12407</v>
+        <v>0</v>
       </c>
       <c r="G28" s="17">
-        <v>20620</v>
+        <v>5475</v>
       </c>
       <c r="H28" s="17">
-        <v>5475</v>
+        <v>29728</v>
       </c>
       <c r="I28" s="17">
-        <v>29728</v>
-      </c>
-    </row>
-    <row r="29" spans="2:9" x14ac:dyDescent="0.25">
+        <v>5243</v>
+      </c>
+    </row>
+    <row r="29" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B29" s="14" t="s">
         <v>31</v>
       </c>
@@ -1176,22 +1211,22 @@
       </c>
       <c r="D29" s="15"/>
       <c r="E29" s="15" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="F29" s="15" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="G29" s="15" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="H29" s="15" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="I29" s="15" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="30" spans="2:9" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="30" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B30" s="16" t="s">
         <v>33</v>
       </c>
@@ -1200,8 +1235,8 @@
       <c r="E30" s="17">
         <v>0</v>
       </c>
-      <c r="F30" s="17">
-        <v>0</v>
+      <c r="F30" s="17" t="s">
+        <v>13</v>
       </c>
       <c r="G30" s="17">
         <v>0</v>
@@ -1213,29 +1248,29 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B31" s="14" t="s">
         <v>34</v>
       </c>
       <c r="C31" s="15"/>
       <c r="D31" s="15"/>
       <c r="E31" s="15">
-        <v>63539</v>
+        <v>62047</v>
       </c>
       <c r="F31" s="15">
-        <v>62047</v>
+        <v>0</v>
       </c>
       <c r="G31" s="15">
-        <v>53889</v>
+        <v>15936</v>
       </c>
       <c r="H31" s="15">
-        <v>15936</v>
+        <v>48600</v>
       </c>
       <c r="I31" s="15">
-        <v>48600</v>
-      </c>
-    </row>
-    <row r="32" spans="2:9" x14ac:dyDescent="0.25">
+        <v>48402</v>
+      </c>
+    </row>
+    <row r="32" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B32" s="1"/>
       <c r="C32" s="1"/>
       <c r="D32" s="1"/>
@@ -1245,7 +1280,7 @@
       <c r="H32" s="1"/>
       <c r="I32" s="1"/>
     </row>
-    <row r="33" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B33" s="1"/>
       <c r="C33" s="1"/>
       <c r="D33" s="1"/>
@@ -1255,7 +1290,7 @@
       <c r="H33" s="1"/>
       <c r="I33" s="1"/>
     </row>
-    <row r="34" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B34" s="1"/>
       <c r="C34" s="1"/>
       <c r="D34" s="1"/>
@@ -1265,7 +1300,7 @@
       <c r="H34" s="1"/>
       <c r="I34" s="1"/>
     </row>
-    <row r="35" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B35" s="7" t="s">
         <v>35</v>
       </c>
@@ -1287,7 +1322,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="36" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B36" s="1"/>
       <c r="C36" s="1"/>
       <c r="D36" s="1"/>
@@ -1297,7 +1332,7 @@
       <c r="H36" s="1"/>
       <c r="I36" s="1"/>
     </row>
-    <row r="37" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B37" s="8" t="s">
         <v>36</v>
       </c>
@@ -1309,7 +1344,7 @@
       <c r="H37" s="9"/>
       <c r="I37" s="9"/>
     </row>
-    <row r="38" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B38" s="10" t="s">
         <v>11</v>
       </c>
@@ -1318,48 +1353,48 @@
       </c>
       <c r="D38" s="11"/>
       <c r="E38" s="11">
-        <v>207112</v>
-      </c>
-      <c r="F38" s="11">
         <v>514942</v>
       </c>
+      <c r="F38" s="11" t="s">
+        <v>13</v>
+      </c>
       <c r="G38" s="11">
-        <v>333645</v>
+        <v>265156</v>
       </c>
       <c r="H38" s="11">
-        <v>265156</v>
+        <v>214456</v>
       </c>
       <c r="I38" s="11">
-        <v>214456</v>
-      </c>
-    </row>
-    <row r="39" spans="2:9" x14ac:dyDescent="0.25">
+        <v>1315169</v>
+      </c>
+    </row>
+    <row r="39" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B39" s="12" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C39" s="13" t="s">
         <v>37</v>
       </c>
       <c r="D39" s="13"/>
       <c r="E39" s="13">
-        <v>208509</v>
-      </c>
-      <c r="F39" s="13">
         <v>196582</v>
       </c>
+      <c r="F39" s="13" t="s">
+        <v>13</v>
+      </c>
       <c r="G39" s="13">
-        <v>126896</v>
+        <v>104192</v>
       </c>
       <c r="H39" s="13">
-        <v>104192</v>
+        <v>281146</v>
       </c>
       <c r="I39" s="13">
-        <v>281146</v>
-      </c>
-    </row>
-    <row r="40" spans="2:9" x14ac:dyDescent="0.25">
+        <v>335778</v>
+      </c>
+    </row>
+    <row r="40" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B40" s="10" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C40" s="11" t="s">
         <v>37</v>
@@ -1368,92 +1403,92 @@
       <c r="E40" s="11">
         <v>0</v>
       </c>
-      <c r="F40" s="11">
-        <v>0</v>
+      <c r="F40" s="11" t="s">
+        <v>13</v>
       </c>
       <c r="G40" s="11">
-        <v>3405</v>
+        <v>70</v>
       </c>
       <c r="H40" s="11">
-        <v>70</v>
+        <v>0</v>
       </c>
       <c r="I40" s="11">
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B41" s="12" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C41" s="13" t="s">
         <v>37</v>
       </c>
       <c r="D41" s="13"/>
       <c r="E41" s="13">
-        <v>2163046</v>
-      </c>
-      <c r="F41" s="13">
         <v>3755416</v>
       </c>
+      <c r="F41" s="13" t="s">
+        <v>13</v>
+      </c>
       <c r="G41" s="13">
-        <v>2009054</v>
+        <v>925538</v>
       </c>
       <c r="H41" s="13">
-        <v>925538</v>
+        <v>1506860</v>
       </c>
       <c r="I41" s="13">
-        <v>1506860</v>
-      </c>
-    </row>
-    <row r="42" spans="2:9" x14ac:dyDescent="0.25">
+        <v>3827528</v>
+      </c>
+    </row>
+    <row r="42" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B42" s="10" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C42" s="11" t="s">
         <v>37</v>
       </c>
       <c r="D42" s="11"/>
       <c r="E42" s="11">
-        <v>27</v>
-      </c>
-      <c r="F42" s="11">
         <v>32</v>
       </c>
+      <c r="F42" s="11" t="s">
+        <v>13</v>
+      </c>
       <c r="G42" s="11">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="H42" s="11">
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="I42" s="11">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="43" spans="2:9" x14ac:dyDescent="0.25">
+        <v>-36</v>
+      </c>
+    </row>
+    <row r="43" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B43" s="12" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C43" s="13" t="s">
         <v>37</v>
       </c>
       <c r="D43" s="13"/>
       <c r="E43" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="F43" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="G43" s="13">
-        <v>0</v>
+        <v>13</v>
+      </c>
+      <c r="F43" s="13">
+        <v>0</v>
+      </c>
+      <c r="G43" s="13" t="s">
+        <v>13</v>
       </c>
       <c r="H43" s="13" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="I43" s="13" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="44" spans="2:9" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="44" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B44" s="10" t="s">
         <v>19</v>
       </c>
@@ -1462,22 +1497,22 @@
       </c>
       <c r="D44" s="11"/>
       <c r="E44" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="F44" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="G44" s="11">
-        <v>0</v>
+        <v>13</v>
+      </c>
+      <c r="F44" s="11">
+        <v>0</v>
+      </c>
+      <c r="G44" s="11" t="s">
+        <v>13</v>
       </c>
       <c r="H44" s="11" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="I44" s="11" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="45" spans="2:9" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="45" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B45" s="12" t="s">
         <v>20</v>
       </c>
@@ -1486,22 +1521,22 @@
       </c>
       <c r="D45" s="13"/>
       <c r="E45" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="F45" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="G45" s="13">
-        <v>0</v>
+        <v>13</v>
+      </c>
+      <c r="F45" s="13">
+        <v>0</v>
+      </c>
+      <c r="G45" s="13" t="s">
+        <v>13</v>
       </c>
       <c r="H45" s="13" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="I45" s="13" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="46" spans="2:9" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="46" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B46" s="10" t="s">
         <v>21</v>
       </c>
@@ -1510,22 +1545,22 @@
       </c>
       <c r="D46" s="11"/>
       <c r="E46" s="11" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="F46" s="11" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="G46" s="11">
-        <v>72459</v>
+        <v>962</v>
       </c>
       <c r="H46" s="11">
-        <v>962</v>
+        <v>21792</v>
       </c>
       <c r="I46" s="11">
-        <v>21792</v>
-      </c>
-    </row>
-    <row r="47" spans="2:9" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B47" s="12" t="s">
         <v>22</v>
       </c>
@@ -1534,44 +1569,44 @@
       </c>
       <c r="D47" s="13"/>
       <c r="E47" s="13" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="F47" s="13" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="G47" s="13">
-        <v>20874</v>
+        <v>0</v>
       </c>
       <c r="H47" s="13">
-        <v>0</v>
+        <v>6257</v>
       </c>
       <c r="I47" s="13">
-        <v>6257</v>
-      </c>
-    </row>
-    <row r="48" spans="2:9" x14ac:dyDescent="0.25">
+        <v>2191</v>
+      </c>
+    </row>
+    <row r="48" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B48" s="14" t="s">
         <v>23</v>
       </c>
       <c r="C48" s="15"/>
       <c r="D48" s="15"/>
       <c r="E48" s="15">
-        <v>2578694</v>
+        <v>4466972</v>
       </c>
       <c r="F48" s="15">
-        <v>4466972</v>
+        <v>0</v>
       </c>
       <c r="G48" s="15">
-        <v>2566339</v>
+        <v>1295918</v>
       </c>
       <c r="H48" s="15">
-        <v>1295918</v>
+        <v>2030547</v>
       </c>
       <c r="I48" s="15">
-        <v>2030547</v>
-      </c>
-    </row>
-    <row r="49" spans="2:9" x14ac:dyDescent="0.25">
+        <v>5480630</v>
+      </c>
+    </row>
+    <row r="49" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B49" s="8" t="s">
         <v>38</v>
       </c>
@@ -1583,7 +1618,7 @@
       <c r="H49" s="9"/>
       <c r="I49" s="9"/>
     </row>
-    <row r="50" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B50" s="10" t="s">
         <v>25</v>
       </c>
@@ -1592,22 +1627,22 @@
       </c>
       <c r="D50" s="11"/>
       <c r="E50" s="11" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="F50" s="11" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="G50" s="11" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="H50" s="11" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="I50" s="11" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="51" spans="2:9" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="51" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B51" s="12" t="s">
         <v>26</v>
       </c>
@@ -1616,22 +1651,22 @@
       </c>
       <c r="D51" s="13"/>
       <c r="E51" s="13" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="F51" s="13" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="G51" s="13" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="H51" s="13" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="I51" s="13" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="52" spans="2:9" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="52" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B52" s="14" t="s">
         <v>27</v>
       </c>
@@ -1653,7 +1688,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B53" s="8" t="s">
         <v>39</v>
       </c>
@@ -1665,7 +1700,7 @@
       <c r="H53" s="9"/>
       <c r="I53" s="9"/>
     </row>
-    <row r="54" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B54" s="10" t="s">
         <v>29</v>
       </c>
@@ -1674,44 +1709,44 @@
       </c>
       <c r="D54" s="11"/>
       <c r="E54" s="11">
-        <v>121185</v>
-      </c>
-      <c r="F54" s="11">
         <v>49628</v>
       </c>
+      <c r="F54" s="11" t="s">
+        <v>13</v>
+      </c>
       <c r="G54" s="11">
-        <v>82508</v>
+        <v>33823</v>
       </c>
       <c r="H54" s="11">
-        <v>33823</v>
+        <v>210612</v>
       </c>
       <c r="I54" s="11">
-        <v>210612</v>
-      </c>
-    </row>
-    <row r="55" spans="2:9" x14ac:dyDescent="0.25">
+        <v>43413</v>
+      </c>
+    </row>
+    <row r="55" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B55" s="16" t="s">
         <v>30</v>
       </c>
       <c r="C55" s="17"/>
       <c r="D55" s="17"/>
       <c r="E55" s="17">
-        <v>121185</v>
+        <v>49628</v>
       </c>
       <c r="F55" s="17">
-        <v>49628</v>
+        <v>0</v>
       </c>
       <c r="G55" s="17">
-        <v>82508</v>
+        <v>33823</v>
       </c>
       <c r="H55" s="17">
-        <v>33823</v>
+        <v>210612</v>
       </c>
       <c r="I55" s="17">
-        <v>210612</v>
-      </c>
-    </row>
-    <row r="56" spans="2:9" x14ac:dyDescent="0.25">
+        <v>43413</v>
+      </c>
+    </row>
+    <row r="56" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B56" s="14" t="s">
         <v>31</v>
       </c>
@@ -1720,22 +1755,22 @@
       </c>
       <c r="D56" s="15"/>
       <c r="E56" s="15" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="F56" s="15" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="G56" s="15" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="H56" s="15" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="I56" s="15" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="57" spans="2:9" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="57" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B57" s="16" t="s">
         <v>33</v>
       </c>
@@ -1746,8 +1781,8 @@
       <c r="E57" s="17">
         <v>0</v>
       </c>
-      <c r="F57" s="17">
-        <v>0</v>
+      <c r="F57" s="17" t="s">
+        <v>13</v>
       </c>
       <c r="G57" s="17">
         <v>0</v>
@@ -1759,29 +1794,29 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B58" s="14" t="s">
         <v>34</v>
       </c>
       <c r="C58" s="15"/>
       <c r="D58" s="15"/>
       <c r="E58" s="15">
-        <v>2699879</v>
+        <v>4516600</v>
       </c>
       <c r="F58" s="15">
-        <v>4516600</v>
+        <v>0</v>
       </c>
       <c r="G58" s="15">
-        <v>2648847</v>
+        <v>1329741</v>
       </c>
       <c r="H58" s="15">
-        <v>1329741</v>
+        <v>2241159</v>
       </c>
       <c r="I58" s="15">
-        <v>2241159</v>
-      </c>
-    </row>
-    <row r="59" spans="2:9" x14ac:dyDescent="0.25">
+        <v>5524043</v>
+      </c>
+    </row>
+    <row r="59" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B59" s="1"/>
       <c r="C59" s="1"/>
       <c r="D59" s="1"/>
@@ -1791,7 +1826,7 @@
       <c r="H59" s="1"/>
       <c r="I59" s="1"/>
     </row>
-    <row r="60" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B60" s="1"/>
       <c r="C60" s="1"/>
       <c r="D60" s="1"/>
@@ -1801,7 +1836,7 @@
       <c r="H60" s="1"/>
       <c r="I60" s="1"/>
     </row>
-    <row r="61" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B61" s="1"/>
       <c r="C61" s="1"/>
       <c r="D61" s="1"/>
@@ -1811,7 +1846,7 @@
       <c r="H61" s="1"/>
       <c r="I61" s="1"/>
     </row>
-    <row r="62" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B62" s="7" t="s">
         <v>40</v>
       </c>
@@ -1833,7 +1868,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="63" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="63" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B63" s="1"/>
       <c r="C63" s="1"/>
       <c r="D63" s="1"/>
@@ -1843,7 +1878,7 @@
       <c r="H63" s="1"/>
       <c r="I63" s="1"/>
     </row>
-    <row r="64" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="64" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B64" s="8" t="s">
         <v>41</v>
       </c>
@@ -1855,7 +1890,7 @@
       <c r="H64" s="9"/>
       <c r="I64" s="9"/>
     </row>
-    <row r="65" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="65" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B65" s="10" t="s">
         <v>11</v>
       </c>
@@ -1864,142 +1899,142 @@
       </c>
       <c r="D65" s="11"/>
       <c r="E65" s="11">
-        <v>29615563</v>
+        <v>51602266</v>
       </c>
       <c r="F65" s="11">
-        <v>51602266</v>
+        <v>106595847</v>
       </c>
       <c r="G65" s="11">
-        <v>106595847</v>
+        <v>81411115</v>
       </c>
       <c r="H65" s="11">
-        <v>81411115</v>
+        <v>83025939</v>
       </c>
       <c r="I65" s="11">
-        <v>83025939</v>
-      </c>
-    </row>
-    <row r="66" spans="2:9" x14ac:dyDescent="0.25">
+        <v>84997673</v>
+      </c>
+    </row>
+    <row r="66" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B66" s="12" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C66" s="13" t="s">
         <v>42</v>
       </c>
       <c r="D66" s="13"/>
       <c r="E66" s="13">
-        <v>35185454</v>
+        <v>33206419</v>
       </c>
       <c r="F66" s="13">
-        <v>33206419</v>
+        <v>35826087</v>
       </c>
       <c r="G66" s="13">
-        <v>35826087</v>
+        <v>54041494</v>
       </c>
       <c r="H66" s="13">
-        <v>54041494</v>
+        <v>55267545</v>
       </c>
       <c r="I66" s="13">
-        <v>55267545</v>
-      </c>
-    </row>
-    <row r="67" spans="2:9" x14ac:dyDescent="0.25">
+        <v>56253644</v>
+      </c>
+    </row>
+    <row r="67" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B67" s="10" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C67" s="11" t="s">
         <v>42</v>
       </c>
       <c r="D67" s="11"/>
       <c r="E67" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="F67" s="11" t="s">
-        <v>18</v>
+        <v>13</v>
+      </c>
+      <c r="F67" s="11">
+        <v>126111111</v>
       </c>
       <c r="G67" s="11">
-        <v>126111111</v>
-      </c>
-      <c r="H67" s="11">
         <v>70000000</v>
       </c>
+      <c r="H67" s="11" t="s">
+        <v>13</v>
+      </c>
       <c r="I67" s="11" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="68" spans="2:9" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="68" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B68" s="12" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C68" s="13" t="s">
         <v>42</v>
       </c>
       <c r="D68" s="13"/>
       <c r="E68" s="13">
-        <v>120986463</v>
+        <v>124205454</v>
       </c>
       <c r="F68" s="13">
-        <v>124205454</v>
+        <v>135994991</v>
       </c>
       <c r="G68" s="13">
-        <v>135994991</v>
+        <v>179576640</v>
       </c>
       <c r="H68" s="13">
-        <v>179576640</v>
+        <v>183920420</v>
       </c>
       <c r="I68" s="13">
-        <v>183920420</v>
-      </c>
-    </row>
-    <row r="69" spans="2:9" x14ac:dyDescent="0.25">
+        <v>177061017</v>
+      </c>
+    </row>
+    <row r="69" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B69" s="10" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C69" s="11" t="s">
         <v>42</v>
       </c>
       <c r="D69" s="11"/>
-      <c r="E69" s="11">
-        <v>27000000</v>
-      </c>
-      <c r="F69" s="11" t="s">
+      <c r="E69" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="F69" s="11">
+        <v>-6000000</v>
+      </c>
+      <c r="G69" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="H69" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="I69" s="11" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="70" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B70" s="12" t="s">
         <v>18</v>
-      </c>
-      <c r="G69" s="11">
-        <v>-6000000</v>
-      </c>
-      <c r="H69" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="I69" s="11" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="70" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B70" s="12" t="s">
-        <v>17</v>
       </c>
       <c r="C70" s="13" t="s">
         <v>42</v>
       </c>
       <c r="D70" s="13"/>
       <c r="E70" s="13" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="F70" s="13" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="G70" s="13" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="H70" s="13" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="I70" s="13" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="71" spans="2:9" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="71" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B71" s="10" t="s">
         <v>19</v>
       </c>
@@ -2008,22 +2043,22 @@
       </c>
       <c r="D71" s="11"/>
       <c r="E71" s="11" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="F71" s="11" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="G71" s="11" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="H71" s="11" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="I71" s="11" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="72" spans="2:9" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="72" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B72" s="12" t="s">
         <v>20</v>
       </c>
@@ -2032,22 +2067,22 @@
       </c>
       <c r="D72" s="13"/>
       <c r="E72" s="13" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="F72" s="13" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="G72" s="13" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="H72" s="13" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="I72" s="13" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="73" spans="2:9" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="73" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B73" s="10" t="s">
         <v>21</v>
       </c>
@@ -2056,22 +2091,22 @@
       </c>
       <c r="D73" s="11"/>
       <c r="E73" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="F73" s="11" t="s">
-        <v>18</v>
+        <v>13</v>
+      </c>
+      <c r="F73" s="11">
+        <v>6757344</v>
       </c>
       <c r="G73" s="11">
-        <v>6757344</v>
+        <v>7950413</v>
       </c>
       <c r="H73" s="11">
-        <v>7950413</v>
-      </c>
-      <c r="I73" s="11">
         <v>7997064</v>
       </c>
-    </row>
-    <row r="74" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="I73" s="11" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="74" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B74" s="12" t="s">
         <v>22</v>
       </c>
@@ -2080,22 +2115,22 @@
       </c>
       <c r="D74" s="13"/>
       <c r="E74" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="F74" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="G74" s="13">
+        <v>13</v>
+      </c>
+      <c r="F74" s="13">
         <v>19417674</v>
       </c>
-      <c r="H74" s="13" t="s">
-        <v>18</v>
+      <c r="G74" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="H74" s="13">
+        <v>22031690</v>
       </c>
       <c r="I74" s="13">
-        <v>22031690</v>
-      </c>
-    </row>
-    <row r="75" spans="2:9" x14ac:dyDescent="0.25">
+        <v>21910000</v>
+      </c>
+    </row>
+    <row r="75" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B75" s="8" t="s">
         <v>43</v>
       </c>
@@ -2107,7 +2142,7 @@
       <c r="H75" s="9"/>
       <c r="I75" s="9"/>
     </row>
-    <row r="76" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="76" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B76" s="10" t="s">
         <v>25</v>
       </c>
@@ -2116,22 +2151,22 @@
       </c>
       <c r="D76" s="11"/>
       <c r="E76" s="11" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="F76" s="11" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="G76" s="11" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="H76" s="11" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="I76" s="11" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="77" spans="2:9" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="77" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B77" s="12" t="s">
         <v>26</v>
       </c>
@@ -2140,22 +2175,22 @@
       </c>
       <c r="D77" s="13"/>
       <c r="E77" s="13" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="F77" s="13" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="G77" s="13" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="H77" s="13" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="I77" s="13" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="78" spans="2:9" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="78" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B78" s="8" t="s">
         <v>44</v>
       </c>
@@ -2167,7 +2202,7 @@
       <c r="H78" s="9"/>
       <c r="I78" s="9"/>
     </row>
-    <row r="79" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="79" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B79" s="10" t="s">
         <v>29</v>
       </c>
@@ -2176,22 +2211,22 @@
       </c>
       <c r="D79" s="11"/>
       <c r="E79" s="11" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="F79" s="11" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="G79" s="11" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="H79" s="11" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="I79" s="11" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="80" spans="2:9" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="80" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B80" s="1"/>
       <c r="C80" s="1"/>
       <c r="D80" s="1"/>
@@ -2201,7 +2236,7 @@
       <c r="H80" s="1"/>
       <c r="I80" s="1"/>
     </row>
-    <row r="81" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="81" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B81" s="1"/>
       <c r="C81" s="1"/>
       <c r="D81" s="1"/>
@@ -2211,7 +2246,7 @@
       <c r="H81" s="1"/>
       <c r="I81" s="1"/>
     </row>
-    <row r="82" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="82" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B82" s="1"/>
       <c r="C82" s="1"/>
       <c r="D82" s="1"/>
@@ -2221,7 +2256,7 @@
       <c r="H82" s="1"/>
       <c r="I82" s="1"/>
     </row>
-    <row r="83" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="83" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B83" s="7" t="s">
         <v>45</v>
       </c>
@@ -2243,7 +2278,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="84" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="84" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B84" s="1"/>
       <c r="C84" s="1"/>
       <c r="D84" s="1"/>
@@ -2253,7 +2288,7 @@
       <c r="H84" s="1"/>
       <c r="I84" s="1"/>
     </row>
-    <row r="85" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="85" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B85" s="8" t="s">
         <v>46</v>
       </c>
@@ -2265,7 +2300,7 @@
       <c r="H85" s="9"/>
       <c r="I85" s="9"/>
     </row>
-    <row r="86" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="86" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B86" s="10" t="s">
         <v>11</v>
       </c>
@@ -2274,48 +2309,48 @@
       </c>
       <c r="D86" s="11"/>
       <c r="E86" s="11">
-        <v>-246346</v>
+        <v>-245999</v>
       </c>
       <c r="F86" s="11">
-        <v>-245999</v>
+        <v>-124827</v>
       </c>
       <c r="G86" s="11">
-        <v>-124827</v>
+        <v>-118678</v>
       </c>
       <c r="H86" s="11">
-        <v>-118678</v>
+        <v>-186674</v>
       </c>
       <c r="I86" s="11">
-        <v>-186674</v>
-      </c>
-    </row>
-    <row r="87" spans="2:9" x14ac:dyDescent="0.25">
+        <v>-637689</v>
+      </c>
+    </row>
+    <row r="87" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B87" s="12" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C87" s="13" t="s">
         <v>37</v>
       </c>
       <c r="D87" s="13"/>
       <c r="E87" s="13">
-        <v>-112963</v>
+        <v>-116285</v>
       </c>
       <c r="F87" s="13">
-        <v>-116285</v>
+        <v>-45082</v>
       </c>
       <c r="G87" s="13">
-        <v>-45082</v>
+        <v>-38086</v>
       </c>
       <c r="H87" s="13">
-        <v>-38086</v>
+        <v>-182388</v>
       </c>
       <c r="I87" s="13">
-        <v>-182388</v>
-      </c>
-    </row>
-    <row r="88" spans="2:9" x14ac:dyDescent="0.25">
+        <v>-219483</v>
+      </c>
+    </row>
+    <row r="88" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B88" s="10" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C88" s="11" t="s">
         <v>37</v>
@@ -2325,45 +2360,45 @@
         <v>0</v>
       </c>
       <c r="F88" s="11">
-        <v>0</v>
+        <v>-1060</v>
       </c>
       <c r="G88" s="11">
-        <v>-1060</v>
+        <v>-21</v>
       </c>
       <c r="H88" s="11">
-        <v>-21</v>
+        <v>0</v>
       </c>
       <c r="I88" s="11">
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="89" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B89" s="12" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C89" s="13" t="s">
         <v>37</v>
       </c>
       <c r="D89" s="13"/>
       <c r="E89" s="13">
-        <v>-1808661</v>
+        <v>-3105618</v>
       </c>
       <c r="F89" s="13">
-        <v>-3105618</v>
+        <v>-1838925</v>
       </c>
       <c r="G89" s="13">
-        <v>-1838925</v>
+        <v>-926724</v>
       </c>
       <c r="H89" s="13">
-        <v>-926724</v>
+        <v>-1240727</v>
       </c>
       <c r="I89" s="13">
-        <v>-1240727</v>
-      </c>
-    </row>
-    <row r="90" spans="2:9" x14ac:dyDescent="0.25">
+        <v>-3558804</v>
+      </c>
+    </row>
+    <row r="90" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B90" s="10" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C90" s="11" t="s">
         <v>37</v>
@@ -2373,43 +2408,43 @@
         <v>-4</v>
       </c>
       <c r="F90" s="11">
-        <v>-4</v>
+        <v>0</v>
       </c>
       <c r="G90" s="11">
         <v>0</v>
       </c>
       <c r="H90" s="11">
-        <v>0</v>
+        <v>-3</v>
       </c>
       <c r="I90" s="11">
-        <v>-3</v>
-      </c>
-    </row>
-    <row r="91" spans="2:9" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="91" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B91" s="12" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C91" s="13" t="s">
         <v>37</v>
       </c>
       <c r="D91" s="13"/>
       <c r="E91" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="F91" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="G91" s="13">
-        <v>0</v>
+        <v>13</v>
+      </c>
+      <c r="F91" s="13">
+        <v>0</v>
+      </c>
+      <c r="G91" s="13" t="s">
+        <v>13</v>
       </c>
       <c r="H91" s="13" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="I91" s="13" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="92" spans="2:9" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="92" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B92" s="10" t="s">
         <v>19</v>
       </c>
@@ -2418,22 +2453,22 @@
       </c>
       <c r="D92" s="11"/>
       <c r="E92" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="F92" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="G92" s="11">
-        <v>0</v>
+        <v>13</v>
+      </c>
+      <c r="F92" s="11">
+        <v>0</v>
+      </c>
+      <c r="G92" s="11" t="s">
+        <v>13</v>
       </c>
       <c r="H92" s="11" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="I92" s="11" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="93" spans="2:9" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="93" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B93" s="12" t="s">
         <v>20</v>
       </c>
@@ -2442,22 +2477,22 @@
       </c>
       <c r="D93" s="13"/>
       <c r="E93" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="F93" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="G93" s="13">
-        <v>0</v>
+        <v>13</v>
+      </c>
+      <c r="F93" s="13">
+        <v>0</v>
+      </c>
+      <c r="G93" s="13" t="s">
+        <v>13</v>
       </c>
       <c r="H93" s="13" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="I93" s="13" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="94" spans="2:9" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="94" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B94" s="10" t="s">
         <v>21</v>
       </c>
@@ -2466,22 +2501,22 @@
       </c>
       <c r="D94" s="11"/>
       <c r="E94" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="F94" s="11" t="s">
-        <v>18</v>
+        <v>13</v>
+      </c>
+      <c r="F94" s="11">
+        <v>-311730</v>
       </c>
       <c r="G94" s="11">
-        <v>-311730</v>
+        <v>-4409</v>
       </c>
       <c r="H94" s="11">
-        <v>-4409</v>
+        <v>-144398</v>
       </c>
       <c r="I94" s="11">
-        <v>-144398</v>
-      </c>
-    </row>
-    <row r="95" spans="2:9" x14ac:dyDescent="0.25">
+        <v>22879</v>
+      </c>
+    </row>
+    <row r="95" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B95" s="12" t="s">
         <v>22</v>
       </c>
@@ -2490,44 +2525,44 @@
       </c>
       <c r="D95" s="13"/>
       <c r="E95" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="F95" s="13" t="s">
-        <v>18</v>
+        <v>13</v>
+      </c>
+      <c r="F95" s="13">
+        <v>-119437</v>
       </c>
       <c r="G95" s="13">
-        <v>-119437</v>
+        <v>0</v>
       </c>
       <c r="H95" s="13">
-        <v>0</v>
+        <v>-46119</v>
       </c>
       <c r="I95" s="13">
-        <v>-46119</v>
-      </c>
-    </row>
-    <row r="96" spans="2:9" x14ac:dyDescent="0.25">
+        <v>-16771</v>
+      </c>
+    </row>
+    <row r="96" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B96" s="14" t="s">
         <v>47</v>
       </c>
       <c r="C96" s="15"/>
       <c r="D96" s="15"/>
       <c r="E96" s="15">
-        <v>-2167974</v>
+        <v>-3467906</v>
       </c>
       <c r="F96" s="15">
-        <v>-3467906</v>
+        <v>-2441061</v>
       </c>
       <c r="G96" s="15">
-        <v>-2441061</v>
+        <v>-1087918</v>
       </c>
       <c r="H96" s="15">
-        <v>-1087918</v>
+        <v>-1800309</v>
       </c>
       <c r="I96" s="15">
-        <v>-1800309</v>
-      </c>
-    </row>
-    <row r="97" spans="2:9" x14ac:dyDescent="0.25">
+        <v>-4409865</v>
+      </c>
+    </row>
+    <row r="97" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B97" s="8" t="s">
         <v>48</v>
       </c>
@@ -2539,7 +2574,7 @@
       <c r="H97" s="9"/>
       <c r="I97" s="9"/>
     </row>
-    <row r="98" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="98" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B98" s="10" t="s">
         <v>25</v>
       </c>
@@ -2548,22 +2583,22 @@
       </c>
       <c r="D98" s="11"/>
       <c r="E98" s="11" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="F98" s="11" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="G98" s="11" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="H98" s="11" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="I98" s="11" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="99" spans="2:9" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="99" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B99" s="12" t="s">
         <v>26</v>
       </c>
@@ -2572,22 +2607,22 @@
       </c>
       <c r="D99" s="13"/>
       <c r="E99" s="13" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="F99" s="13" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="G99" s="13" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="H99" s="13" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="I99" s="13" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="100" spans="2:9" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="100" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B100" s="14" t="s">
         <v>49</v>
       </c>
@@ -2609,7 +2644,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="101" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B101" s="8" t="s">
         <v>50</v>
       </c>
@@ -2621,7 +2656,7 @@
       <c r="H101" s="9"/>
       <c r="I101" s="9"/>
     </row>
-    <row r="102" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="102" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B102" s="10" t="s">
         <v>29</v>
       </c>
@@ -2630,44 +2665,44 @@
       </c>
       <c r="D102" s="11"/>
       <c r="E102" s="11">
-        <v>-167378</v>
+        <v>-59707</v>
       </c>
       <c r="F102" s="11">
-        <v>-59707</v>
+        <v>-211774</v>
       </c>
       <c r="G102" s="11">
-        <v>-211774</v>
+        <v>-63526</v>
       </c>
       <c r="H102" s="11">
-        <v>-63526</v>
+        <v>-274301</v>
       </c>
       <c r="I102" s="11">
-        <v>-274301</v>
-      </c>
-    </row>
-    <row r="103" spans="2:9" x14ac:dyDescent="0.25">
+        <v>-3012</v>
+      </c>
+    </row>
+    <row r="103" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B103" s="16" t="s">
         <v>51</v>
       </c>
       <c r="C103" s="17"/>
       <c r="D103" s="17"/>
       <c r="E103" s="17">
-        <v>-167378</v>
+        <v>-59707</v>
       </c>
       <c r="F103" s="17">
-        <v>-59707</v>
+        <v>-211774</v>
       </c>
       <c r="G103" s="17">
-        <v>-211774</v>
+        <v>-63526</v>
       </c>
       <c r="H103" s="17">
-        <v>-63526</v>
+        <v>-274301</v>
       </c>
       <c r="I103" s="17">
-        <v>-274301</v>
-      </c>
-    </row>
-    <row r="104" spans="2:9" x14ac:dyDescent="0.25">
+        <v>-3012</v>
+      </c>
+    </row>
+    <row r="104" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B104" s="14" t="s">
         <v>31</v>
       </c>
@@ -2676,22 +2711,22 @@
       </c>
       <c r="D104" s="15"/>
       <c r="E104" s="15" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="F104" s="15" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="G104" s="15" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="H104" s="15" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="I104" s="15" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="105" spans="2:9" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="105" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B105" s="16" t="s">
         <v>33</v>
       </c>
@@ -2715,29 +2750,29 @@
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="106" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B106" s="14" t="s">
         <v>34</v>
       </c>
       <c r="C106" s="15"/>
       <c r="D106" s="15"/>
       <c r="E106" s="15">
-        <v>-2335352</v>
+        <v>-3527613</v>
       </c>
       <c r="F106" s="15">
-        <v>-3527613</v>
+        <v>-2652835</v>
       </c>
       <c r="G106" s="15">
-        <v>-2652835</v>
+        <v>-1151444</v>
       </c>
       <c r="H106" s="15">
-        <v>-1151444</v>
+        <v>-2074610</v>
       </c>
       <c r="I106" s="15">
-        <v>-2074610</v>
-      </c>
-    </row>
-    <row r="107" spans="2:9" x14ac:dyDescent="0.25">
+        <v>-4412877</v>
+      </c>
+    </row>
+    <row r="107" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B107" s="1"/>
       <c r="C107" s="1"/>
       <c r="D107" s="1"/>
@@ -2747,7 +2782,7 @@
       <c r="H107" s="1"/>
       <c r="I107" s="1"/>
     </row>
-    <row r="108" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="108" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B108" s="1"/>
       <c r="C108" s="1"/>
       <c r="D108" s="1"/>
@@ -2757,7 +2792,7 @@
       <c r="H108" s="1"/>
       <c r="I108" s="1"/>
     </row>
-    <row r="109" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="109" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B109" s="1"/>
       <c r="C109" s="1"/>
       <c r="D109" s="1"/>
@@ -2767,7 +2802,7 @@
       <c r="H109" s="1"/>
       <c r="I109" s="1"/>
     </row>
-    <row r="110" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="110" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B110" s="7" t="s">
         <v>52</v>
       </c>
@@ -2789,7 +2824,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="111" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="111" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B111" s="1"/>
       <c r="C111" s="1"/>
       <c r="D111" s="1"/>
@@ -2799,7 +2834,7 @@
       <c r="H111" s="1"/>
       <c r="I111" s="1"/>
     </row>
-    <row r="112" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="112" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B112" s="8" t="s">
         <v>53</v>
       </c>
@@ -2811,7 +2846,7 @@
       <c r="H112" s="9"/>
       <c r="I112" s="9"/>
     </row>
-    <row r="113" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="113" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B113" s="10" t="s">
         <v>11</v>
       </c>
@@ -2820,48 +2855,48 @@
       </c>
       <c r="D113" s="11"/>
       <c r="E113" s="11">
-        <v>-41584</v>
+        <v>245977</v>
       </c>
       <c r="F113" s="11">
-        <v>245977</v>
+        <v>208818</v>
       </c>
       <c r="G113" s="11">
-        <v>208818</v>
+        <v>146478</v>
       </c>
       <c r="H113" s="11">
-        <v>146478</v>
+        <v>27782</v>
       </c>
       <c r="I113" s="11">
-        <v>27782</v>
-      </c>
-    </row>
-    <row r="114" spans="2:9" x14ac:dyDescent="0.25">
+        <v>677480</v>
+      </c>
+    </row>
+    <row r="114" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B114" s="12" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C114" s="13" t="s">
         <v>37</v>
       </c>
       <c r="D114" s="13"/>
       <c r="E114" s="13">
-        <v>95546</v>
+        <v>80297</v>
       </c>
       <c r="F114" s="13">
-        <v>80297</v>
+        <v>81814</v>
       </c>
       <c r="G114" s="13">
-        <v>81814</v>
+        <v>66106</v>
       </c>
       <c r="H114" s="13">
-        <v>66106</v>
+        <v>98758</v>
       </c>
       <c r="I114" s="13">
-        <v>98758</v>
-      </c>
-    </row>
-    <row r="115" spans="2:9" x14ac:dyDescent="0.25">
+        <v>116295</v>
+      </c>
+    </row>
+    <row r="115" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B115" s="10" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C115" s="11" t="s">
         <v>37</v>
@@ -2871,91 +2906,91 @@
         <v>0</v>
       </c>
       <c r="F115" s="11">
-        <v>0</v>
+        <v>2345</v>
       </c>
       <c r="G115" s="11">
-        <v>2345</v>
+        <v>49</v>
       </c>
       <c r="H115" s="11">
-        <v>49</v>
+        <v>0</v>
       </c>
       <c r="I115" s="11">
         <v>0</v>
       </c>
     </row>
-    <row r="116" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="116" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B116" s="12" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C116" s="13" t="s">
         <v>37</v>
       </c>
       <c r="D116" s="13"/>
       <c r="E116" s="13">
-        <v>354214</v>
+        <v>643151</v>
       </c>
       <c r="F116" s="13">
-        <v>643151</v>
+        <v>170129</v>
       </c>
       <c r="G116" s="13">
-        <v>170129</v>
+        <v>-1186</v>
       </c>
       <c r="H116" s="13">
-        <v>-1186</v>
+        <v>266133</v>
       </c>
       <c r="I116" s="13">
-        <v>266133</v>
-      </c>
-    </row>
-    <row r="117" spans="2:9" x14ac:dyDescent="0.25">
+        <v>268724</v>
+      </c>
+    </row>
+    <row r="117" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B117" s="10" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C117" s="11" t="s">
         <v>37</v>
       </c>
       <c r="D117" s="11"/>
       <c r="E117" s="11">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="F117" s="11">
-        <v>28</v>
+        <v>6</v>
       </c>
       <c r="G117" s="11">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="H117" s="11">
-        <v>0</v>
+        <v>33</v>
       </c>
       <c r="I117" s="11">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="118" spans="2:9" x14ac:dyDescent="0.25">
+        <v>-33</v>
+      </c>
+    </row>
+    <row r="118" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B118" s="12" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C118" s="13" t="s">
         <v>37</v>
       </c>
       <c r="D118" s="13"/>
       <c r="E118" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="F118" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="G118" s="13">
-        <v>0</v>
+        <v>13</v>
+      </c>
+      <c r="F118" s="13">
+        <v>0</v>
+      </c>
+      <c r="G118" s="13" t="s">
+        <v>13</v>
       </c>
       <c r="H118" s="13" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="I118" s="13" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="119" spans="2:9" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="119" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B119" s="10" t="s">
         <v>19</v>
       </c>
@@ -2964,22 +2999,22 @@
       </c>
       <c r="D119" s="11"/>
       <c r="E119" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="F119" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="G119" s="11">
-        <v>0</v>
+        <v>13</v>
+      </c>
+      <c r="F119" s="11">
+        <v>0</v>
+      </c>
+      <c r="G119" s="11" t="s">
+        <v>13</v>
       </c>
       <c r="H119" s="11" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="I119" s="11" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="120" spans="2:9" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="120" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B120" s="12" t="s">
         <v>20</v>
       </c>
@@ -2988,22 +3023,22 @@
       </c>
       <c r="D120" s="13"/>
       <c r="E120" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="F120" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="G120" s="13">
-        <v>0</v>
+        <v>13</v>
+      </c>
+      <c r="F120" s="13">
+        <v>0</v>
+      </c>
+      <c r="G120" s="13" t="s">
+        <v>13</v>
       </c>
       <c r="H120" s="13" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="I120" s="13" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="121" spans="2:9" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="121" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B121" s="10" t="s">
         <v>21</v>
       </c>
@@ -3012,22 +3047,22 @@
       </c>
       <c r="D121" s="11"/>
       <c r="E121" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="F121" s="11" t="s">
-        <v>18</v>
+        <v>13</v>
+      </c>
+      <c r="F121" s="11">
+        <v>-239271</v>
       </c>
       <c r="G121" s="11">
-        <v>-239271</v>
+        <v>-3447</v>
       </c>
       <c r="H121" s="11">
-        <v>-3447</v>
+        <v>-122606</v>
       </c>
       <c r="I121" s="11">
-        <v>-122606</v>
-      </c>
-    </row>
-    <row r="122" spans="2:9" x14ac:dyDescent="0.25">
+        <v>22879</v>
+      </c>
+    </row>
+    <row r="122" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B122" s="12" t="s">
         <v>22</v>
       </c>
@@ -3036,44 +3071,44 @@
       </c>
       <c r="D122" s="13"/>
       <c r="E122" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="F122" s="13" t="s">
-        <v>18</v>
+        <v>13</v>
+      </c>
+      <c r="F122" s="13">
+        <v>-98563</v>
       </c>
       <c r="G122" s="13">
-        <v>-98563</v>
+        <v>0</v>
       </c>
       <c r="H122" s="13">
-        <v>0</v>
+        <v>-39862</v>
       </c>
       <c r="I122" s="13">
-        <v>-39862</v>
-      </c>
-    </row>
-    <row r="123" spans="2:9" x14ac:dyDescent="0.25">
+        <v>-14580</v>
+      </c>
+    </row>
+    <row r="123" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B123" s="14" t="s">
         <v>54</v>
       </c>
       <c r="C123" s="15"/>
       <c r="D123" s="15"/>
       <c r="E123" s="15">
-        <v>408199</v>
+        <v>969453</v>
       </c>
       <c r="F123" s="15">
-        <v>969453</v>
+        <v>125278</v>
       </c>
       <c r="G123" s="15">
-        <v>125278</v>
+        <v>208000</v>
       </c>
       <c r="H123" s="15">
-        <v>208000</v>
+        <v>230238</v>
       </c>
       <c r="I123" s="15">
-        <v>230238</v>
-      </c>
-    </row>
-    <row r="124" spans="2:9" x14ac:dyDescent="0.25">
+        <v>1070765</v>
+      </c>
+    </row>
+    <row r="124" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B124" s="8" t="s">
         <v>55</v>
       </c>
@@ -3085,7 +3120,7 @@
       <c r="H124" s="9"/>
       <c r="I124" s="9"/>
     </row>
-    <row r="125" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="125" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B125" s="10" t="s">
         <v>25</v>
       </c>
@@ -3094,22 +3129,22 @@
       </c>
       <c r="D125" s="11"/>
       <c r="E125" s="11" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="F125" s="11" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="G125" s="11" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="H125" s="11" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="I125" s="11" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="126" spans="2:9" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="126" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B126" s="12" t="s">
         <v>26</v>
       </c>
@@ -3118,22 +3153,22 @@
       </c>
       <c r="D126" s="13"/>
       <c r="E126" s="13" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="F126" s="13" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="G126" s="13" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="H126" s="13" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="I126" s="13" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="127" spans="2:9" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="127" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B127" s="14" t="s">
         <v>56</v>
       </c>
@@ -3155,7 +3190,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="128" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="128" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B128" s="8" t="s">
         <v>57</v>
       </c>
@@ -3167,7 +3202,7 @@
       <c r="H128" s="9"/>
       <c r="I128" s="9"/>
     </row>
-    <row r="129" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="129" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B129" s="10" t="s">
         <v>29</v>
       </c>
@@ -3176,63 +3211,63 @@
       </c>
       <c r="D129" s="11"/>
       <c r="E129" s="11">
-        <v>-46193</v>
+        <v>-10079</v>
       </c>
       <c r="F129" s="11">
-        <v>-10079</v>
+        <v>-129266</v>
       </c>
       <c r="G129" s="11">
-        <v>-129266</v>
+        <v>-29703</v>
       </c>
       <c r="H129" s="11">
-        <v>-29703</v>
+        <v>-63689</v>
       </c>
       <c r="I129" s="11">
-        <v>-63689</v>
-      </c>
-    </row>
-    <row r="130" spans="2:9" x14ac:dyDescent="0.25">
+        <v>40401</v>
+      </c>
+    </row>
+    <row r="130" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B130" s="16" t="s">
         <v>58</v>
       </c>
       <c r="C130" s="17"/>
       <c r="D130" s="17"/>
       <c r="E130" s="17">
-        <v>-46193</v>
+        <v>-10079</v>
       </c>
       <c r="F130" s="17">
-        <v>-10079</v>
+        <v>-129266</v>
       </c>
       <c r="G130" s="17">
-        <v>-129266</v>
+        <v>-29703</v>
       </c>
       <c r="H130" s="17">
-        <v>-29703</v>
+        <v>-63689</v>
       </c>
       <c r="I130" s="17">
-        <v>-63689</v>
-      </c>
-    </row>
-    <row r="131" spans="2:9" x14ac:dyDescent="0.25">
+        <v>40401</v>
+      </c>
+    </row>
+    <row r="131" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B131" s="14" t="s">
         <v>34</v>
       </c>
       <c r="C131" s="15"/>
       <c r="D131" s="15"/>
       <c r="E131" s="15">
-        <v>362006</v>
+        <v>959374</v>
       </c>
       <c r="F131" s="15">
-        <v>959374</v>
+        <v>-3988</v>
       </c>
       <c r="G131" s="15">
-        <v>-3988</v>
+        <v>178297</v>
       </c>
       <c r="H131" s="15">
-        <v>178297</v>
+        <v>166549</v>
       </c>
       <c r="I131" s="15">
-        <v>166549</v>
+        <v>1111166</v>
       </c>
     </row>
   </sheetData>

--- a/database/industries/ghand/ghesafha/product/quarterly_seprated.xlsx
+++ b/database/industries/ghand/ghesafha/product/quarterly_seprated.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="e:\Trade\database\industries\ghand\ghesafha\product\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="c:\Users\EBRAHIMI\Desktop\Trade\database\industries\ghand\ghesafha\product\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{656B1ED6-6C65-46F7-AFB4-9154DCD5B7A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E68194AC-D927-4D27-A73B-AF26B6729F19}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3684" yWindow="2748" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3120" yWindow="3120" windowWidth="21600" windowHeight="11025" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="376" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="585" uniqueCount="64">
   <si>
     <t>Pouya Finance</t>
   </si>
@@ -35,6 +35,21 @@
   </si>
   <si>
     <t>مقدار فروش</t>
+  </si>
+  <si>
+    <t>فصل دوم منتهی به 1399/06</t>
+  </si>
+  <si>
+    <t>فصل سوم منتهی به 1399/09</t>
+  </si>
+  <si>
+    <t>فصل چهارم منتهی به 1399/12</t>
+  </si>
+  <si>
+    <t>فصل اول منتهی به 1400/03</t>
+  </si>
+  <si>
+    <t>فصل دوم منتهی به 1400/06</t>
   </si>
   <si>
     <t>فصل سوم منتهی به 1400/09</t>
@@ -669,16 +684,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:I131"/>
+  <dimension ref="B1:N131"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="9" width="20" customWidth="1"/>
+    <col min="2" max="14" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -687,8 +702,13 @@
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
-    </row>
-    <row r="2" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="J1" s="1"/>
+      <c r="K1" s="1"/>
+      <c r="L1" s="1"/>
+      <c r="M1" s="1"/>
+      <c r="N1" s="1"/>
+    </row>
+    <row r="2" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -699,8 +719,13 @@
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
-    </row>
-    <row r="3" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J2" s="1"/>
+      <c r="K2" s="1"/>
+      <c r="L2" s="1"/>
+      <c r="M2" s="1"/>
+      <c r="N2" s="1"/>
+    </row>
+    <row r="3" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
@@ -711,8 +736,13 @@
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
-    </row>
-    <row r="4" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J3" s="1"/>
+      <c r="K3" s="1"/>
+      <c r="L3" s="1"/>
+      <c r="M3" s="1"/>
+      <c r="N3" s="1"/>
+    </row>
+    <row r="4" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -721,8 +751,13 @@
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
-    </row>
-    <row r="5" spans="2:9" ht="40.799999999999997" x14ac:dyDescent="0.75">
+      <c r="J4" s="1"/>
+      <c r="K4" s="1"/>
+      <c r="L4" s="1"/>
+      <c r="M4" s="1"/>
+      <c r="N4" s="1"/>
+    </row>
+    <row r="5" spans="2:14" ht="42" x14ac:dyDescent="0.65">
       <c r="B5" s="4" t="s">
         <v>2</v>
       </c>
@@ -733,8 +768,13 @@
       <c r="G5" s="4"/>
       <c r="H5" s="4"/>
       <c r="I5" s="4"/>
-    </row>
-    <row r="6" spans="2:9" ht="40.799999999999997" x14ac:dyDescent="0.75">
+      <c r="J5" s="4"/>
+      <c r="K5" s="4"/>
+      <c r="L5" s="4"/>
+      <c r="M5" s="4"/>
+      <c r="N5" s="4"/>
+    </row>
+    <row r="6" spans="2:14" ht="42" x14ac:dyDescent="0.65">
       <c r="B6" s="5" t="s">
         <v>3</v>
       </c>
@@ -745,8 +785,13 @@
       <c r="G6" s="4"/>
       <c r="H6" s="4"/>
       <c r="I6" s="4"/>
-    </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J6" s="4"/>
+      <c r="K6" s="4"/>
+      <c r="L6" s="4"/>
+      <c r="M6" s="4"/>
+      <c r="N6" s="4"/>
+    </row>
+    <row r="7" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -755,8 +800,13 @@
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
-    </row>
-    <row r="8" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="J7" s="1"/>
+      <c r="K7" s="1"/>
+      <c r="L7" s="1"/>
+      <c r="M7" s="1"/>
+      <c r="N7" s="1"/>
+    </row>
+    <row r="8" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B8" s="7" t="s">
         <v>4</v>
       </c>
@@ -777,8 +827,23 @@
       <c r="I8" s="6" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="9" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J8" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="K8" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="L8" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="M8" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="N8" s="6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
@@ -787,10 +852,15 @@
       <c r="G9" s="1"/>
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
-    </row>
-    <row r="10" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J9" s="1"/>
+      <c r="K9" s="1"/>
+      <c r="L9" s="1"/>
+      <c r="M9" s="1"/>
+      <c r="N9" s="1"/>
+    </row>
+    <row r="10" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B10" s="8" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C10" s="9"/>
       <c r="D10" s="9"/>
@@ -799,272 +869,442 @@
       <c r="G10" s="9"/>
       <c r="H10" s="9"/>
       <c r="I10" s="9"/>
-    </row>
-    <row r="11" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J10" s="9"/>
+      <c r="K10" s="9"/>
+      <c r="L10" s="9"/>
+      <c r="M10" s="9"/>
+      <c r="N10" s="9"/>
+    </row>
+    <row r="11" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B11" s="10" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="C11" s="11" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="D11" s="11"/>
       <c r="E11" s="11">
+        <v>7417</v>
+      </c>
+      <c r="F11" s="11">
+        <v>13963</v>
+      </c>
+      <c r="G11" s="11">
+        <v>6881</v>
+      </c>
+      <c r="H11" s="11">
+        <v>4668</v>
+      </c>
+      <c r="I11" s="11">
+        <v>7590</v>
+      </c>
+      <c r="J11" s="11">
         <v>13186</v>
       </c>
-      <c r="F11" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="G11" s="11">
+      <c r="K11" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="L11" s="11">
         <v>3257</v>
       </c>
-      <c r="H11" s="11">
+      <c r="M11" s="11">
         <v>2583</v>
       </c>
-      <c r="I11" s="11">
+      <c r="N11" s="11">
         <v>15473</v>
       </c>
     </row>
-    <row r="12" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B12" s="12" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="C12" s="13" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="D12" s="13"/>
       <c r="E12" s="13">
+        <v>2127</v>
+      </c>
+      <c r="F12" s="13">
+        <v>4601</v>
+      </c>
+      <c r="G12" s="13">
+        <v>3615</v>
+      </c>
+      <c r="H12" s="13">
+        <v>1686</v>
+      </c>
+      <c r="I12" s="13">
+        <v>5926</v>
+      </c>
+      <c r="J12" s="13">
         <v>5920</v>
       </c>
-      <c r="F12" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="G12" s="13">
+      <c r="K12" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="L12" s="13">
         <v>1928</v>
       </c>
-      <c r="H12" s="13">
+      <c r="M12" s="13">
         <v>5087</v>
       </c>
-      <c r="I12" s="13">
+      <c r="N12" s="13">
         <v>5969</v>
       </c>
     </row>
-    <row r="13" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B13" s="10" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C13" s="11" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="D13" s="11"/>
       <c r="E13" s="11">
         <v>0</v>
       </c>
-      <c r="F13" s="11" t="s">
-        <v>13</v>
+      <c r="F13" s="11">
+        <v>0</v>
       </c>
       <c r="G13" s="11">
+        <v>840</v>
+      </c>
+      <c r="H13" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="I13" s="11">
+        <v>0</v>
+      </c>
+      <c r="J13" s="11">
+        <v>0</v>
+      </c>
+      <c r="K13" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="L13" s="11">
         <v>1</v>
       </c>
-      <c r="H13" s="11">
-        <v>0</v>
-      </c>
-      <c r="I13" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="M13" s="11">
+        <v>0</v>
+      </c>
+      <c r="N13" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B14" s="12" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="C14" s="13" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="D14" s="13"/>
       <c r="E14" s="13">
+        <v>10931</v>
+      </c>
+      <c r="F14" s="13">
+        <v>26411</v>
+      </c>
+      <c r="G14" s="13">
+        <v>14637</v>
+      </c>
+      <c r="H14" s="13">
+        <v>5853</v>
+      </c>
+      <c r="I14" s="13">
+        <v>17900</v>
+      </c>
+      <c r="J14" s="13">
         <v>30534</v>
       </c>
-      <c r="F14" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="G14" s="13">
+      <c r="K14" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="L14" s="13">
         <v>5154</v>
       </c>
-      <c r="H14" s="13">
+      <c r="M14" s="13">
         <v>8193</v>
       </c>
-      <c r="I14" s="13">
+      <c r="N14" s="13">
         <v>21617</v>
       </c>
     </row>
-    <row r="15" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B15" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="C15" s="11" t="s">
         <v>17</v>
-      </c>
-      <c r="C15" s="11" t="s">
-        <v>12</v>
       </c>
       <c r="D15" s="11"/>
       <c r="E15" s="11">
-        <v>0</v>
-      </c>
-      <c r="F15" s="11" t="s">
-        <v>13</v>
+        <v>1</v>
+      </c>
+      <c r="F15" s="11">
+        <v>0</v>
       </c>
       <c r="G15" s="11">
         <v>0</v>
       </c>
-      <c r="H15" s="11">
-        <v>0</v>
+      <c r="H15" s="11" t="s">
+        <v>18</v>
       </c>
       <c r="I15" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="2:9" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+      <c r="J15" s="11">
+        <v>0</v>
+      </c>
+      <c r="K15" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="L15" s="11">
+        <v>0</v>
+      </c>
+      <c r="M15" s="11">
+        <v>0</v>
+      </c>
+      <c r="N15" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B16" s="12" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="C16" s="13" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="D16" s="13"/>
       <c r="E16" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="F16" s="13">
-        <v>0</v>
+        <v>18</v>
+      </c>
+      <c r="F16" s="13" t="s">
+        <v>18</v>
       </c>
       <c r="G16" s="13" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="H16" s="13" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="I16" s="13" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="17" spans="2:9" x14ac:dyDescent="0.3">
+        <v>18</v>
+      </c>
+      <c r="J16" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="K16" s="13">
+        <v>0</v>
+      </c>
+      <c r="L16" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="M16" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="N16" s="13" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="17" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B17" s="10" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="C17" s="11" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="D17" s="11"/>
       <c r="E17" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="F17" s="11">
-        <v>0</v>
+        <v>18</v>
+      </c>
+      <c r="F17" s="11" t="s">
+        <v>18</v>
       </c>
       <c r="G17" s="11" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="H17" s="11" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="I17" s="11" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="18" spans="2:9" x14ac:dyDescent="0.3">
+        <v>18</v>
+      </c>
+      <c r="J17" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="K17" s="11">
+        <v>0</v>
+      </c>
+      <c r="L17" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="M17" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="N17" s="11" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="18" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B18" s="12" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="C18" s="13" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="D18" s="13"/>
       <c r="E18" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="F18" s="13">
-        <v>0</v>
+        <v>18</v>
+      </c>
+      <c r="F18" s="13" t="s">
+        <v>18</v>
       </c>
       <c r="G18" s="13" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="H18" s="13" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="I18" s="13" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="19" spans="2:9" x14ac:dyDescent="0.3">
+        <v>18</v>
+      </c>
+      <c r="J18" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="K18" s="13">
+        <v>0</v>
+      </c>
+      <c r="L18" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="M18" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="N18" s="13" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="19" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B19" s="10" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="C19" s="11" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="D19" s="11"/>
       <c r="E19" s="11" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="F19" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="G19" s="11">
+        <v>18</v>
+      </c>
+      <c r="G19" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="H19" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="I19" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="J19" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="K19" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="L19" s="11">
         <v>121</v>
       </c>
-      <c r="H19" s="11">
+      <c r="M19" s="11">
         <v>2725</v>
       </c>
-      <c r="I19" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="N19" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B20" s="12" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="C20" s="13" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="D20" s="13"/>
       <c r="E20" s="13" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="F20" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="G20" s="13">
-        <v>0</v>
-      </c>
-      <c r="H20" s="13">
+        <v>18</v>
+      </c>
+      <c r="G20" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="H20" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="I20" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="J20" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="K20" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="L20" s="13">
+        <v>0</v>
+      </c>
+      <c r="M20" s="13">
         <v>284</v>
       </c>
-      <c r="I20" s="13">
+      <c r="N20" s="13">
         <v>100</v>
       </c>
     </row>
-    <row r="21" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B21" s="14" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="C21" s="15"/>
       <c r="D21" s="15"/>
       <c r="E21" s="15">
+        <v>20476</v>
+      </c>
+      <c r="F21" s="15">
+        <v>44975</v>
+      </c>
+      <c r="G21" s="15">
+        <v>25973</v>
+      </c>
+      <c r="H21" s="15">
+        <v>12207</v>
+      </c>
+      <c r="I21" s="15">
+        <v>31417</v>
+      </c>
+      <c r="J21" s="15">
         <v>49640</v>
       </c>
-      <c r="F21" s="15">
-        <v>0</v>
-      </c>
-      <c r="G21" s="15">
+      <c r="K21" s="15">
+        <v>0</v>
+      </c>
+      <c r="L21" s="15">
         <v>10461</v>
       </c>
-      <c r="H21" s="15">
+      <c r="M21" s="15">
         <v>18872</v>
       </c>
-      <c r="I21" s="15">
+      <c r="N21" s="15">
         <v>43159</v>
       </c>
     </row>
-    <row r="22" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B22" s="8" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="C22" s="9"/>
       <c r="D22" s="9"/>
@@ -1073,58 +1313,93 @@
       <c r="G22" s="9"/>
       <c r="H22" s="9"/>
       <c r="I22" s="9"/>
-    </row>
-    <row r="23" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J22" s="9"/>
+      <c r="K22" s="9"/>
+      <c r="L22" s="9"/>
+      <c r="M22" s="9"/>
+      <c r="N22" s="9"/>
+    </row>
+    <row r="23" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B23" s="10" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="C23" s="11" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="D23" s="11"/>
-      <c r="E23" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="F23" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="G23" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="H23" s="11" t="s">
-        <v>13</v>
+      <c r="E23" s="11">
+        <v>0</v>
+      </c>
+      <c r="F23" s="11">
+        <v>0</v>
+      </c>
+      <c r="G23" s="11">
+        <v>0</v>
+      </c>
+      <c r="H23" s="11">
+        <v>0</v>
       </c>
       <c r="I23" s="11" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="24" spans="2:9" x14ac:dyDescent="0.3">
+        <v>18</v>
+      </c>
+      <c r="J23" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="K23" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="L23" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="M23" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="N23" s="11" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="24" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B24" s="12" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="C24" s="13" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="D24" s="13"/>
       <c r="E24" s="13" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="F24" s="13" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="G24" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="H24" s="13" t="s">
-        <v>13</v>
+        <v>18</v>
+      </c>
+      <c r="H24" s="13">
+        <v>0</v>
       </c>
       <c r="I24" s="13" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="25" spans="2:9" x14ac:dyDescent="0.3">
+        <v>18</v>
+      </c>
+      <c r="J24" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="K24" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="L24" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="M24" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="N24" s="13" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="25" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B25" s="14" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="C25" s="15"/>
       <c r="D25" s="15"/>
@@ -1143,10 +1418,25 @@
       <c r="I25" s="15">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J25" s="15">
+        <v>0</v>
+      </c>
+      <c r="K25" s="15">
+        <v>0</v>
+      </c>
+      <c r="L25" s="15">
+        <v>0</v>
+      </c>
+      <c r="M25" s="15">
+        <v>0</v>
+      </c>
+      <c r="N25" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B26" s="8" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="C26" s="9"/>
       <c r="D26" s="9"/>
@@ -1155,122 +1445,202 @@
       <c r="G26" s="9"/>
       <c r="H26" s="9"/>
       <c r="I26" s="9"/>
-    </row>
-    <row r="27" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J26" s="9"/>
+      <c r="K26" s="9"/>
+      <c r="L26" s="9"/>
+      <c r="M26" s="9"/>
+      <c r="N26" s="9"/>
+    </row>
+    <row r="27" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B27" s="10" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="C27" s="11" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="D27" s="11"/>
       <c r="E27" s="11">
+        <v>0</v>
+      </c>
+      <c r="F27" s="11">
+        <v>-34920</v>
+      </c>
+      <c r="G27" s="11">
+        <v>-51767</v>
+      </c>
+      <c r="H27" s="11">
+        <v>0</v>
+      </c>
+      <c r="I27" s="11">
+        <v>32122</v>
+      </c>
+      <c r="J27" s="11">
         <v>12407</v>
       </c>
-      <c r="F27" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="G27" s="11">
+      <c r="K27" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="L27" s="11">
         <v>5475</v>
       </c>
-      <c r="H27" s="11">
+      <c r="M27" s="11">
         <v>29728</v>
       </c>
-      <c r="I27" s="11">
+      <c r="N27" s="11">
         <v>5243</v>
       </c>
     </row>
-    <row r="28" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B28" s="16" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="C28" s="17"/>
       <c r="D28" s="17"/>
       <c r="E28" s="17">
+        <v>0</v>
+      </c>
+      <c r="F28" s="17">
+        <v>-34920</v>
+      </c>
+      <c r="G28" s="17">
+        <v>-51767</v>
+      </c>
+      <c r="H28" s="17">
+        <v>0</v>
+      </c>
+      <c r="I28" s="17">
+        <v>32122</v>
+      </c>
+      <c r="J28" s="17">
         <v>12407</v>
       </c>
-      <c r="F28" s="17">
-        <v>0</v>
-      </c>
-      <c r="G28" s="17">
+      <c r="K28" s="17">
+        <v>0</v>
+      </c>
+      <c r="L28" s="17">
         <v>5475</v>
       </c>
-      <c r="H28" s="17">
+      <c r="M28" s="17">
         <v>29728</v>
       </c>
-      <c r="I28" s="17">
+      <c r="N28" s="17">
         <v>5243</v>
       </c>
     </row>
-    <row r="29" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B29" s="14" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="C29" s="15" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="D29" s="15"/>
-      <c r="E29" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="F29" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="G29" s="15" t="s">
-        <v>13</v>
+      <c r="E29" s="15">
+        <v>0</v>
+      </c>
+      <c r="F29" s="15">
+        <v>0</v>
+      </c>
+      <c r="G29" s="15">
+        <v>0</v>
       </c>
       <c r="H29" s="15" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="I29" s="15" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="30" spans="2:9" x14ac:dyDescent="0.3">
+        <v>18</v>
+      </c>
+      <c r="J29" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="K29" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="L29" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="M29" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="N29" s="15" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="30" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B30" s="16" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="C30" s="17"/>
       <c r="D30" s="17"/>
       <c r="E30" s="17">
         <v>0</v>
       </c>
-      <c r="F30" s="17" t="s">
-        <v>13</v>
+      <c r="F30" s="17">
+        <v>0</v>
       </c>
       <c r="G30" s="17">
         <v>0</v>
       </c>
-      <c r="H30" s="17">
-        <v>0</v>
+      <c r="H30" s="17" t="s">
+        <v>18</v>
       </c>
       <c r="I30" s="17">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J30" s="17">
+        <v>0</v>
+      </c>
+      <c r="K30" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="L30" s="17">
+        <v>0</v>
+      </c>
+      <c r="M30" s="17">
+        <v>0</v>
+      </c>
+      <c r="N30" s="17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B31" s="14" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="C31" s="15"/>
       <c r="D31" s="15"/>
       <c r="E31" s="15">
+        <v>20476</v>
+      </c>
+      <c r="F31" s="15">
+        <v>10055</v>
+      </c>
+      <c r="G31" s="15">
+        <v>-25794</v>
+      </c>
+      <c r="H31" s="15">
+        <v>12207</v>
+      </c>
+      <c r="I31" s="15">
+        <v>63539</v>
+      </c>
+      <c r="J31" s="15">
         <v>62047</v>
       </c>
-      <c r="F31" s="15">
-        <v>0</v>
-      </c>
-      <c r="G31" s="15">
+      <c r="K31" s="15">
+        <v>0</v>
+      </c>
+      <c r="L31" s="15">
         <v>15936</v>
       </c>
-      <c r="H31" s="15">
+      <c r="M31" s="15">
         <v>48600</v>
       </c>
-      <c r="I31" s="15">
+      <c r="N31" s="15">
         <v>48402</v>
       </c>
     </row>
-    <row r="32" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B32" s="1"/>
       <c r="C32" s="1"/>
       <c r="D32" s="1"/>
@@ -1279,8 +1649,13 @@
       <c r="G32" s="1"/>
       <c r="H32" s="1"/>
       <c r="I32" s="1"/>
-    </row>
-    <row r="33" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J32" s="1"/>
+      <c r="K32" s="1"/>
+      <c r="L32" s="1"/>
+      <c r="M32" s="1"/>
+      <c r="N32" s="1"/>
+    </row>
+    <row r="33" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B33" s="1"/>
       <c r="C33" s="1"/>
       <c r="D33" s="1"/>
@@ -1289,8 +1664,13 @@
       <c r="G33" s="1"/>
       <c r="H33" s="1"/>
       <c r="I33" s="1"/>
-    </row>
-    <row r="34" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J33" s="1"/>
+      <c r="K33" s="1"/>
+      <c r="L33" s="1"/>
+      <c r="M33" s="1"/>
+      <c r="N33" s="1"/>
+    </row>
+    <row r="34" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B34" s="1"/>
       <c r="C34" s="1"/>
       <c r="D34" s="1"/>
@@ -1299,10 +1679,15 @@
       <c r="G34" s="1"/>
       <c r="H34" s="1"/>
       <c r="I34" s="1"/>
-    </row>
-    <row r="35" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="J34" s="1"/>
+      <c r="K34" s="1"/>
+      <c r="L34" s="1"/>
+      <c r="M34" s="1"/>
+      <c r="N34" s="1"/>
+    </row>
+    <row r="35" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B35" s="7" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="C35" s="6"/>
       <c r="D35" s="6"/>
@@ -1321,8 +1706,23 @@
       <c r="I35" s="6" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="36" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J35" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="K35" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="L35" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="M35" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="N35" s="6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="36" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B36" s="1"/>
       <c r="C36" s="1"/>
       <c r="D36" s="1"/>
@@ -1331,10 +1731,15 @@
       <c r="G36" s="1"/>
       <c r="H36" s="1"/>
       <c r="I36" s="1"/>
-    </row>
-    <row r="37" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J36" s="1"/>
+      <c r="K36" s="1"/>
+      <c r="L36" s="1"/>
+      <c r="M36" s="1"/>
+      <c r="N36" s="1"/>
+    </row>
+    <row r="37" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B37" s="8" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="C37" s="9"/>
       <c r="D37" s="9"/>
@@ -1343,272 +1748,442 @@
       <c r="G37" s="9"/>
       <c r="H37" s="9"/>
       <c r="I37" s="9"/>
-    </row>
-    <row r="38" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J37" s="9"/>
+      <c r="K37" s="9"/>
+      <c r="L37" s="9"/>
+      <c r="M37" s="9"/>
+      <c r="N37" s="9"/>
+    </row>
+    <row r="38" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B38" s="10" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="C38" s="11" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="D38" s="11"/>
       <c r="E38" s="11">
+        <v>154876</v>
+      </c>
+      <c r="F38" s="11">
+        <v>386286</v>
+      </c>
+      <c r="G38" s="11">
+        <v>41548</v>
+      </c>
+      <c r="H38" s="11">
+        <v>189271</v>
+      </c>
+      <c r="I38" s="11">
+        <v>207112</v>
+      </c>
+      <c r="J38" s="11">
         <v>514942</v>
       </c>
-      <c r="F38" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="G38" s="11">
+      <c r="K38" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="L38" s="11">
         <v>265156</v>
       </c>
-      <c r="H38" s="11">
+      <c r="M38" s="11">
         <v>214456</v>
       </c>
-      <c r="I38" s="11">
+      <c r="N38" s="11">
         <v>1315169</v>
       </c>
     </row>
-    <row r="39" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B39" s="12" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="C39" s="13" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="D39" s="13"/>
       <c r="E39" s="13">
+        <v>55228</v>
+      </c>
+      <c r="F39" s="13">
+        <v>126631</v>
+      </c>
+      <c r="G39" s="13">
+        <v>113174</v>
+      </c>
+      <c r="H39" s="13">
+        <v>65589</v>
+      </c>
+      <c r="I39" s="13">
+        <v>208509</v>
+      </c>
+      <c r="J39" s="13">
         <v>196582</v>
       </c>
-      <c r="F39" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="G39" s="13">
+      <c r="K39" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="L39" s="13">
         <v>104192</v>
       </c>
-      <c r="H39" s="13">
+      <c r="M39" s="13">
         <v>281146</v>
       </c>
-      <c r="I39" s="13">
+      <c r="N39" s="13">
         <v>335778</v>
       </c>
     </row>
-    <row r="40" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B40" s="10" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C40" s="11" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="D40" s="11"/>
       <c r="E40" s="11">
         <v>0</v>
       </c>
-      <c r="F40" s="11" t="s">
-        <v>13</v>
+      <c r="F40" s="11">
+        <v>0</v>
       </c>
       <c r="G40" s="11">
+        <v>33980</v>
+      </c>
+      <c r="H40" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="I40" s="11">
+        <v>0</v>
+      </c>
+      <c r="J40" s="11">
+        <v>0</v>
+      </c>
+      <c r="K40" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="L40" s="11">
         <v>70</v>
       </c>
-      <c r="H40" s="11">
-        <v>0</v>
-      </c>
-      <c r="I40" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="M40" s="11">
+        <v>0</v>
+      </c>
+      <c r="N40" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B41" s="12" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="C41" s="13" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="D41" s="13"/>
       <c r="E41" s="13">
+        <v>700588</v>
+      </c>
+      <c r="F41" s="13">
+        <v>1721684</v>
+      </c>
+      <c r="G41" s="13">
+        <v>929333</v>
+      </c>
+      <c r="H41" s="13">
+        <v>502357</v>
+      </c>
+      <c r="I41" s="13">
+        <v>2163046</v>
+      </c>
+      <c r="J41" s="13">
         <v>3755416</v>
       </c>
-      <c r="F41" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="G41" s="13">
+      <c r="K41" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="L41" s="13">
         <v>925538</v>
       </c>
-      <c r="H41" s="13">
+      <c r="M41" s="13">
         <v>1506860</v>
       </c>
-      <c r="I41" s="13">
+      <c r="N41" s="13">
         <v>3827528</v>
       </c>
     </row>
-    <row r="42" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B42" s="10" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="C42" s="11" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="D42" s="11"/>
       <c r="E42" s="11">
+        <v>23</v>
+      </c>
+      <c r="F42" s="11">
+        <v>19</v>
+      </c>
+      <c r="G42" s="11">
+        <v>8</v>
+      </c>
+      <c r="H42" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="I42" s="11">
+        <v>27</v>
+      </c>
+      <c r="J42" s="11">
         <v>32</v>
       </c>
-      <c r="F42" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="G42" s="11">
-        <v>0</v>
-      </c>
-      <c r="H42" s="11">
+      <c r="K42" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="L42" s="11">
+        <v>0</v>
+      </c>
+      <c r="M42" s="11">
         <v>36</v>
       </c>
-      <c r="I42" s="11">
+      <c r="N42" s="11">
         <v>-36</v>
       </c>
     </row>
-    <row r="43" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="43" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B43" s="12" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="C43" s="13" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="D43" s="13"/>
       <c r="E43" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="F43" s="13">
-        <v>0</v>
+        <v>18</v>
+      </c>
+      <c r="F43" s="13" t="s">
+        <v>18</v>
       </c>
       <c r="G43" s="13" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="H43" s="13" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="I43" s="13" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="44" spans="2:9" x14ac:dyDescent="0.3">
+        <v>18</v>
+      </c>
+      <c r="J43" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="K43" s="13">
+        <v>0</v>
+      </c>
+      <c r="L43" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="M43" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="N43" s="13" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="44" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B44" s="10" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="C44" s="11" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="D44" s="11"/>
       <c r="E44" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="F44" s="11">
-        <v>0</v>
+        <v>18</v>
+      </c>
+      <c r="F44" s="11" t="s">
+        <v>18</v>
       </c>
       <c r="G44" s="11" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="H44" s="11" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="I44" s="11" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="45" spans="2:9" x14ac:dyDescent="0.3">
+        <v>18</v>
+      </c>
+      <c r="J44" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="K44" s="11">
+        <v>0</v>
+      </c>
+      <c r="L44" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="M44" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="N44" s="11" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="45" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B45" s="12" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="C45" s="13" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="D45" s="13"/>
       <c r="E45" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="F45" s="13">
-        <v>0</v>
+        <v>18</v>
+      </c>
+      <c r="F45" s="13" t="s">
+        <v>18</v>
       </c>
       <c r="G45" s="13" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="H45" s="13" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="I45" s="13" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="46" spans="2:9" x14ac:dyDescent="0.3">
+        <v>18</v>
+      </c>
+      <c r="J45" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="K45" s="13">
+        <v>0</v>
+      </c>
+      <c r="L45" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="M45" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="N45" s="13" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="46" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B46" s="10" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="C46" s="11" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="D46" s="11"/>
       <c r="E46" s="11" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="F46" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="G46" s="11">
+        <v>18</v>
+      </c>
+      <c r="G46" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="H46" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="I46" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="J46" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="K46" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="L46" s="11">
         <v>962</v>
       </c>
-      <c r="H46" s="11">
+      <c r="M46" s="11">
         <v>21792</v>
       </c>
-      <c r="I46" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="N46" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B47" s="12" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="C47" s="13" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="D47" s="13"/>
       <c r="E47" s="13" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="F47" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="G47" s="13">
-        <v>0</v>
-      </c>
-      <c r="H47" s="13">
+        <v>18</v>
+      </c>
+      <c r="G47" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="H47" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="I47" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="J47" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="K47" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="L47" s="13">
+        <v>0</v>
+      </c>
+      <c r="M47" s="13">
         <v>6257</v>
       </c>
-      <c r="I47" s="13">
+      <c r="N47" s="13">
         <v>2191</v>
       </c>
     </row>
-    <row r="48" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="48" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B48" s="14" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="C48" s="15"/>
       <c r="D48" s="15"/>
       <c r="E48" s="15">
+        <v>910715</v>
+      </c>
+      <c r="F48" s="15">
+        <v>2234620</v>
+      </c>
+      <c r="G48" s="15">
+        <v>1118043</v>
+      </c>
+      <c r="H48" s="15">
+        <v>757217</v>
+      </c>
+      <c r="I48" s="15">
+        <v>2578694</v>
+      </c>
+      <c r="J48" s="15">
         <v>4466972</v>
       </c>
-      <c r="F48" s="15">
-        <v>0</v>
-      </c>
-      <c r="G48" s="15">
+      <c r="K48" s="15">
+        <v>0</v>
+      </c>
+      <c r="L48" s="15">
         <v>1295918</v>
       </c>
-      <c r="H48" s="15">
+      <c r="M48" s="15">
         <v>2030547</v>
       </c>
-      <c r="I48" s="15">
+      <c r="N48" s="15">
         <v>5480630</v>
       </c>
     </row>
-    <row r="49" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="49" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B49" s="8" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="C49" s="9"/>
       <c r="D49" s="9"/>
@@ -1617,58 +2192,93 @@
       <c r="G49" s="9"/>
       <c r="H49" s="9"/>
       <c r="I49" s="9"/>
-    </row>
-    <row r="50" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J49" s="9"/>
+      <c r="K49" s="9"/>
+      <c r="L49" s="9"/>
+      <c r="M49" s="9"/>
+      <c r="N49" s="9"/>
+    </row>
+    <row r="50" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B50" s="10" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="C50" s="11" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="D50" s="11"/>
-      <c r="E50" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="F50" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="G50" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="H50" s="11" t="s">
-        <v>13</v>
+      <c r="E50" s="11">
+        <v>0</v>
+      </c>
+      <c r="F50" s="11">
+        <v>0</v>
+      </c>
+      <c r="G50" s="11">
+        <v>0</v>
+      </c>
+      <c r="H50" s="11">
+        <v>0</v>
       </c>
       <c r="I50" s="11" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="51" spans="2:9" x14ac:dyDescent="0.3">
+        <v>18</v>
+      </c>
+      <c r="J50" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="K50" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="L50" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="M50" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="N50" s="11" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="51" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B51" s="12" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="C51" s="13" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="D51" s="13"/>
       <c r="E51" s="13" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="F51" s="13" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="G51" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="H51" s="13" t="s">
-        <v>13</v>
+        <v>18</v>
+      </c>
+      <c r="H51" s="13">
+        <v>0</v>
       </c>
       <c r="I51" s="13" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="52" spans="2:9" x14ac:dyDescent="0.3">
+        <v>18</v>
+      </c>
+      <c r="J51" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="K51" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="L51" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="M51" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="N51" s="13" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="52" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B52" s="14" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="C52" s="15"/>
       <c r="D52" s="15"/>
@@ -1687,10 +2297,25 @@
       <c r="I52" s="15">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J52" s="15">
+        <v>0</v>
+      </c>
+      <c r="K52" s="15">
+        <v>0</v>
+      </c>
+      <c r="L52" s="15">
+        <v>0</v>
+      </c>
+      <c r="M52" s="15">
+        <v>0</v>
+      </c>
+      <c r="N52" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B53" s="8" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="C53" s="9"/>
       <c r="D53" s="9"/>
@@ -1699,124 +2324,204 @@
       <c r="G53" s="9"/>
       <c r="H53" s="9"/>
       <c r="I53" s="9"/>
-    </row>
-    <row r="54" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J53" s="9"/>
+      <c r="K53" s="9"/>
+      <c r="L53" s="9"/>
+      <c r="M53" s="9"/>
+      <c r="N53" s="9"/>
+    </row>
+    <row r="54" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B54" s="10" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="C54" s="11" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="D54" s="11"/>
       <c r="E54" s="11">
+        <v>20726</v>
+      </c>
+      <c r="F54" s="11">
+        <v>36562</v>
+      </c>
+      <c r="G54" s="11">
+        <v>48080</v>
+      </c>
+      <c r="H54" s="11">
+        <v>66296</v>
+      </c>
+      <c r="I54" s="11">
+        <v>121185</v>
+      </c>
+      <c r="J54" s="11">
         <v>49628</v>
       </c>
-      <c r="F54" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="G54" s="11">
+      <c r="K54" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="L54" s="11">
         <v>33823</v>
       </c>
-      <c r="H54" s="11">
+      <c r="M54" s="11">
         <v>210612</v>
       </c>
-      <c r="I54" s="11">
+      <c r="N54" s="11">
         <v>43413</v>
       </c>
     </row>
-    <row r="55" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="55" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B55" s="16" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="C55" s="17"/>
       <c r="D55" s="17"/>
       <c r="E55" s="17">
+        <v>20726</v>
+      </c>
+      <c r="F55" s="17">
+        <v>36562</v>
+      </c>
+      <c r="G55" s="17">
+        <v>48080</v>
+      </c>
+      <c r="H55" s="17">
+        <v>66296</v>
+      </c>
+      <c r="I55" s="17">
+        <v>121185</v>
+      </c>
+      <c r="J55" s="17">
         <v>49628</v>
       </c>
-      <c r="F55" s="17">
-        <v>0</v>
-      </c>
-      <c r="G55" s="17">
+      <c r="K55" s="17">
+        <v>0</v>
+      </c>
+      <c r="L55" s="17">
         <v>33823</v>
       </c>
-      <c r="H55" s="17">
+      <c r="M55" s="17">
         <v>210612</v>
       </c>
-      <c r="I55" s="17">
+      <c r="N55" s="17">
         <v>43413</v>
       </c>
     </row>
-    <row r="56" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="56" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B56" s="14" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="C56" s="15" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="D56" s="15"/>
-      <c r="E56" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="F56" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="G56" s="15" t="s">
-        <v>13</v>
+      <c r="E56" s="15">
+        <v>0</v>
+      </c>
+      <c r="F56" s="15">
+        <v>0</v>
+      </c>
+      <c r="G56" s="15">
+        <v>0</v>
       </c>
       <c r="H56" s="15" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="I56" s="15" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="57" spans="2:9" x14ac:dyDescent="0.3">
+        <v>18</v>
+      </c>
+      <c r="J56" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="K56" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="L56" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="M56" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="N56" s="15" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="57" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B57" s="16" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="C57" s="17" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="D57" s="17"/>
       <c r="E57" s="17">
         <v>0</v>
       </c>
-      <c r="F57" s="17" t="s">
-        <v>13</v>
+      <c r="F57" s="17">
+        <v>0</v>
       </c>
       <c r="G57" s="17">
         <v>0</v>
       </c>
-      <c r="H57" s="17">
-        <v>0</v>
+      <c r="H57" s="17" t="s">
+        <v>18</v>
       </c>
       <c r="I57" s="17">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J57" s="17">
+        <v>0</v>
+      </c>
+      <c r="K57" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="L57" s="17">
+        <v>0</v>
+      </c>
+      <c r="M57" s="17">
+        <v>0</v>
+      </c>
+      <c r="N57" s="17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B58" s="14" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="C58" s="15"/>
       <c r="D58" s="15"/>
       <c r="E58" s="15">
+        <v>931441</v>
+      </c>
+      <c r="F58" s="15">
+        <v>2271182</v>
+      </c>
+      <c r="G58" s="15">
+        <v>1166123</v>
+      </c>
+      <c r="H58" s="15">
+        <v>823513</v>
+      </c>
+      <c r="I58" s="15">
+        <v>2699879</v>
+      </c>
+      <c r="J58" s="15">
         <v>4516600</v>
       </c>
-      <c r="F58" s="15">
-        <v>0</v>
-      </c>
-      <c r="G58" s="15">
+      <c r="K58" s="15">
+        <v>0</v>
+      </c>
+      <c r="L58" s="15">
         <v>1329741</v>
       </c>
-      <c r="H58" s="15">
+      <c r="M58" s="15">
         <v>2241159</v>
       </c>
-      <c r="I58" s="15">
+      <c r="N58" s="15">
         <v>5524043</v>
       </c>
     </row>
-    <row r="59" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="59" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B59" s="1"/>
       <c r="C59" s="1"/>
       <c r="D59" s="1"/>
@@ -1825,8 +2530,13 @@
       <c r="G59" s="1"/>
       <c r="H59" s="1"/>
       <c r="I59" s="1"/>
-    </row>
-    <row r="60" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J59" s="1"/>
+      <c r="K59" s="1"/>
+      <c r="L59" s="1"/>
+      <c r="M59" s="1"/>
+      <c r="N59" s="1"/>
+    </row>
+    <row r="60" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B60" s="1"/>
       <c r="C60" s="1"/>
       <c r="D60" s="1"/>
@@ -1835,8 +2545,13 @@
       <c r="G60" s="1"/>
       <c r="H60" s="1"/>
       <c r="I60" s="1"/>
-    </row>
-    <row r="61" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J60" s="1"/>
+      <c r="K60" s="1"/>
+      <c r="L60" s="1"/>
+      <c r="M60" s="1"/>
+      <c r="N60" s="1"/>
+    </row>
+    <row r="61" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B61" s="1"/>
       <c r="C61" s="1"/>
       <c r="D61" s="1"/>
@@ -1845,10 +2560,15 @@
       <c r="G61" s="1"/>
       <c r="H61" s="1"/>
       <c r="I61" s="1"/>
-    </row>
-    <row r="62" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="J61" s="1"/>
+      <c r="K61" s="1"/>
+      <c r="L61" s="1"/>
+      <c r="M61" s="1"/>
+      <c r="N61" s="1"/>
+    </row>
+    <row r="62" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B62" s="7" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="C62" s="6"/>
       <c r="D62" s="6"/>
@@ -1867,8 +2587,23 @@
       <c r="I62" s="6" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="63" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J62" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="K62" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="L62" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="M62" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="N62" s="6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="63" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B63" s="1"/>
       <c r="C63" s="1"/>
       <c r="D63" s="1"/>
@@ -1877,10 +2612,15 @@
       <c r="G63" s="1"/>
       <c r="H63" s="1"/>
       <c r="I63" s="1"/>
-    </row>
-    <row r="64" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J63" s="1"/>
+      <c r="K63" s="1"/>
+      <c r="L63" s="1"/>
+      <c r="M63" s="1"/>
+      <c r="N63" s="1"/>
+    </row>
+    <row r="64" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B64" s="8" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="C64" s="9"/>
       <c r="D64" s="9"/>
@@ -1889,250 +2629,405 @@
       <c r="G64" s="9"/>
       <c r="H64" s="9"/>
       <c r="I64" s="9"/>
-    </row>
-    <row r="65" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J64" s="9"/>
+      <c r="K64" s="9"/>
+      <c r="L64" s="9"/>
+      <c r="M64" s="9"/>
+      <c r="N64" s="9"/>
+    </row>
+    <row r="65" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B65" s="10" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="C65" s="11" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="D65" s="11"/>
       <c r="E65" s="11">
+        <v>20881219</v>
+      </c>
+      <c r="F65" s="11">
+        <v>27664972</v>
+      </c>
+      <c r="G65" s="11">
+        <v>6038076</v>
+      </c>
+      <c r="H65" s="11">
+        <v>40546487</v>
+      </c>
+      <c r="I65" s="11">
+        <v>29615563</v>
+      </c>
+      <c r="J65" s="11">
         <v>51602266</v>
       </c>
-      <c r="F65" s="11">
+      <c r="K65" s="11">
         <v>106595847</v>
       </c>
-      <c r="G65" s="11">
+      <c r="L65" s="11">
         <v>81411115</v>
       </c>
-      <c r="H65" s="11">
+      <c r="M65" s="11">
         <v>83025939</v>
       </c>
-      <c r="I65" s="11">
+      <c r="N65" s="11">
         <v>84997673</v>
       </c>
     </row>
-    <row r="66" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="66" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B66" s="12" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="C66" s="13" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="D66" s="13"/>
       <c r="E66" s="13">
+        <v>25965209</v>
+      </c>
+      <c r="F66" s="13">
+        <v>27522495</v>
+      </c>
+      <c r="G66" s="13">
+        <v>31306777</v>
+      </c>
+      <c r="H66" s="13">
+        <v>38902135</v>
+      </c>
+      <c r="I66" s="13">
+        <v>35185454</v>
+      </c>
+      <c r="J66" s="13">
         <v>33206419</v>
       </c>
-      <c r="F66" s="13">
+      <c r="K66" s="13">
         <v>35826087</v>
       </c>
-      <c r="G66" s="13">
+      <c r="L66" s="13">
         <v>54041494</v>
       </c>
-      <c r="H66" s="13">
+      <c r="M66" s="13">
         <v>55267545</v>
       </c>
-      <c r="I66" s="13">
+      <c r="N66" s="13">
         <v>56253644</v>
       </c>
     </row>
-    <row r="67" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="67" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B67" s="10" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C67" s="11" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="D67" s="11"/>
       <c r="E67" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="F67" s="11">
+        <v>18</v>
+      </c>
+      <c r="F67" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="G67" s="11">
+        <v>40452381</v>
+      </c>
+      <c r="H67" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="I67" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="J67" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="K67" s="11">
         <v>126111111</v>
       </c>
-      <c r="G67" s="11">
+      <c r="L67" s="11">
         <v>70000000</v>
       </c>
-      <c r="H67" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="I67" s="11" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="68" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="M67" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="N67" s="11" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="68" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B68" s="12" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="C68" s="13" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="D68" s="13"/>
       <c r="E68" s="13">
+        <v>64091849</v>
+      </c>
+      <c r="F68" s="13">
+        <v>65188141</v>
+      </c>
+      <c r="G68" s="13">
+        <v>63492041</v>
+      </c>
+      <c r="H68" s="13">
+        <v>85828977</v>
+      </c>
+      <c r="I68" s="13">
+        <v>120986463</v>
+      </c>
+      <c r="J68" s="13">
         <v>124205454</v>
       </c>
-      <c r="F68" s="13">
+      <c r="K68" s="13">
         <v>135994991</v>
       </c>
-      <c r="G68" s="13">
+      <c r="L68" s="13">
         <v>179576640</v>
       </c>
-      <c r="H68" s="13">
+      <c r="M68" s="13">
         <v>183920420</v>
       </c>
-      <c r="I68" s="13">
+      <c r="N68" s="13">
         <v>177061017</v>
       </c>
     </row>
-    <row r="69" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="69" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B69" s="10" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="C69" s="11" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="D69" s="11"/>
-      <c r="E69" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="F69" s="11">
+      <c r="E69" s="11">
+        <v>23000000</v>
+      </c>
+      <c r="F69" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="G69" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="H69" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="I69" s="11">
+        <v>27000000</v>
+      </c>
+      <c r="J69" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="K69" s="11">
         <v>-6000000</v>
       </c>
-      <c r="G69" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="H69" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="I69" s="11" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="70" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="L69" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="M69" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="N69" s="11" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="70" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B70" s="12" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="C70" s="13" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="D70" s="13"/>
       <c r="E70" s="13" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="F70" s="13" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="G70" s="13" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="H70" s="13" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="I70" s="13" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="71" spans="2:9" x14ac:dyDescent="0.3">
+        <v>18</v>
+      </c>
+      <c r="J70" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="K70" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="L70" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="M70" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="N70" s="13" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="71" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B71" s="10" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="C71" s="11" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="D71" s="11"/>
       <c r="E71" s="11" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="F71" s="11" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="G71" s="11" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="H71" s="11" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="I71" s="11" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="72" spans="2:9" x14ac:dyDescent="0.3">
+        <v>18</v>
+      </c>
+      <c r="J71" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="K71" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="L71" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="M71" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="N71" s="11" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="72" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B72" s="12" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="C72" s="13" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="D72" s="13"/>
       <c r="E72" s="13" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="F72" s="13" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="G72" s="13" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="H72" s="13" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="I72" s="13" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="73" spans="2:9" x14ac:dyDescent="0.3">
+        <v>18</v>
+      </c>
+      <c r="J72" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="K72" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="L72" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="M72" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="N72" s="13" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="73" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B73" s="10" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="C73" s="11" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="D73" s="11"/>
       <c r="E73" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="F73" s="11">
+        <v>18</v>
+      </c>
+      <c r="F73" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="G73" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="H73" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="I73" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="J73" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="K73" s="11">
         <v>6757344</v>
       </c>
-      <c r="G73" s="11">
+      <c r="L73" s="11">
         <v>7950413</v>
       </c>
-      <c r="H73" s="11">
+      <c r="M73" s="11">
         <v>7997064</v>
       </c>
-      <c r="I73" s="11" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="74" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="N73" s="11" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="74" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B74" s="12" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="C74" s="13" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="D74" s="13"/>
       <c r="E74" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="F74" s="13">
+        <v>18</v>
+      </c>
+      <c r="F74" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="G74" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="H74" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="I74" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="J74" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="K74" s="13">
         <v>19417674</v>
       </c>
-      <c r="G74" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="H74" s="13">
+      <c r="L74" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="M74" s="13">
         <v>22031690</v>
       </c>
-      <c r="I74" s="13">
+      <c r="N74" s="13">
         <v>21910000</v>
       </c>
     </row>
-    <row r="75" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="75" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B75" s="8" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="C75" s="9"/>
       <c r="D75" s="9"/>
@@ -2141,58 +3036,93 @@
       <c r="G75" s="9"/>
       <c r="H75" s="9"/>
       <c r="I75" s="9"/>
-    </row>
-    <row r="76" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J75" s="9"/>
+      <c r="K75" s="9"/>
+      <c r="L75" s="9"/>
+      <c r="M75" s="9"/>
+      <c r="N75" s="9"/>
+    </row>
+    <row r="76" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B76" s="10" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="C76" s="11" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="D76" s="11"/>
       <c r="E76" s="11" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="F76" s="11" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="G76" s="11" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="H76" s="11" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="I76" s="11" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="77" spans="2:9" x14ac:dyDescent="0.3">
+        <v>18</v>
+      </c>
+      <c r="J76" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="K76" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="L76" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="M76" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="N76" s="11" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="77" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B77" s="12" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="C77" s="13" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="D77" s="13"/>
       <c r="E77" s="13" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="F77" s="13" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="G77" s="13" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="H77" s="13" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="I77" s="13" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="78" spans="2:9" x14ac:dyDescent="0.3">
+        <v>18</v>
+      </c>
+      <c r="J77" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="K77" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="L77" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="M77" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="N77" s="13" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="78" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B78" s="8" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="C78" s="9"/>
       <c r="D78" s="9"/>
@@ -2201,32 +3131,52 @@
       <c r="G78" s="9"/>
       <c r="H78" s="9"/>
       <c r="I78" s="9"/>
-    </row>
-    <row r="79" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J78" s="9"/>
+      <c r="K78" s="9"/>
+      <c r="L78" s="9"/>
+      <c r="M78" s="9"/>
+      <c r="N78" s="9"/>
+    </row>
+    <row r="79" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B79" s="10" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="C79" s="11" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="D79" s="11"/>
       <c r="E79" s="11" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="F79" s="11" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="G79" s="11" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="H79" s="11" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="I79" s="11" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="80" spans="2:9" x14ac:dyDescent="0.3">
+        <v>18</v>
+      </c>
+      <c r="J79" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="K79" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="L79" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="M79" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="N79" s="11" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="80" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B80" s="1"/>
       <c r="C80" s="1"/>
       <c r="D80" s="1"/>
@@ -2235,8 +3185,13 @@
       <c r="G80" s="1"/>
       <c r="H80" s="1"/>
       <c r="I80" s="1"/>
-    </row>
-    <row r="81" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J80" s="1"/>
+      <c r="K80" s="1"/>
+      <c r="L80" s="1"/>
+      <c r="M80" s="1"/>
+      <c r="N80" s="1"/>
+    </row>
+    <row r="81" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B81" s="1"/>
       <c r="C81" s="1"/>
       <c r="D81" s="1"/>
@@ -2245,8 +3200,13 @@
       <c r="G81" s="1"/>
       <c r="H81" s="1"/>
       <c r="I81" s="1"/>
-    </row>
-    <row r="82" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J81" s="1"/>
+      <c r="K81" s="1"/>
+      <c r="L81" s="1"/>
+      <c r="M81" s="1"/>
+      <c r="N81" s="1"/>
+    </row>
+    <row r="82" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B82" s="1"/>
       <c r="C82" s="1"/>
       <c r="D82" s="1"/>
@@ -2255,10 +3215,15 @@
       <c r="G82" s="1"/>
       <c r="H82" s="1"/>
       <c r="I82" s="1"/>
-    </row>
-    <row r="83" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="J82" s="1"/>
+      <c r="K82" s="1"/>
+      <c r="L82" s="1"/>
+      <c r="M82" s="1"/>
+      <c r="N82" s="1"/>
+    </row>
+    <row r="83" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B83" s="7" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="C83" s="6"/>
       <c r="D83" s="6"/>
@@ -2277,8 +3242,23 @@
       <c r="I83" s="6" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="84" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J83" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="K83" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="L83" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="M83" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="N83" s="6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="84" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B84" s="1"/>
       <c r="C84" s="1"/>
       <c r="D84" s="1"/>
@@ -2287,10 +3267,15 @@
       <c r="G84" s="1"/>
       <c r="H84" s="1"/>
       <c r="I84" s="1"/>
-    </row>
-    <row r="85" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J84" s="1"/>
+      <c r="K84" s="1"/>
+      <c r="L84" s="1"/>
+      <c r="M84" s="1"/>
+      <c r="N84" s="1"/>
+    </row>
+    <row r="85" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B85" s="8" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="C85" s="9"/>
       <c r="D85" s="9"/>
@@ -2299,272 +3284,442 @@
       <c r="G85" s="9"/>
       <c r="H85" s="9"/>
       <c r="I85" s="9"/>
-    </row>
-    <row r="86" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J85" s="9"/>
+      <c r="K85" s="9"/>
+      <c r="L85" s="9"/>
+      <c r="M85" s="9"/>
+      <c r="N85" s="9"/>
+    </row>
+    <row r="86" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B86" s="10" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="C86" s="11" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="D86" s="11"/>
       <c r="E86" s="11">
+        <v>-123847</v>
+      </c>
+      <c r="F86" s="11">
+        <v>-200964</v>
+      </c>
+      <c r="G86" s="11">
+        <v>-115372</v>
+      </c>
+      <c r="H86" s="11">
+        <v>-94694</v>
+      </c>
+      <c r="I86" s="11">
+        <v>-246346</v>
+      </c>
+      <c r="J86" s="11">
         <v>-245999</v>
       </c>
-      <c r="F86" s="11">
+      <c r="K86" s="11">
         <v>-124827</v>
       </c>
-      <c r="G86" s="11">
+      <c r="L86" s="11">
         <v>-118678</v>
       </c>
-      <c r="H86" s="11">
+      <c r="M86" s="11">
         <v>-186674</v>
       </c>
-      <c r="I86" s="11">
+      <c r="N86" s="11">
         <v>-637689</v>
       </c>
     </row>
-    <row r="87" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="87" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B87" s="12" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="C87" s="13" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="D87" s="13"/>
       <c r="E87" s="13">
+        <v>-24999</v>
+      </c>
+      <c r="F87" s="13">
+        <v>-54699</v>
+      </c>
+      <c r="G87" s="13">
+        <v>-17775</v>
+      </c>
+      <c r="H87" s="13">
+        <v>-12519</v>
+      </c>
+      <c r="I87" s="13">
+        <v>-112963</v>
+      </c>
+      <c r="J87" s="13">
         <v>-116285</v>
       </c>
-      <c r="F87" s="13">
+      <c r="K87" s="13">
         <v>-45082</v>
       </c>
-      <c r="G87" s="13">
+      <c r="L87" s="13">
         <v>-38086</v>
       </c>
-      <c r="H87" s="13">
+      <c r="M87" s="13">
         <v>-182388</v>
       </c>
-      <c r="I87" s="13">
+      <c r="N87" s="13">
         <v>-219483</v>
       </c>
     </row>
-    <row r="88" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="88" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B88" s="10" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C88" s="11" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="D88" s="11"/>
       <c r="E88" s="11">
         <v>0</v>
       </c>
       <c r="F88" s="11">
+        <v>0</v>
+      </c>
+      <c r="G88" s="11">
+        <v>-32932</v>
+      </c>
+      <c r="H88" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="I88" s="11">
+        <v>0</v>
+      </c>
+      <c r="J88" s="11">
+        <v>0</v>
+      </c>
+      <c r="K88" s="11">
         <v>-1060</v>
       </c>
-      <c r="G88" s="11">
+      <c r="L88" s="11">
         <v>-21</v>
       </c>
-      <c r="H88" s="11">
-        <v>0</v>
-      </c>
-      <c r="I88" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="89" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="M88" s="11">
+        <v>0</v>
+      </c>
+      <c r="N88" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B89" s="12" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="C89" s="13" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="D89" s="13"/>
       <c r="E89" s="13">
+        <v>-599145</v>
+      </c>
+      <c r="F89" s="13">
+        <v>-1575558</v>
+      </c>
+      <c r="G89" s="13">
+        <v>-738343</v>
+      </c>
+      <c r="H89" s="13">
+        <v>-497680</v>
+      </c>
+      <c r="I89" s="13">
+        <v>-1808661</v>
+      </c>
+      <c r="J89" s="13">
         <v>-3105618</v>
       </c>
-      <c r="F89" s="13">
+      <c r="K89" s="13">
         <v>-1838925</v>
       </c>
-      <c r="G89" s="13">
+      <c r="L89" s="13">
         <v>-926724</v>
       </c>
-      <c r="H89" s="13">
+      <c r="M89" s="13">
         <v>-1240727</v>
       </c>
-      <c r="I89" s="13">
+      <c r="N89" s="13">
         <v>-3558804</v>
       </c>
     </row>
-    <row r="90" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="90" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B90" s="10" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="C90" s="11" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="D90" s="11"/>
       <c r="E90" s="11">
+        <v>-6</v>
+      </c>
+      <c r="F90" s="11">
         <v>-4</v>
       </c>
-      <c r="F90" s="11">
-        <v>0</v>
-      </c>
       <c r="G90" s="11">
-        <v>0</v>
-      </c>
-      <c r="H90" s="11">
+        <v>-1</v>
+      </c>
+      <c r="H90" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="I90" s="11">
+        <v>-4</v>
+      </c>
+      <c r="J90" s="11">
+        <v>-4</v>
+      </c>
+      <c r="K90" s="11">
+        <v>0</v>
+      </c>
+      <c r="L90" s="11">
+        <v>0</v>
+      </c>
+      <c r="M90" s="11">
         <v>-3</v>
       </c>
-      <c r="I90" s="11">
+      <c r="N90" s="11">
         <v>3</v>
       </c>
     </row>
-    <row r="91" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="91" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B91" s="12" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="C91" s="13" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="D91" s="13"/>
       <c r="E91" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="F91" s="13">
-        <v>0</v>
+        <v>18</v>
+      </c>
+      <c r="F91" s="13" t="s">
+        <v>18</v>
       </c>
       <c r="G91" s="13" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="H91" s="13" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="I91" s="13" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="92" spans="2:9" x14ac:dyDescent="0.3">
+        <v>18</v>
+      </c>
+      <c r="J91" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="K91" s="13">
+        <v>0</v>
+      </c>
+      <c r="L91" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="M91" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="N91" s="13" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="92" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B92" s="10" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="C92" s="11" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="D92" s="11"/>
       <c r="E92" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="F92" s="11">
-        <v>0</v>
+        <v>18</v>
+      </c>
+      <c r="F92" s="11" t="s">
+        <v>18</v>
       </c>
       <c r="G92" s="11" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="H92" s="11" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="I92" s="11" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="93" spans="2:9" x14ac:dyDescent="0.3">
+        <v>18</v>
+      </c>
+      <c r="J92" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="K92" s="11">
+        <v>0</v>
+      </c>
+      <c r="L92" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="M92" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="N92" s="11" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="93" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B93" s="12" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="C93" s="13" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="D93" s="13"/>
       <c r="E93" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="F93" s="13">
-        <v>0</v>
+        <v>18</v>
+      </c>
+      <c r="F93" s="13" t="s">
+        <v>18</v>
       </c>
       <c r="G93" s="13" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="H93" s="13" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="I93" s="13" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="94" spans="2:9" x14ac:dyDescent="0.3">
+        <v>18</v>
+      </c>
+      <c r="J93" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="K93" s="13">
+        <v>0</v>
+      </c>
+      <c r="L93" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="M93" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="N93" s="13" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="94" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B94" s="10" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="C94" s="11" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="D94" s="11"/>
       <c r="E94" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="F94" s="11">
+        <v>18</v>
+      </c>
+      <c r="F94" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="G94" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="H94" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="I94" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="J94" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="K94" s="11">
         <v>-311730</v>
       </c>
-      <c r="G94" s="11">
+      <c r="L94" s="11">
         <v>-4409</v>
       </c>
-      <c r="H94" s="11">
+      <c r="M94" s="11">
         <v>-144398</v>
       </c>
-      <c r="I94" s="11">
+      <c r="N94" s="11">
         <v>22879</v>
       </c>
     </row>
-    <row r="95" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="95" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B95" s="12" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="C95" s="13" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="D95" s="13"/>
       <c r="E95" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="F95" s="13">
+        <v>18</v>
+      </c>
+      <c r="F95" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="G95" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="H95" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="I95" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="J95" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="K95" s="13">
         <v>-119437</v>
       </c>
-      <c r="G95" s="13">
-        <v>0</v>
-      </c>
-      <c r="H95" s="13">
+      <c r="L95" s="13">
+        <v>0</v>
+      </c>
+      <c r="M95" s="13">
         <v>-46119</v>
       </c>
-      <c r="I95" s="13">
+      <c r="N95" s="13">
         <v>-16771</v>
       </c>
     </row>
-    <row r="96" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="96" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B96" s="14" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="C96" s="15"/>
       <c r="D96" s="15"/>
       <c r="E96" s="15">
+        <v>-747997</v>
+      </c>
+      <c r="F96" s="15">
+        <v>-1831225</v>
+      </c>
+      <c r="G96" s="15">
+        <v>-904423</v>
+      </c>
+      <c r="H96" s="15">
+        <v>-604893</v>
+      </c>
+      <c r="I96" s="15">
+        <v>-2167974</v>
+      </c>
+      <c r="J96" s="15">
         <v>-3467906</v>
       </c>
-      <c r="F96" s="15">
+      <c r="K96" s="15">
         <v>-2441061</v>
       </c>
-      <c r="G96" s="15">
+      <c r="L96" s="15">
         <v>-1087918</v>
       </c>
-      <c r="H96" s="15">
+      <c r="M96" s="15">
         <v>-1800309</v>
       </c>
-      <c r="I96" s="15">
+      <c r="N96" s="15">
         <v>-4409865</v>
       </c>
     </row>
-    <row r="97" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="97" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B97" s="8" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="C97" s="9"/>
       <c r="D97" s="9"/>
@@ -2573,58 +3728,93 @@
       <c r="G97" s="9"/>
       <c r="H97" s="9"/>
       <c r="I97" s="9"/>
-    </row>
-    <row r="98" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J97" s="9"/>
+      <c r="K97" s="9"/>
+      <c r="L97" s="9"/>
+      <c r="M97" s="9"/>
+      <c r="N97" s="9"/>
+    </row>
+    <row r="98" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B98" s="10" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="C98" s="11" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="D98" s="11"/>
-      <c r="E98" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="F98" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="G98" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="H98" s="11" t="s">
-        <v>13</v>
+      <c r="E98" s="11">
+        <v>0</v>
+      </c>
+      <c r="F98" s="11">
+        <v>0</v>
+      </c>
+      <c r="G98" s="11">
+        <v>0</v>
+      </c>
+      <c r="H98" s="11">
+        <v>0</v>
       </c>
       <c r="I98" s="11" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="99" spans="2:9" x14ac:dyDescent="0.3">
+        <v>18</v>
+      </c>
+      <c r="J98" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="K98" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="L98" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="M98" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="N98" s="11" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="99" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B99" s="12" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="C99" s="13" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="D99" s="13"/>
       <c r="E99" s="13" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="F99" s="13" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="G99" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="H99" s="13" t="s">
-        <v>13</v>
+        <v>18</v>
+      </c>
+      <c r="H99" s="13">
+        <v>0</v>
       </c>
       <c r="I99" s="13" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="100" spans="2:9" x14ac:dyDescent="0.3">
+        <v>18</v>
+      </c>
+      <c r="J99" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="K99" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="L99" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="M99" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="N99" s="13" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="100" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B100" s="14" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="C100" s="15"/>
       <c r="D100" s="15"/>
@@ -2643,10 +3833,25 @@
       <c r="I100" s="15">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J100" s="15">
+        <v>0</v>
+      </c>
+      <c r="K100" s="15">
+        <v>0</v>
+      </c>
+      <c r="L100" s="15">
+        <v>0</v>
+      </c>
+      <c r="M100" s="15">
+        <v>0</v>
+      </c>
+      <c r="N100" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B101" s="8" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="C101" s="9"/>
       <c r="D101" s="9"/>
@@ -2655,83 +3860,133 @@
       <c r="G101" s="9"/>
       <c r="H101" s="9"/>
       <c r="I101" s="9"/>
-    </row>
-    <row r="102" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J101" s="9"/>
+      <c r="K101" s="9"/>
+      <c r="L101" s="9"/>
+      <c r="M101" s="9"/>
+      <c r="N101" s="9"/>
+    </row>
+    <row r="102" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B102" s="10" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="C102" s="11" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="D102" s="11"/>
       <c r="E102" s="11">
+        <v>-59803</v>
+      </c>
+      <c r="F102" s="11">
+        <v>-28161</v>
+      </c>
+      <c r="G102" s="11">
+        <v>-107457</v>
+      </c>
+      <c r="H102" s="11">
+        <v>-81215</v>
+      </c>
+      <c r="I102" s="11">
+        <v>-167378</v>
+      </c>
+      <c r="J102" s="11">
         <v>-59707</v>
       </c>
-      <c r="F102" s="11">
+      <c r="K102" s="11">
         <v>-211774</v>
       </c>
-      <c r="G102" s="11">
+      <c r="L102" s="11">
         <v>-63526</v>
       </c>
-      <c r="H102" s="11">
+      <c r="M102" s="11">
         <v>-274301</v>
       </c>
-      <c r="I102" s="11">
+      <c r="N102" s="11">
         <v>-3012</v>
       </c>
     </row>
-    <row r="103" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="103" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B103" s="16" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="C103" s="17"/>
       <c r="D103" s="17"/>
       <c r="E103" s="17">
+        <v>-59803</v>
+      </c>
+      <c r="F103" s="17">
+        <v>-28161</v>
+      </c>
+      <c r="G103" s="17">
+        <v>-107457</v>
+      </c>
+      <c r="H103" s="17">
+        <v>-81215</v>
+      </c>
+      <c r="I103" s="17">
+        <v>-167378</v>
+      </c>
+      <c r="J103" s="17">
         <v>-59707</v>
       </c>
-      <c r="F103" s="17">
+      <c r="K103" s="17">
         <v>-211774</v>
       </c>
-      <c r="G103" s="17">
+      <c r="L103" s="17">
         <v>-63526</v>
       </c>
-      <c r="H103" s="17">
+      <c r="M103" s="17">
         <v>-274301</v>
       </c>
-      <c r="I103" s="17">
+      <c r="N103" s="17">
         <v>-3012</v>
       </c>
     </row>
-    <row r="104" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="104" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B104" s="14" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="C104" s="15" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="D104" s="15"/>
-      <c r="E104" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="F104" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="G104" s="15" t="s">
-        <v>13</v>
+      <c r="E104" s="15">
+        <v>0</v>
+      </c>
+      <c r="F104" s="15">
+        <v>0</v>
+      </c>
+      <c r="G104" s="15">
+        <v>0</v>
       </c>
       <c r="H104" s="15" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="I104" s="15" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="105" spans="2:9" x14ac:dyDescent="0.3">
+        <v>18</v>
+      </c>
+      <c r="J104" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="K104" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="L104" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="M104" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="N104" s="15" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="105" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B105" s="16" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="C105" s="17" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="D105" s="17"/>
       <c r="E105" s="17">
@@ -2743,36 +3998,66 @@
       <c r="G105" s="17">
         <v>0</v>
       </c>
-      <c r="H105" s="17">
-        <v>0</v>
+      <c r="H105" s="17" t="s">
+        <v>18</v>
       </c>
       <c r="I105" s="17">
         <v>0</v>
       </c>
-    </row>
-    <row r="106" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J105" s="17">
+        <v>0</v>
+      </c>
+      <c r="K105" s="17">
+        <v>0</v>
+      </c>
+      <c r="L105" s="17">
+        <v>0</v>
+      </c>
+      <c r="M105" s="17">
+        <v>0</v>
+      </c>
+      <c r="N105" s="17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B106" s="14" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="C106" s="15"/>
       <c r="D106" s="15"/>
       <c r="E106" s="15">
+        <v>-807800</v>
+      </c>
+      <c r="F106" s="15">
+        <v>-1859386</v>
+      </c>
+      <c r="G106" s="15">
+        <v>-1011880</v>
+      </c>
+      <c r="H106" s="15">
+        <v>-686108</v>
+      </c>
+      <c r="I106" s="15">
+        <v>-2335352</v>
+      </c>
+      <c r="J106" s="15">
         <v>-3527613</v>
       </c>
-      <c r="F106" s="15">
+      <c r="K106" s="15">
         <v>-2652835</v>
       </c>
-      <c r="G106" s="15">
+      <c r="L106" s="15">
         <v>-1151444</v>
       </c>
-      <c r="H106" s="15">
+      <c r="M106" s="15">
         <v>-2074610</v>
       </c>
-      <c r="I106" s="15">
+      <c r="N106" s="15">
         <v>-4412877</v>
       </c>
     </row>
-    <row r="107" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="107" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B107" s="1"/>
       <c r="C107" s="1"/>
       <c r="D107" s="1"/>
@@ -2781,8 +4066,13 @@
       <c r="G107" s="1"/>
       <c r="H107" s="1"/>
       <c r="I107" s="1"/>
-    </row>
-    <row r="108" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J107" s="1"/>
+      <c r="K107" s="1"/>
+      <c r="L107" s="1"/>
+      <c r="M107" s="1"/>
+      <c r="N107" s="1"/>
+    </row>
+    <row r="108" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B108" s="1"/>
       <c r="C108" s="1"/>
       <c r="D108" s="1"/>
@@ -2791,8 +4081,13 @@
       <c r="G108" s="1"/>
       <c r="H108" s="1"/>
       <c r="I108" s="1"/>
-    </row>
-    <row r="109" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J108" s="1"/>
+      <c r="K108" s="1"/>
+      <c r="L108" s="1"/>
+      <c r="M108" s="1"/>
+      <c r="N108" s="1"/>
+    </row>
+    <row r="109" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B109" s="1"/>
       <c r="C109" s="1"/>
       <c r="D109" s="1"/>
@@ -2801,10 +4096,15 @@
       <c r="G109" s="1"/>
       <c r="H109" s="1"/>
       <c r="I109" s="1"/>
-    </row>
-    <row r="110" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="J109" s="1"/>
+      <c r="K109" s="1"/>
+      <c r="L109" s="1"/>
+      <c r="M109" s="1"/>
+      <c r="N109" s="1"/>
+    </row>
+    <row r="110" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B110" s="7" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="C110" s="6"/>
       <c r="D110" s="6"/>
@@ -2823,8 +4123,23 @@
       <c r="I110" s="6" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="111" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J110" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="K110" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="L110" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="M110" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="N110" s="6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="111" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B111" s="1"/>
       <c r="C111" s="1"/>
       <c r="D111" s="1"/>
@@ -2833,10 +4148,15 @@
       <c r="G111" s="1"/>
       <c r="H111" s="1"/>
       <c r="I111" s="1"/>
-    </row>
-    <row r="112" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J111" s="1"/>
+      <c r="K111" s="1"/>
+      <c r="L111" s="1"/>
+      <c r="M111" s="1"/>
+      <c r="N111" s="1"/>
+    </row>
+    <row r="112" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B112" s="8" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="C112" s="9"/>
       <c r="D112" s="9"/>
@@ -2845,272 +4165,442 @@
       <c r="G112" s="9"/>
       <c r="H112" s="9"/>
       <c r="I112" s="9"/>
-    </row>
-    <row r="113" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J112" s="9"/>
+      <c r="K112" s="9"/>
+      <c r="L112" s="9"/>
+      <c r="M112" s="9"/>
+      <c r="N112" s="9"/>
+    </row>
+    <row r="113" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B113" s="10" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="C113" s="11" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="D113" s="11"/>
       <c r="E113" s="11">
+        <v>31029</v>
+      </c>
+      <c r="F113" s="11">
+        <v>185322</v>
+      </c>
+      <c r="G113" s="11">
+        <v>-73824</v>
+      </c>
+      <c r="H113" s="11">
+        <v>94577</v>
+      </c>
+      <c r="I113" s="11">
+        <v>-41584</v>
+      </c>
+      <c r="J113" s="11">
         <v>245977</v>
       </c>
-      <c r="F113" s="11">
+      <c r="K113" s="11">
         <v>208818</v>
       </c>
-      <c r="G113" s="11">
+      <c r="L113" s="11">
         <v>146478</v>
       </c>
-      <c r="H113" s="11">
+      <c r="M113" s="11">
         <v>27782</v>
       </c>
-      <c r="I113" s="11">
+      <c r="N113" s="11">
         <v>677480</v>
       </c>
     </row>
-    <row r="114" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="114" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B114" s="12" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="C114" s="13" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="D114" s="13"/>
       <c r="E114" s="13">
+        <v>30229</v>
+      </c>
+      <c r="F114" s="13">
+        <v>71932</v>
+      </c>
+      <c r="G114" s="13">
+        <v>95399</v>
+      </c>
+      <c r="H114" s="13">
+        <v>53070</v>
+      </c>
+      <c r="I114" s="13">
+        <v>95546</v>
+      </c>
+      <c r="J114" s="13">
         <v>80297</v>
       </c>
-      <c r="F114" s="13">
+      <c r="K114" s="13">
         <v>81814</v>
       </c>
-      <c r="G114" s="13">
+      <c r="L114" s="13">
         <v>66106</v>
       </c>
-      <c r="H114" s="13">
+      <c r="M114" s="13">
         <v>98758</v>
       </c>
-      <c r="I114" s="13">
+      <c r="N114" s="13">
         <v>116295</v>
       </c>
     </row>
-    <row r="115" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="115" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B115" s="10" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C115" s="11" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="D115" s="11"/>
       <c r="E115" s="11">
         <v>0</v>
       </c>
       <c r="F115" s="11">
+        <v>0</v>
+      </c>
+      <c r="G115" s="11">
+        <v>1048</v>
+      </c>
+      <c r="H115" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="I115" s="11">
+        <v>0</v>
+      </c>
+      <c r="J115" s="11">
+        <v>0</v>
+      </c>
+      <c r="K115" s="11">
         <v>2345</v>
       </c>
-      <c r="G115" s="11">
+      <c r="L115" s="11">
         <v>49</v>
       </c>
-      <c r="H115" s="11">
-        <v>0</v>
-      </c>
-      <c r="I115" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="116" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="M115" s="11">
+        <v>0</v>
+      </c>
+      <c r="N115" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="116" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B116" s="12" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="C116" s="13" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="D116" s="13"/>
       <c r="E116" s="13">
+        <v>101443</v>
+      </c>
+      <c r="F116" s="13">
+        <v>146126</v>
+      </c>
+      <c r="G116" s="13">
+        <v>190990</v>
+      </c>
+      <c r="H116" s="13">
+        <v>4677</v>
+      </c>
+      <c r="I116" s="13">
+        <v>354214</v>
+      </c>
+      <c r="J116" s="13">
         <v>643151</v>
       </c>
-      <c r="F116" s="13">
+      <c r="K116" s="13">
         <v>170129</v>
       </c>
-      <c r="G116" s="13">
+      <c r="L116" s="13">
         <v>-1186</v>
       </c>
-      <c r="H116" s="13">
+      <c r="M116" s="13">
         <v>266133</v>
       </c>
-      <c r="I116" s="13">
+      <c r="N116" s="13">
         <v>268724</v>
       </c>
     </row>
-    <row r="117" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="117" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B117" s="10" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="C117" s="11" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="D117" s="11"/>
       <c r="E117" s="11">
+        <v>17</v>
+      </c>
+      <c r="F117" s="11">
+        <v>15</v>
+      </c>
+      <c r="G117" s="11">
+        <v>7</v>
+      </c>
+      <c r="H117" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="I117" s="11">
+        <v>23</v>
+      </c>
+      <c r="J117" s="11">
         <v>28</v>
       </c>
-      <c r="F117" s="11">
+      <c r="K117" s="11">
         <v>6</v>
       </c>
-      <c r="G117" s="11">
-        <v>0</v>
-      </c>
-      <c r="H117" s="11">
+      <c r="L117" s="11">
+        <v>0</v>
+      </c>
+      <c r="M117" s="11">
         <v>33</v>
       </c>
-      <c r="I117" s="11">
+      <c r="N117" s="11">
         <v>-33</v>
       </c>
     </row>
-    <row r="118" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="118" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B118" s="12" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="C118" s="13" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="D118" s="13"/>
       <c r="E118" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="F118" s="13">
-        <v>0</v>
+        <v>18</v>
+      </c>
+      <c r="F118" s="13" t="s">
+        <v>18</v>
       </c>
       <c r="G118" s="13" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="H118" s="13" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="I118" s="13" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="119" spans="2:9" x14ac:dyDescent="0.3">
+        <v>18</v>
+      </c>
+      <c r="J118" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="K118" s="13">
+        <v>0</v>
+      </c>
+      <c r="L118" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="M118" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="N118" s="13" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="119" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B119" s="10" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="C119" s="11" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="D119" s="11"/>
       <c r="E119" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="F119" s="11">
-        <v>0</v>
+        <v>18</v>
+      </c>
+      <c r="F119" s="11" t="s">
+        <v>18</v>
       </c>
       <c r="G119" s="11" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="H119" s="11" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="I119" s="11" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="120" spans="2:9" x14ac:dyDescent="0.3">
+        <v>18</v>
+      </c>
+      <c r="J119" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="K119" s="11">
+        <v>0</v>
+      </c>
+      <c r="L119" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="M119" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="N119" s="11" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="120" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B120" s="12" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="C120" s="13" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="D120" s="13"/>
       <c r="E120" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="F120" s="13">
-        <v>0</v>
+        <v>18</v>
+      </c>
+      <c r="F120" s="13" t="s">
+        <v>18</v>
       </c>
       <c r="G120" s="13" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="H120" s="13" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="I120" s="13" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="121" spans="2:9" x14ac:dyDescent="0.3">
+        <v>18</v>
+      </c>
+      <c r="J120" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="K120" s="13">
+        <v>0</v>
+      </c>
+      <c r="L120" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="M120" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="N120" s="13" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="121" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B121" s="10" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="C121" s="11" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="D121" s="11"/>
       <c r="E121" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="F121" s="11">
+        <v>18</v>
+      </c>
+      <c r="F121" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="G121" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="H121" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="I121" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="J121" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="K121" s="11">
         <v>-239271</v>
       </c>
-      <c r="G121" s="11">
+      <c r="L121" s="11">
         <v>-3447</v>
       </c>
-      <c r="H121" s="11">
+      <c r="M121" s="11">
         <v>-122606</v>
       </c>
-      <c r="I121" s="11">
+      <c r="N121" s="11">
         <v>22879</v>
       </c>
     </row>
-    <row r="122" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="122" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B122" s="12" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="C122" s="13" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="D122" s="13"/>
       <c r="E122" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="F122" s="13">
+        <v>18</v>
+      </c>
+      <c r="F122" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="G122" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="H122" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="I122" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="J122" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="K122" s="13">
         <v>-98563</v>
       </c>
-      <c r="G122" s="13">
-        <v>0</v>
-      </c>
-      <c r="H122" s="13">
+      <c r="L122" s="13">
+        <v>0</v>
+      </c>
+      <c r="M122" s="13">
         <v>-39862</v>
       </c>
-      <c r="I122" s="13">
+      <c r="N122" s="13">
         <v>-14580</v>
       </c>
     </row>
-    <row r="123" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="123" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B123" s="14" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="C123" s="15"/>
       <c r="D123" s="15"/>
       <c r="E123" s="15">
+        <v>162718</v>
+      </c>
+      <c r="F123" s="15">
+        <v>403395</v>
+      </c>
+      <c r="G123" s="15">
+        <v>213620</v>
+      </c>
+      <c r="H123" s="15">
+        <v>152324</v>
+      </c>
+      <c r="I123" s="15">
+        <v>408199</v>
+      </c>
+      <c r="J123" s="15">
         <v>969453</v>
       </c>
-      <c r="F123" s="15">
+      <c r="K123" s="15">
         <v>125278</v>
       </c>
-      <c r="G123" s="15">
+      <c r="L123" s="15">
         <v>208000</v>
       </c>
-      <c r="H123" s="15">
+      <c r="M123" s="15">
         <v>230238</v>
       </c>
-      <c r="I123" s="15">
+      <c r="N123" s="15">
         <v>1070765</v>
       </c>
     </row>
-    <row r="124" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="124" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B124" s="8" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="C124" s="9"/>
       <c r="D124" s="9"/>
@@ -3119,58 +4609,93 @@
       <c r="G124" s="9"/>
       <c r="H124" s="9"/>
       <c r="I124" s="9"/>
-    </row>
-    <row r="125" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J124" s="9"/>
+      <c r="K124" s="9"/>
+      <c r="L124" s="9"/>
+      <c r="M124" s="9"/>
+      <c r="N124" s="9"/>
+    </row>
+    <row r="125" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B125" s="10" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="C125" s="11" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="D125" s="11"/>
-      <c r="E125" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="F125" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="G125" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="H125" s="11" t="s">
-        <v>13</v>
+      <c r="E125" s="11">
+        <v>0</v>
+      </c>
+      <c r="F125" s="11">
+        <v>0</v>
+      </c>
+      <c r="G125" s="11">
+        <v>0</v>
+      </c>
+      <c r="H125" s="11">
+        <v>0</v>
       </c>
       <c r="I125" s="11" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="126" spans="2:9" x14ac:dyDescent="0.3">
+        <v>18</v>
+      </c>
+      <c r="J125" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="K125" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="L125" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="M125" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="N125" s="11" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="126" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B126" s="12" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="C126" s="13" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="D126" s="13"/>
       <c r="E126" s="13" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="F126" s="13" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="G126" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="H126" s="13" t="s">
-        <v>13</v>
+        <v>18</v>
+      </c>
+      <c r="H126" s="13">
+        <v>0</v>
       </c>
       <c r="I126" s="13" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="127" spans="2:9" x14ac:dyDescent="0.3">
+        <v>18</v>
+      </c>
+      <c r="J126" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="K126" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="L126" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="M126" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="N126" s="13" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="127" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B127" s="14" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="C127" s="15"/>
       <c r="D127" s="15"/>
@@ -3189,10 +4714,25 @@
       <c r="I127" s="15">
         <v>0</v>
       </c>
-    </row>
-    <row r="128" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J127" s="15">
+        <v>0</v>
+      </c>
+      <c r="K127" s="15">
+        <v>0</v>
+      </c>
+      <c r="L127" s="15">
+        <v>0</v>
+      </c>
+      <c r="M127" s="15">
+        <v>0</v>
+      </c>
+      <c r="N127" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="128" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B128" s="8" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="C128" s="9"/>
       <c r="D128" s="9"/>
@@ -3201,72 +4741,122 @@
       <c r="G128" s="9"/>
       <c r="H128" s="9"/>
       <c r="I128" s="9"/>
-    </row>
-    <row r="129" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J128" s="9"/>
+      <c r="K128" s="9"/>
+      <c r="L128" s="9"/>
+      <c r="M128" s="9"/>
+      <c r="N128" s="9"/>
+    </row>
+    <row r="129" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B129" s="10" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="C129" s="11" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="D129" s="11"/>
       <c r="E129" s="11">
+        <v>-39077</v>
+      </c>
+      <c r="F129" s="11">
+        <v>8401</v>
+      </c>
+      <c r="G129" s="11">
+        <v>-59377</v>
+      </c>
+      <c r="H129" s="11">
+        <v>-14919</v>
+      </c>
+      <c r="I129" s="11">
+        <v>-46193</v>
+      </c>
+      <c r="J129" s="11">
         <v>-10079</v>
       </c>
-      <c r="F129" s="11">
+      <c r="K129" s="11">
         <v>-129266</v>
       </c>
-      <c r="G129" s="11">
+      <c r="L129" s="11">
         <v>-29703</v>
       </c>
-      <c r="H129" s="11">
+      <c r="M129" s="11">
         <v>-63689</v>
       </c>
-      <c r="I129" s="11">
+      <c r="N129" s="11">
         <v>40401</v>
       </c>
     </row>
-    <row r="130" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="130" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B130" s="16" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="C130" s="17"/>
       <c r="D130" s="17"/>
       <c r="E130" s="17">
+        <v>-39077</v>
+      </c>
+      <c r="F130" s="17">
+        <v>8401</v>
+      </c>
+      <c r="G130" s="17">
+        <v>-59377</v>
+      </c>
+      <c r="H130" s="17">
+        <v>-14919</v>
+      </c>
+      <c r="I130" s="17">
+        <v>-46193</v>
+      </c>
+      <c r="J130" s="17">
         <v>-10079</v>
       </c>
-      <c r="F130" s="17">
+      <c r="K130" s="17">
         <v>-129266</v>
       </c>
-      <c r="G130" s="17">
+      <c r="L130" s="17">
         <v>-29703</v>
       </c>
-      <c r="H130" s="17">
+      <c r="M130" s="17">
         <v>-63689</v>
       </c>
-      <c r="I130" s="17">
+      <c r="N130" s="17">
         <v>40401</v>
       </c>
     </row>
-    <row r="131" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="131" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B131" s="14" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="C131" s="15"/>
       <c r="D131" s="15"/>
       <c r="E131" s="15">
+        <v>123641</v>
+      </c>
+      <c r="F131" s="15">
+        <v>411796</v>
+      </c>
+      <c r="G131" s="15">
+        <v>154243</v>
+      </c>
+      <c r="H131" s="15">
+        <v>137405</v>
+      </c>
+      <c r="I131" s="15">
+        <v>362006</v>
+      </c>
+      <c r="J131" s="15">
         <v>959374</v>
       </c>
-      <c r="F131" s="15">
+      <c r="K131" s="15">
         <v>-3988</v>
       </c>
-      <c r="G131" s="15">
+      <c r="L131" s="15">
         <v>178297</v>
       </c>
-      <c r="H131" s="15">
+      <c r="M131" s="15">
         <v>166549</v>
       </c>
-      <c r="I131" s="15">
+      <c r="N131" s="15">
         <v>1111166</v>
       </c>
     </row>

--- a/database/industries/ghand/ghesafha/product/quarterly_seprated.xlsx
+++ b/database/industries/ghand/ghesafha/product/quarterly_seprated.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="c:\Users\EBRAHIMI\Desktop\Trade\database\industries\ghand\ghesafha\product\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\EBRAHIMI\Desktop\Trade\database\industries\ghand\ghesafha\product\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E68194AC-D927-4D27-A73B-AF26B6729F19}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9DEC748E-F589-43E2-A859-DFEF4067B0CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3120" yWindow="3120" windowWidth="21600" windowHeight="11025" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1152" yWindow="1152" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="585" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="581" uniqueCount="64">
   <si>
     <t>Pouya Finance</t>
   </si>
@@ -37,9 +37,6 @@
     <t>مقدار فروش</t>
   </si>
   <si>
-    <t>فصل دوم منتهی به 1399/06</t>
-  </si>
-  <si>
     <t>فصل سوم منتهی به 1399/09</t>
   </si>
   <si>
@@ -65,6 +62,9 @@
   </si>
   <si>
     <t>فصل سوم منتهی به 1401/09</t>
+  </si>
+  <si>
+    <t>فصل چهارم منتهی به 1401/12</t>
   </si>
   <si>
     <t>مقدار فروش داخلی</t>
@@ -688,12 +688,12 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="14" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -708,7 +708,7 @@
       <c r="M1" s="1"/>
       <c r="N1" s="1"/>
     </row>
-    <row r="2" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:14" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -725,7 +725,7 @@
       <c r="M2" s="1"/>
       <c r="N2" s="1"/>
     </row>
-    <row r="3" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
@@ -742,7 +742,7 @@
       <c r="M3" s="1"/>
       <c r="N3" s="1"/>
     </row>
-    <row r="4" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -757,7 +757,7 @@
       <c r="M4" s="1"/>
       <c r="N4" s="1"/>
     </row>
-    <row r="5" spans="2:14" ht="42" x14ac:dyDescent="0.65">
+    <row r="5" spans="2:14" ht="40.799999999999997" x14ac:dyDescent="0.75">
       <c r="B5" s="4" t="s">
         <v>2</v>
       </c>
@@ -774,7 +774,7 @@
       <c r="M5" s="4"/>
       <c r="N5" s="4"/>
     </row>
-    <row r="6" spans="2:14" ht="42" x14ac:dyDescent="0.65">
+    <row r="6" spans="2:14" ht="40.799999999999997" x14ac:dyDescent="0.75">
       <c r="B6" s="5" t="s">
         <v>3</v>
       </c>
@@ -791,7 +791,7 @@
       <c r="M6" s="4"/>
       <c r="N6" s="4"/>
     </row>
-    <row r="7" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -806,7 +806,7 @@
       <c r="M7" s="1"/>
       <c r="N7" s="1"/>
     </row>
-    <row r="8" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B8" s="7" t="s">
         <v>4</v>
       </c>
@@ -843,7 +843,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
@@ -858,7 +858,7 @@
       <c r="M9" s="1"/>
       <c r="N9" s="1"/>
     </row>
-    <row r="10" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B10" s="8" t="s">
         <v>15</v>
       </c>
@@ -875,7 +875,7 @@
       <c r="M10" s="9"/>
       <c r="N10" s="9"/>
     </row>
-    <row r="11" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B11" s="10" t="s">
         <v>16</v>
       </c>
@@ -884,37 +884,37 @@
       </c>
       <c r="D11" s="11"/>
       <c r="E11" s="11">
-        <v>7417</v>
+        <v>13963</v>
       </c>
       <c r="F11" s="11">
-        <v>13963</v>
+        <v>6881</v>
       </c>
       <c r="G11" s="11">
-        <v>6881</v>
+        <v>4668</v>
       </c>
       <c r="H11" s="11">
-        <v>4668</v>
+        <v>7590</v>
       </c>
       <c r="I11" s="11">
-        <v>7590</v>
-      </c>
-      <c r="J11" s="11">
         <v>13186</v>
       </c>
-      <c r="K11" s="11" t="s">
-        <v>18</v>
+      <c r="J11" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="K11" s="11">
+        <v>3257</v>
       </c>
       <c r="L11" s="11">
-        <v>3257</v>
+        <v>2583</v>
       </c>
       <c r="M11" s="11">
-        <v>2583</v>
+        <v>15473</v>
       </c>
       <c r="N11" s="11">
-        <v>15473</v>
-      </c>
-    </row>
-    <row r="12" spans="2:14" x14ac:dyDescent="0.25">
+        <v>3004</v>
+      </c>
+    </row>
+    <row r="12" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B12" s="12" t="s">
         <v>19</v>
       </c>
@@ -923,37 +923,37 @@
       </c>
       <c r="D12" s="13"/>
       <c r="E12" s="13">
-        <v>2127</v>
+        <v>4601</v>
       </c>
       <c r="F12" s="13">
-        <v>4601</v>
+        <v>3615</v>
       </c>
       <c r="G12" s="13">
-        <v>3615</v>
+        <v>1686</v>
       </c>
       <c r="H12" s="13">
-        <v>1686</v>
+        <v>5926</v>
       </c>
       <c r="I12" s="13">
-        <v>5926</v>
-      </c>
-      <c r="J12" s="13">
         <v>5920</v>
       </c>
-      <c r="K12" s="13" t="s">
-        <v>18</v>
+      <c r="J12" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="K12" s="13">
+        <v>1928</v>
       </c>
       <c r="L12" s="13">
-        <v>1928</v>
+        <v>5087</v>
       </c>
       <c r="M12" s="13">
-        <v>5087</v>
+        <v>5969</v>
       </c>
       <c r="N12" s="13">
-        <v>5969</v>
-      </c>
-    </row>
-    <row r="13" spans="2:14" x14ac:dyDescent="0.25">
+        <v>6157</v>
+      </c>
+    </row>
+    <row r="13" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B13" s="10" t="s">
         <v>20</v>
       </c>
@@ -965,25 +965,25 @@
         <v>0</v>
       </c>
       <c r="F13" s="11">
-        <v>0</v>
-      </c>
-      <c r="G13" s="11">
         <v>840</v>
       </c>
-      <c r="H13" s="11" t="s">
-        <v>18</v>
+      <c r="G13" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="H13" s="11">
+        <v>0</v>
       </c>
       <c r="I13" s="11">
         <v>0</v>
       </c>
-      <c r="J13" s="11">
-        <v>0</v>
-      </c>
-      <c r="K13" s="11" t="s">
-        <v>18</v>
+      <c r="J13" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="K13" s="11">
+        <v>1</v>
       </c>
       <c r="L13" s="11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M13" s="11">
         <v>0</v>
@@ -992,7 +992,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B14" s="12" t="s">
         <v>21</v>
       </c>
@@ -1001,37 +1001,37 @@
       </c>
       <c r="D14" s="13"/>
       <c r="E14" s="13">
-        <v>10931</v>
+        <v>26411</v>
       </c>
       <c r="F14" s="13">
-        <v>26411</v>
+        <v>14637</v>
       </c>
       <c r="G14" s="13">
-        <v>14637</v>
+        <v>5853</v>
       </c>
       <c r="H14" s="13">
-        <v>5853</v>
+        <v>17900</v>
       </c>
       <c r="I14" s="13">
-        <v>17900</v>
-      </c>
-      <c r="J14" s="13">
         <v>30534</v>
       </c>
-      <c r="K14" s="13" t="s">
-        <v>18</v>
+      <c r="J14" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="K14" s="13">
+        <v>5154</v>
       </c>
       <c r="L14" s="13">
-        <v>5154</v>
+        <v>8193</v>
       </c>
       <c r="M14" s="13">
-        <v>8193</v>
+        <v>21617</v>
       </c>
       <c r="N14" s="13">
-        <v>21617</v>
-      </c>
-    </row>
-    <row r="15" spans="2:14" x14ac:dyDescent="0.25">
+        <v>25689</v>
+      </c>
+    </row>
+    <row r="15" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B15" s="10" t="s">
         <v>22</v>
       </c>
@@ -1040,25 +1040,25 @@
       </c>
       <c r="D15" s="11"/>
       <c r="E15" s="11">
+        <v>0</v>
+      </c>
+      <c r="F15" s="11">
+        <v>0</v>
+      </c>
+      <c r="G15" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="H15" s="11">
         <v>1</v>
       </c>
-      <c r="F15" s="11">
-        <v>0</v>
-      </c>
-      <c r="G15" s="11">
-        <v>0</v>
-      </c>
-      <c r="H15" s="11" t="s">
-        <v>18</v>
-      </c>
       <c r="I15" s="11">
-        <v>1</v>
-      </c>
-      <c r="J15" s="11">
-        <v>0</v>
-      </c>
-      <c r="K15" s="11" t="s">
-        <v>18</v>
+        <v>0</v>
+      </c>
+      <c r="J15" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="K15" s="11">
+        <v>0</v>
       </c>
       <c r="L15" s="11">
         <v>0</v>
@@ -1067,10 +1067,10 @@
         <v>0</v>
       </c>
       <c r="N15" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="2:14" x14ac:dyDescent="0.25">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="16" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B16" s="12" t="s">
         <v>23</v>
       </c>
@@ -1093,11 +1093,11 @@
       <c r="I16" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="J16" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="K16" s="13">
-        <v>0</v>
+      <c r="J16" s="13">
+        <v>0</v>
+      </c>
+      <c r="K16" s="13" t="s">
+        <v>18</v>
       </c>
       <c r="L16" s="13" t="s">
         <v>18</v>
@@ -1109,7 +1109,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="17" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B17" s="10" t="s">
         <v>24</v>
       </c>
@@ -1132,11 +1132,11 @@
       <c r="I17" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="J17" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="K17" s="11">
-        <v>0</v>
+      <c r="J17" s="11">
+        <v>0</v>
+      </c>
+      <c r="K17" s="11" t="s">
+        <v>18</v>
       </c>
       <c r="L17" s="11" t="s">
         <v>18</v>
@@ -1148,7 +1148,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="18" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B18" s="12" t="s">
         <v>25</v>
       </c>
@@ -1171,11 +1171,11 @@
       <c r="I18" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="J18" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="K18" s="13">
-        <v>0</v>
+      <c r="J18" s="13">
+        <v>0</v>
+      </c>
+      <c r="K18" s="13" t="s">
+        <v>18</v>
       </c>
       <c r="L18" s="13" t="s">
         <v>18</v>
@@ -1187,7 +1187,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="19" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B19" s="10" t="s">
         <v>26</v>
       </c>
@@ -1213,20 +1213,20 @@
       <c r="J19" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="K19" s="11" t="s">
-        <v>18</v>
+      <c r="K19" s="11">
+        <v>121</v>
       </c>
       <c r="L19" s="11">
-        <v>121</v>
+        <v>2725</v>
       </c>
       <c r="M19" s="11">
-        <v>2725</v>
+        <v>0</v>
       </c>
       <c r="N19" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="2:14" x14ac:dyDescent="0.25">
+        <v>7211</v>
+      </c>
+    </row>
+    <row r="20" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B20" s="12" t="s">
         <v>27</v>
       </c>
@@ -1252,57 +1252,57 @@
       <c r="J20" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="K20" s="13" t="s">
-        <v>18</v>
+      <c r="K20" s="13">
+        <v>0</v>
       </c>
       <c r="L20" s="13">
-        <v>0</v>
+        <v>284</v>
       </c>
       <c r="M20" s="13">
-        <v>284</v>
+        <v>100</v>
       </c>
       <c r="N20" s="13">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="21" spans="2:14" x14ac:dyDescent="0.25">
+        <v>-101</v>
+      </c>
+    </row>
+    <row r="21" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B21" s="14" t="s">
         <v>28</v>
       </c>
       <c r="C21" s="15"/>
       <c r="D21" s="15"/>
       <c r="E21" s="15">
-        <v>20476</v>
+        <v>44975</v>
       </c>
       <c r="F21" s="15">
-        <v>44975</v>
+        <v>25973</v>
       </c>
       <c r="G21" s="15">
-        <v>25973</v>
+        <v>12207</v>
       </c>
       <c r="H21" s="15">
-        <v>12207</v>
+        <v>31417</v>
       </c>
       <c r="I21" s="15">
-        <v>31417</v>
+        <v>49640</v>
       </c>
       <c r="J21" s="15">
-        <v>49640</v>
+        <v>0</v>
       </c>
       <c r="K21" s="15">
-        <v>0</v>
+        <v>10461</v>
       </c>
       <c r="L21" s="15">
-        <v>10461</v>
+        <v>18872</v>
       </c>
       <c r="M21" s="15">
-        <v>18872</v>
+        <v>43159</v>
       </c>
       <c r="N21" s="15">
-        <v>43159</v>
-      </c>
-    </row>
-    <row r="22" spans="2:14" x14ac:dyDescent="0.25">
+        <v>42190</v>
+      </c>
+    </row>
+    <row r="22" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B22" s="8" t="s">
         <v>29</v>
       </c>
@@ -1319,7 +1319,7 @@
       <c r="M22" s="9"/>
       <c r="N22" s="9"/>
     </row>
-    <row r="23" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B23" s="10" t="s">
         <v>30</v>
       </c>
@@ -1336,8 +1336,8 @@
       <c r="G23" s="11">
         <v>0</v>
       </c>
-      <c r="H23" s="11">
-        <v>0</v>
+      <c r="H23" s="11" t="s">
+        <v>18</v>
       </c>
       <c r="I23" s="11" t="s">
         <v>18</v>
@@ -1358,7 +1358,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="24" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B24" s="12" t="s">
         <v>31</v>
       </c>
@@ -1372,11 +1372,11 @@
       <c r="F24" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="G24" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="H24" s="13">
-        <v>0</v>
+      <c r="G24" s="13">
+        <v>0</v>
+      </c>
+      <c r="H24" s="13" t="s">
+        <v>18</v>
       </c>
       <c r="I24" s="13" t="s">
         <v>18</v>
@@ -1397,7 +1397,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="25" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B25" s="14" t="s">
         <v>32</v>
       </c>
@@ -1434,7 +1434,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B26" s="8" t="s">
         <v>33</v>
       </c>
@@ -1451,7 +1451,7 @@
       <c r="M26" s="9"/>
       <c r="N26" s="9"/>
     </row>
-    <row r="27" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B27" s="10" t="s">
         <v>34</v>
       </c>
@@ -1460,74 +1460,74 @@
       </c>
       <c r="D27" s="11"/>
       <c r="E27" s="11">
-        <v>0</v>
+        <v>-34920</v>
       </c>
       <c r="F27" s="11">
-        <v>-34920</v>
+        <v>-51767</v>
       </c>
       <c r="G27" s="11">
-        <v>-51767</v>
+        <v>0</v>
       </c>
       <c r="H27" s="11">
-        <v>0</v>
+        <v>32122</v>
       </c>
       <c r="I27" s="11">
-        <v>32122</v>
-      </c>
-      <c r="J27" s="11">
         <v>12407</v>
       </c>
-      <c r="K27" s="11" t="s">
-        <v>18</v>
+      <c r="J27" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="K27" s="11">
+        <v>5475</v>
       </c>
       <c r="L27" s="11">
-        <v>5475</v>
+        <v>29728</v>
       </c>
       <c r="M27" s="11">
-        <v>29728</v>
+        <v>5243</v>
       </c>
       <c r="N27" s="11">
-        <v>5243</v>
-      </c>
-    </row>
-    <row r="28" spans="2:14" x14ac:dyDescent="0.25">
+        <v>38318</v>
+      </c>
+    </row>
+    <row r="28" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B28" s="16" t="s">
         <v>35</v>
       </c>
       <c r="C28" s="17"/>
       <c r="D28" s="17"/>
       <c r="E28" s="17">
-        <v>0</v>
+        <v>-34920</v>
       </c>
       <c r="F28" s="17">
-        <v>-34920</v>
+        <v>-51767</v>
       </c>
       <c r="G28" s="17">
-        <v>-51767</v>
+        <v>0</v>
       </c>
       <c r="H28" s="17">
-        <v>0</v>
+        <v>32122</v>
       </c>
       <c r="I28" s="17">
-        <v>32122</v>
+        <v>12407</v>
       </c>
       <c r="J28" s="17">
-        <v>12407</v>
+        <v>0</v>
       </c>
       <c r="K28" s="17">
-        <v>0</v>
+        <v>5475</v>
       </c>
       <c r="L28" s="17">
-        <v>5475</v>
+        <v>29728</v>
       </c>
       <c r="M28" s="17">
-        <v>29728</v>
+        <v>5243</v>
       </c>
       <c r="N28" s="17">
-        <v>5243</v>
-      </c>
-    </row>
-    <row r="29" spans="2:14" x14ac:dyDescent="0.25">
+        <v>38318</v>
+      </c>
+    </row>
+    <row r="29" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B29" s="14" t="s">
         <v>36</v>
       </c>
@@ -1541,8 +1541,8 @@
       <c r="F29" s="15">
         <v>0</v>
       </c>
-      <c r="G29" s="15">
-        <v>0</v>
+      <c r="G29" s="15" t="s">
+        <v>18</v>
       </c>
       <c r="H29" s="15" t="s">
         <v>18</v>
@@ -1566,7 +1566,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="30" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B30" s="16" t="s">
         <v>38</v>
       </c>
@@ -1578,20 +1578,20 @@
       <c r="F30" s="17">
         <v>0</v>
       </c>
-      <c r="G30" s="17">
-        <v>0</v>
-      </c>
-      <c r="H30" s="17" t="s">
-        <v>18</v>
+      <c r="G30" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="H30" s="17">
+        <v>0</v>
       </c>
       <c r="I30" s="17">
         <v>0</v>
       </c>
-      <c r="J30" s="17">
-        <v>0</v>
-      </c>
-      <c r="K30" s="17" t="s">
-        <v>18</v>
+      <c r="J30" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="K30" s="17">
+        <v>0</v>
       </c>
       <c r="L30" s="17">
         <v>0</v>
@@ -1603,44 +1603,44 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B31" s="14" t="s">
         <v>39</v>
       </c>
       <c r="C31" s="15"/>
       <c r="D31" s="15"/>
       <c r="E31" s="15">
-        <v>20476</v>
+        <v>10055</v>
       </c>
       <c r="F31" s="15">
-        <v>10055</v>
+        <v>-25794</v>
       </c>
       <c r="G31" s="15">
-        <v>-25794</v>
+        <v>12207</v>
       </c>
       <c r="H31" s="15">
-        <v>12207</v>
+        <v>63539</v>
       </c>
       <c r="I31" s="15">
-        <v>63539</v>
+        <v>62047</v>
       </c>
       <c r="J31" s="15">
-        <v>62047</v>
+        <v>0</v>
       </c>
       <c r="K31" s="15">
-        <v>0</v>
+        <v>15936</v>
       </c>
       <c r="L31" s="15">
-        <v>15936</v>
+        <v>48600</v>
       </c>
       <c r="M31" s="15">
-        <v>48600</v>
+        <v>48402</v>
       </c>
       <c r="N31" s="15">
-        <v>48402</v>
-      </c>
-    </row>
-    <row r="32" spans="2:14" x14ac:dyDescent="0.25">
+        <v>80508</v>
+      </c>
+    </row>
+    <row r="32" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B32" s="1"/>
       <c r="C32" s="1"/>
       <c r="D32" s="1"/>
@@ -1655,7 +1655,7 @@
       <c r="M32" s="1"/>
       <c r="N32" s="1"/>
     </row>
-    <row r="33" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B33" s="1"/>
       <c r="C33" s="1"/>
       <c r="D33" s="1"/>
@@ -1670,7 +1670,7 @@
       <c r="M33" s="1"/>
       <c r="N33" s="1"/>
     </row>
-    <row r="34" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B34" s="1"/>
       <c r="C34" s="1"/>
       <c r="D34" s="1"/>
@@ -1685,7 +1685,7 @@
       <c r="M34" s="1"/>
       <c r="N34" s="1"/>
     </row>
-    <row r="35" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B35" s="7" t="s">
         <v>40</v>
       </c>
@@ -1722,7 +1722,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="36" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B36" s="1"/>
       <c r="C36" s="1"/>
       <c r="D36" s="1"/>
@@ -1737,7 +1737,7 @@
       <c r="M36" s="1"/>
       <c r="N36" s="1"/>
     </row>
-    <row r="37" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B37" s="8" t="s">
         <v>41</v>
       </c>
@@ -1754,7 +1754,7 @@
       <c r="M37" s="9"/>
       <c r="N37" s="9"/>
     </row>
-    <row r="38" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B38" s="10" t="s">
         <v>16</v>
       </c>
@@ -1763,37 +1763,37 @@
       </c>
       <c r="D38" s="11"/>
       <c r="E38" s="11">
-        <v>154876</v>
+        <v>386286</v>
       </c>
       <c r="F38" s="11">
-        <v>386286</v>
+        <v>41548</v>
       </c>
       <c r="G38" s="11">
-        <v>41548</v>
+        <v>189271</v>
       </c>
       <c r="H38" s="11">
-        <v>189271</v>
+        <v>207112</v>
       </c>
       <c r="I38" s="11">
-        <v>207112</v>
-      </c>
-      <c r="J38" s="11">
         <v>514942</v>
       </c>
-      <c r="K38" s="11" t="s">
-        <v>18</v>
+      <c r="J38" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="K38" s="11">
+        <v>265156</v>
       </c>
       <c r="L38" s="11">
-        <v>265156</v>
+        <v>214456</v>
       </c>
       <c r="M38" s="11">
-        <v>214456</v>
+        <v>1315169</v>
       </c>
       <c r="N38" s="11">
-        <v>1315169</v>
-      </c>
-    </row>
-    <row r="39" spans="2:14" x14ac:dyDescent="0.25">
+        <v>260236</v>
+      </c>
+    </row>
+    <row r="39" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B39" s="12" t="s">
         <v>19</v>
       </c>
@@ -1802,37 +1802,37 @@
       </c>
       <c r="D39" s="13"/>
       <c r="E39" s="13">
-        <v>55228</v>
+        <v>126631</v>
       </c>
       <c r="F39" s="13">
-        <v>126631</v>
+        <v>113174</v>
       </c>
       <c r="G39" s="13">
-        <v>113174</v>
+        <v>65589</v>
       </c>
       <c r="H39" s="13">
-        <v>65589</v>
+        <v>208509</v>
       </c>
       <c r="I39" s="13">
-        <v>208509</v>
-      </c>
-      <c r="J39" s="13">
         <v>196582</v>
       </c>
-      <c r="K39" s="13" t="s">
-        <v>18</v>
+      <c r="J39" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="K39" s="13">
+        <v>104192</v>
       </c>
       <c r="L39" s="13">
-        <v>104192</v>
+        <v>281146</v>
       </c>
       <c r="M39" s="13">
-        <v>281146</v>
+        <v>335778</v>
       </c>
       <c r="N39" s="13">
-        <v>335778</v>
-      </c>
-    </row>
-    <row r="40" spans="2:14" x14ac:dyDescent="0.25">
+        <v>345027</v>
+      </c>
+    </row>
+    <row r="40" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B40" s="10" t="s">
         <v>20</v>
       </c>
@@ -1844,25 +1844,25 @@
         <v>0</v>
       </c>
       <c r="F40" s="11">
-        <v>0</v>
-      </c>
-      <c r="G40" s="11">
         <v>33980</v>
       </c>
-      <c r="H40" s="11" t="s">
-        <v>18</v>
+      <c r="G40" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="H40" s="11">
+        <v>0</v>
       </c>
       <c r="I40" s="11">
         <v>0</v>
       </c>
-      <c r="J40" s="11">
-        <v>0</v>
-      </c>
-      <c r="K40" s="11" t="s">
-        <v>18</v>
+      <c r="J40" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="K40" s="11">
+        <v>70</v>
       </c>
       <c r="L40" s="11">
-        <v>70</v>
+        <v>0</v>
       </c>
       <c r="M40" s="11">
         <v>0</v>
@@ -1871,7 +1871,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B41" s="12" t="s">
         <v>21</v>
       </c>
@@ -1880,37 +1880,37 @@
       </c>
       <c r="D41" s="13"/>
       <c r="E41" s="13">
-        <v>700588</v>
+        <v>1721684</v>
       </c>
       <c r="F41" s="13">
-        <v>1721684</v>
+        <v>929333</v>
       </c>
       <c r="G41" s="13">
-        <v>929333</v>
+        <v>502357</v>
       </c>
       <c r="H41" s="13">
-        <v>502357</v>
+        <v>2163046</v>
       </c>
       <c r="I41" s="13">
-        <v>2163046</v>
-      </c>
-      <c r="J41" s="13">
         <v>3755416</v>
       </c>
-      <c r="K41" s="13" t="s">
-        <v>18</v>
+      <c r="J41" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="K41" s="13">
+        <v>925538</v>
       </c>
       <c r="L41" s="13">
-        <v>925538</v>
+        <v>1506860</v>
       </c>
       <c r="M41" s="13">
-        <v>1506860</v>
+        <v>3827528</v>
       </c>
       <c r="N41" s="13">
-        <v>3827528</v>
-      </c>
-    </row>
-    <row r="42" spans="2:14" x14ac:dyDescent="0.25">
+        <v>4624101</v>
+      </c>
+    </row>
+    <row r="42" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B42" s="10" t="s">
         <v>22</v>
       </c>
@@ -1919,37 +1919,37 @@
       </c>
       <c r="D42" s="11"/>
       <c r="E42" s="11">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="F42" s="11">
-        <v>19</v>
-      </c>
-      <c r="G42" s="11">
         <v>8</v>
       </c>
-      <c r="H42" s="11" t="s">
-        <v>18</v>
+      <c r="G42" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="H42" s="11">
+        <v>27</v>
       </c>
       <c r="I42" s="11">
-        <v>27</v>
-      </c>
-      <c r="J42" s="11">
         <v>32</v>
       </c>
-      <c r="K42" s="11" t="s">
-        <v>18</v>
+      <c r="J42" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="K42" s="11">
+        <v>0</v>
       </c>
       <c r="L42" s="11">
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="M42" s="11">
-        <v>36</v>
+        <v>-36</v>
       </c>
       <c r="N42" s="11">
-        <v>-36</v>
-      </c>
-    </row>
-    <row r="43" spans="2:14" x14ac:dyDescent="0.25">
+        <v>49217</v>
+      </c>
+    </row>
+    <row r="43" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B43" s="12" t="s">
         <v>23</v>
       </c>
@@ -1972,11 +1972,11 @@
       <c r="I43" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="J43" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="K43" s="13">
-        <v>0</v>
+      <c r="J43" s="13">
+        <v>0</v>
+      </c>
+      <c r="K43" s="13" t="s">
+        <v>18</v>
       </c>
       <c r="L43" s="13" t="s">
         <v>18</v>
@@ -1988,7 +1988,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="44" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B44" s="10" t="s">
         <v>24</v>
       </c>
@@ -2011,11 +2011,11 @@
       <c r="I44" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="J44" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="K44" s="11">
-        <v>0</v>
+      <c r="J44" s="11">
+        <v>0</v>
+      </c>
+      <c r="K44" s="11" t="s">
+        <v>18</v>
       </c>
       <c r="L44" s="11" t="s">
         <v>18</v>
@@ -2027,7 +2027,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="45" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B45" s="12" t="s">
         <v>25</v>
       </c>
@@ -2050,11 +2050,11 @@
       <c r="I45" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="J45" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="K45" s="13">
-        <v>0</v>
+      <c r="J45" s="13">
+        <v>0</v>
+      </c>
+      <c r="K45" s="13" t="s">
+        <v>18</v>
       </c>
       <c r="L45" s="13" t="s">
         <v>18</v>
@@ -2066,7 +2066,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="46" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B46" s="10" t="s">
         <v>26</v>
       </c>
@@ -2092,20 +2092,20 @@
       <c r="J46" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="K46" s="11" t="s">
-        <v>18</v>
+      <c r="K46" s="11">
+        <v>962</v>
       </c>
       <c r="L46" s="11">
-        <v>962</v>
+        <v>21792</v>
       </c>
       <c r="M46" s="11">
-        <v>21792</v>
+        <v>0</v>
       </c>
       <c r="N46" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="2:14" x14ac:dyDescent="0.25">
+        <v>57694</v>
+      </c>
+    </row>
+    <row r="47" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B47" s="12" t="s">
         <v>27</v>
       </c>
@@ -2131,57 +2131,57 @@
       <c r="J47" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="K47" s="13" t="s">
-        <v>18</v>
+      <c r="K47" s="13">
+        <v>0</v>
       </c>
       <c r="L47" s="13">
-        <v>0</v>
+        <v>6257</v>
       </c>
       <c r="M47" s="13">
-        <v>6257</v>
+        <v>2191</v>
       </c>
       <c r="N47" s="13">
-        <v>2191</v>
-      </c>
-    </row>
-    <row r="48" spans="2:14" x14ac:dyDescent="0.25">
+        <v>-2191</v>
+      </c>
+    </row>
+    <row r="48" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B48" s="14" t="s">
         <v>28</v>
       </c>
       <c r="C48" s="15"/>
       <c r="D48" s="15"/>
       <c r="E48" s="15">
-        <v>910715</v>
+        <v>2234620</v>
       </c>
       <c r="F48" s="15">
-        <v>2234620</v>
+        <v>1118043</v>
       </c>
       <c r="G48" s="15">
-        <v>1118043</v>
+        <v>757217</v>
       </c>
       <c r="H48" s="15">
-        <v>757217</v>
+        <v>2578694</v>
       </c>
       <c r="I48" s="15">
-        <v>2578694</v>
+        <v>4466972</v>
       </c>
       <c r="J48" s="15">
-        <v>4466972</v>
+        <v>0</v>
       </c>
       <c r="K48" s="15">
-        <v>0</v>
+        <v>1295918</v>
       </c>
       <c r="L48" s="15">
-        <v>1295918</v>
+        <v>2030547</v>
       </c>
       <c r="M48" s="15">
-        <v>2030547</v>
+        <v>5480630</v>
       </c>
       <c r="N48" s="15">
-        <v>5480630</v>
-      </c>
-    </row>
-    <row r="49" spans="2:14" x14ac:dyDescent="0.25">
+        <v>5334084</v>
+      </c>
+    </row>
+    <row r="49" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B49" s="8" t="s">
         <v>43</v>
       </c>
@@ -2198,7 +2198,7 @@
       <c r="M49" s="9"/>
       <c r="N49" s="9"/>
     </row>
-    <row r="50" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B50" s="10" t="s">
         <v>30</v>
       </c>
@@ -2215,8 +2215,8 @@
       <c r="G50" s="11">
         <v>0</v>
       </c>
-      <c r="H50" s="11">
-        <v>0</v>
+      <c r="H50" s="11" t="s">
+        <v>18</v>
       </c>
       <c r="I50" s="11" t="s">
         <v>18</v>
@@ -2237,7 +2237,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="51" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B51" s="12" t="s">
         <v>31</v>
       </c>
@@ -2251,11 +2251,11 @@
       <c r="F51" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="G51" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="H51" s="13">
-        <v>0</v>
+      <c r="G51" s="13">
+        <v>0</v>
+      </c>
+      <c r="H51" s="13" t="s">
+        <v>18</v>
       </c>
       <c r="I51" s="13" t="s">
         <v>18</v>
@@ -2276,7 +2276,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="52" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B52" s="14" t="s">
         <v>32</v>
       </c>
@@ -2313,7 +2313,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B53" s="8" t="s">
         <v>44</v>
       </c>
@@ -2330,7 +2330,7 @@
       <c r="M53" s="9"/>
       <c r="N53" s="9"/>
     </row>
-    <row r="54" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B54" s="10" t="s">
         <v>34</v>
       </c>
@@ -2339,74 +2339,74 @@
       </c>
       <c r="D54" s="11"/>
       <c r="E54" s="11">
-        <v>20726</v>
+        <v>36562</v>
       </c>
       <c r="F54" s="11">
-        <v>36562</v>
+        <v>48080</v>
       </c>
       <c r="G54" s="11">
-        <v>48080</v>
+        <v>66296</v>
       </c>
       <c r="H54" s="11">
-        <v>66296</v>
+        <v>121185</v>
       </c>
       <c r="I54" s="11">
-        <v>121185</v>
-      </c>
-      <c r="J54" s="11">
         <v>49628</v>
       </c>
-      <c r="K54" s="11" t="s">
-        <v>18</v>
+      <c r="J54" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="K54" s="11">
+        <v>33823</v>
       </c>
       <c r="L54" s="11">
-        <v>33823</v>
+        <v>210612</v>
       </c>
       <c r="M54" s="11">
-        <v>210612</v>
+        <v>43413</v>
       </c>
       <c r="N54" s="11">
-        <v>43413</v>
-      </c>
-    </row>
-    <row r="55" spans="2:14" x14ac:dyDescent="0.25">
+        <v>292405</v>
+      </c>
+    </row>
+    <row r="55" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B55" s="16" t="s">
         <v>35</v>
       </c>
       <c r="C55" s="17"/>
       <c r="D55" s="17"/>
       <c r="E55" s="17">
-        <v>20726</v>
+        <v>36562</v>
       </c>
       <c r="F55" s="17">
-        <v>36562</v>
+        <v>48080</v>
       </c>
       <c r="G55" s="17">
-        <v>48080</v>
+        <v>66296</v>
       </c>
       <c r="H55" s="17">
-        <v>66296</v>
+        <v>121185</v>
       </c>
       <c r="I55" s="17">
-        <v>121185</v>
+        <v>49628</v>
       </c>
       <c r="J55" s="17">
-        <v>49628</v>
+        <v>0</v>
       </c>
       <c r="K55" s="17">
-        <v>0</v>
+        <v>33823</v>
       </c>
       <c r="L55" s="17">
-        <v>33823</v>
+        <v>210612</v>
       </c>
       <c r="M55" s="17">
-        <v>210612</v>
+        <v>43413</v>
       </c>
       <c r="N55" s="17">
-        <v>43413</v>
-      </c>
-    </row>
-    <row r="56" spans="2:14" x14ac:dyDescent="0.25">
+        <v>292405</v>
+      </c>
+    </row>
+    <row r="56" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B56" s="14" t="s">
         <v>36</v>
       </c>
@@ -2420,8 +2420,8 @@
       <c r="F56" s="15">
         <v>0</v>
       </c>
-      <c r="G56" s="15">
-        <v>0</v>
+      <c r="G56" s="15" t="s">
+        <v>18</v>
       </c>
       <c r="H56" s="15" t="s">
         <v>18</v>
@@ -2445,7 +2445,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="57" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B57" s="16" t="s">
         <v>38</v>
       </c>
@@ -2459,20 +2459,20 @@
       <c r="F57" s="17">
         <v>0</v>
       </c>
-      <c r="G57" s="17">
-        <v>0</v>
-      </c>
-      <c r="H57" s="17" t="s">
-        <v>18</v>
+      <c r="G57" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="H57" s="17">
+        <v>0</v>
       </c>
       <c r="I57" s="17">
         <v>0</v>
       </c>
-      <c r="J57" s="17">
-        <v>0</v>
-      </c>
-      <c r="K57" s="17" t="s">
-        <v>18</v>
+      <c r="J57" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="K57" s="17">
+        <v>0</v>
       </c>
       <c r="L57" s="17">
         <v>0</v>
@@ -2484,44 +2484,44 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B58" s="14" t="s">
         <v>39</v>
       </c>
       <c r="C58" s="15"/>
       <c r="D58" s="15"/>
       <c r="E58" s="15">
-        <v>931441</v>
+        <v>2271182</v>
       </c>
       <c r="F58" s="15">
-        <v>2271182</v>
+        <v>1166123</v>
       </c>
       <c r="G58" s="15">
-        <v>1166123</v>
+        <v>823513</v>
       </c>
       <c r="H58" s="15">
-        <v>823513</v>
+        <v>2699879</v>
       </c>
       <c r="I58" s="15">
-        <v>2699879</v>
+        <v>4516600</v>
       </c>
       <c r="J58" s="15">
-        <v>4516600</v>
+        <v>0</v>
       </c>
       <c r="K58" s="15">
-        <v>0</v>
+        <v>1329741</v>
       </c>
       <c r="L58" s="15">
-        <v>1329741</v>
+        <v>2241159</v>
       </c>
       <c r="M58" s="15">
-        <v>2241159</v>
+        <v>5524043</v>
       </c>
       <c r="N58" s="15">
-        <v>5524043</v>
-      </c>
-    </row>
-    <row r="59" spans="2:14" x14ac:dyDescent="0.25">
+        <v>5626489</v>
+      </c>
+    </row>
+    <row r="59" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B59" s="1"/>
       <c r="C59" s="1"/>
       <c r="D59" s="1"/>
@@ -2536,7 +2536,7 @@
       <c r="M59" s="1"/>
       <c r="N59" s="1"/>
     </row>
-    <row r="60" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B60" s="1"/>
       <c r="C60" s="1"/>
       <c r="D60" s="1"/>
@@ -2551,7 +2551,7 @@
       <c r="M60" s="1"/>
       <c r="N60" s="1"/>
     </row>
-    <row r="61" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B61" s="1"/>
       <c r="C61" s="1"/>
       <c r="D61" s="1"/>
@@ -2566,7 +2566,7 @@
       <c r="M61" s="1"/>
       <c r="N61" s="1"/>
     </row>
-    <row r="62" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B62" s="7" t="s">
         <v>45</v>
       </c>
@@ -2603,7 +2603,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="63" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="63" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B63" s="1"/>
       <c r="C63" s="1"/>
       <c r="D63" s="1"/>
@@ -2618,7 +2618,7 @@
       <c r="M63" s="1"/>
       <c r="N63" s="1"/>
     </row>
-    <row r="64" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="64" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B64" s="8" t="s">
         <v>46</v>
       </c>
@@ -2635,7 +2635,7 @@
       <c r="M64" s="9"/>
       <c r="N64" s="9"/>
     </row>
-    <row r="65" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="65" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B65" s="10" t="s">
         <v>16</v>
       </c>
@@ -2644,37 +2644,37 @@
       </c>
       <c r="D65" s="11"/>
       <c r="E65" s="11">
-        <v>20881219</v>
+        <v>27664972</v>
       </c>
       <c r="F65" s="11">
-        <v>27664972</v>
+        <v>6038076</v>
       </c>
       <c r="G65" s="11">
-        <v>6038076</v>
+        <v>40546487</v>
       </c>
       <c r="H65" s="11">
-        <v>40546487</v>
+        <v>29615563</v>
       </c>
       <c r="I65" s="11">
-        <v>29615563</v>
+        <v>51602266</v>
       </c>
       <c r="J65" s="11">
-        <v>51602266</v>
+        <v>106595847</v>
       </c>
       <c r="K65" s="11">
-        <v>106595847</v>
+        <v>81411115</v>
       </c>
       <c r="L65" s="11">
-        <v>81411115</v>
+        <v>83025939</v>
       </c>
       <c r="M65" s="11">
-        <v>83025939</v>
+        <v>84997673</v>
       </c>
       <c r="N65" s="11">
-        <v>84997673</v>
-      </c>
-    </row>
-    <row r="66" spans="2:14" x14ac:dyDescent="0.25">
+        <v>86629827</v>
+      </c>
+    </row>
+    <row r="66" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B66" s="12" t="s">
         <v>19</v>
       </c>
@@ -2683,37 +2683,37 @@
       </c>
       <c r="D66" s="13"/>
       <c r="E66" s="13">
-        <v>25965209</v>
+        <v>27522495</v>
       </c>
       <c r="F66" s="13">
-        <v>27522495</v>
+        <v>31306777</v>
       </c>
       <c r="G66" s="13">
-        <v>31306777</v>
+        <v>38902135</v>
       </c>
       <c r="H66" s="13">
-        <v>38902135</v>
+        <v>35185454</v>
       </c>
       <c r="I66" s="13">
-        <v>35185454</v>
+        <v>33206419</v>
       </c>
       <c r="J66" s="13">
-        <v>33206419</v>
+        <v>35826087</v>
       </c>
       <c r="K66" s="13">
-        <v>35826087</v>
+        <v>54041494</v>
       </c>
       <c r="L66" s="13">
-        <v>54041494</v>
+        <v>55267545</v>
       </c>
       <c r="M66" s="13">
-        <v>55267545</v>
+        <v>56253644</v>
       </c>
       <c r="N66" s="13">
-        <v>56253644</v>
-      </c>
-    </row>
-    <row r="67" spans="2:14" x14ac:dyDescent="0.25">
+        <v>56038168</v>
+      </c>
+    </row>
+    <row r="67" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B67" s="10" t="s">
         <v>20</v>
       </c>
@@ -2724,27 +2724,27 @@
       <c r="E67" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="F67" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="G67" s="11">
+      <c r="F67" s="11">
         <v>40452381</v>
       </c>
+      <c r="G67" s="11" t="s">
+        <v>18</v>
+      </c>
       <c r="H67" s="11" t="s">
         <v>18</v>
       </c>
       <c r="I67" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="J67" s="11" t="s">
-        <v>18</v>
+      <c r="J67" s="11">
+        <v>126111111</v>
       </c>
       <c r="K67" s="11">
-        <v>126111111</v>
-      </c>
-      <c r="L67" s="11">
         <v>70000000</v>
       </c>
+      <c r="L67" s="11" t="s">
+        <v>18</v>
+      </c>
       <c r="M67" s="11" t="s">
         <v>18</v>
       </c>
@@ -2752,7 +2752,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="68" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="68" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B68" s="12" t="s">
         <v>21</v>
       </c>
@@ -2761,37 +2761,37 @@
       </c>
       <c r="D68" s="13"/>
       <c r="E68" s="13">
-        <v>64091849</v>
+        <v>65188141</v>
       </c>
       <c r="F68" s="13">
-        <v>65188141</v>
+        <v>63492041</v>
       </c>
       <c r="G68" s="13">
-        <v>63492041</v>
+        <v>85828977</v>
       </c>
       <c r="H68" s="13">
-        <v>85828977</v>
+        <v>120986463</v>
       </c>
       <c r="I68" s="13">
-        <v>120986463</v>
+        <v>124205454</v>
       </c>
       <c r="J68" s="13">
-        <v>124205454</v>
+        <v>135994991</v>
       </c>
       <c r="K68" s="13">
-        <v>135994991</v>
+        <v>179576640</v>
       </c>
       <c r="L68" s="13">
-        <v>179576640</v>
+        <v>183920420</v>
       </c>
       <c r="M68" s="13">
-        <v>183920420</v>
+        <v>177061017</v>
       </c>
       <c r="N68" s="13">
-        <v>177061017</v>
-      </c>
-    </row>
-    <row r="69" spans="2:14" x14ac:dyDescent="0.25">
+        <v>180003153</v>
+      </c>
+    </row>
+    <row r="69" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B69" s="10" t="s">
         <v>22</v>
       </c>
@@ -2799,8 +2799,8 @@
         <v>47</v>
       </c>
       <c r="D69" s="11"/>
-      <c r="E69" s="11">
-        <v>23000000</v>
+      <c r="E69" s="11" t="s">
+        <v>18</v>
       </c>
       <c r="F69" s="11" t="s">
         <v>18</v>
@@ -2808,29 +2808,29 @@
       <c r="G69" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="H69" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="I69" s="11">
+      <c r="H69" s="11">
         <v>27000000</v>
       </c>
-      <c r="J69" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="K69" s="11">
+      <c r="I69" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="J69" s="11">
         <v>-6000000</v>
       </c>
+      <c r="K69" s="11" t="s">
+        <v>18</v>
+      </c>
       <c r="L69" s="11" t="s">
         <v>18</v>
       </c>
       <c r="M69" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="N69" s="11" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="70" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="N69" s="11">
+        <v>213986957</v>
+      </c>
+    </row>
+    <row r="70" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B70" s="12" t="s">
         <v>23</v>
       </c>
@@ -2869,7 +2869,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="71" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="71" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B71" s="10" t="s">
         <v>24</v>
       </c>
@@ -2908,7 +2908,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="72" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="72" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B72" s="12" t="s">
         <v>25</v>
       </c>
@@ -2947,7 +2947,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="73" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="73" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B73" s="10" t="s">
         <v>26</v>
       </c>
@@ -2970,23 +2970,23 @@
       <c r="I73" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="J73" s="11" t="s">
-        <v>18</v>
+      <c r="J73" s="11">
+        <v>6757344</v>
       </c>
       <c r="K73" s="11">
-        <v>6757344</v>
+        <v>7950413</v>
       </c>
       <c r="L73" s="11">
-        <v>7950413</v>
-      </c>
-      <c r="M73" s="11">
         <v>7997064</v>
       </c>
-      <c r="N73" s="11" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="74" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="M73" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="N73" s="11">
+        <v>8000832</v>
+      </c>
+    </row>
+    <row r="74" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B74" s="12" t="s">
         <v>27</v>
       </c>
@@ -3009,23 +3009,23 @@
       <c r="I74" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="J74" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="K74" s="13">
+      <c r="J74" s="13">
         <v>19417674</v>
       </c>
-      <c r="L74" s="13" t="s">
-        <v>18</v>
+      <c r="K74" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="L74" s="13">
+        <v>22031690</v>
       </c>
       <c r="M74" s="13">
-        <v>22031690</v>
+        <v>21910000</v>
       </c>
       <c r="N74" s="13">
-        <v>21910000</v>
-      </c>
-    </row>
-    <row r="75" spans="2:14" x14ac:dyDescent="0.25">
+        <v>21693069</v>
+      </c>
+    </row>
+    <row r="75" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B75" s="8" t="s">
         <v>48</v>
       </c>
@@ -3042,7 +3042,7 @@
       <c r="M75" s="9"/>
       <c r="N75" s="9"/>
     </row>
-    <row r="76" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="76" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B76" s="10" t="s">
         <v>30</v>
       </c>
@@ -3081,7 +3081,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="77" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="77" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B77" s="12" t="s">
         <v>31</v>
       </c>
@@ -3120,7 +3120,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="78" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="78" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B78" s="8" t="s">
         <v>49</v>
       </c>
@@ -3137,7 +3137,7 @@
       <c r="M78" s="9"/>
       <c r="N78" s="9"/>
     </row>
-    <row r="79" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="79" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B79" s="10" t="s">
         <v>34</v>
       </c>
@@ -3172,11 +3172,11 @@
       <c r="M79" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="N79" s="11" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="80" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="N79" s="11">
+        <v>7631009</v>
+      </c>
+    </row>
+    <row r="80" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B80" s="1"/>
       <c r="C80" s="1"/>
       <c r="D80" s="1"/>
@@ -3191,7 +3191,7 @@
       <c r="M80" s="1"/>
       <c r="N80" s="1"/>
     </row>
-    <row r="81" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="81" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B81" s="1"/>
       <c r="C81" s="1"/>
       <c r="D81" s="1"/>
@@ -3206,7 +3206,7 @@
       <c r="M81" s="1"/>
       <c r="N81" s="1"/>
     </row>
-    <row r="82" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="82" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B82" s="1"/>
       <c r="C82" s="1"/>
       <c r="D82" s="1"/>
@@ -3221,7 +3221,7 @@
       <c r="M82" s="1"/>
       <c r="N82" s="1"/>
     </row>
-    <row r="83" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="83" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B83" s="7" t="s">
         <v>50</v>
       </c>
@@ -3258,7 +3258,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="84" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="84" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B84" s="1"/>
       <c r="C84" s="1"/>
       <c r="D84" s="1"/>
@@ -3273,7 +3273,7 @@
       <c r="M84" s="1"/>
       <c r="N84" s="1"/>
     </row>
-    <row r="85" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="85" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B85" s="8" t="s">
         <v>51</v>
       </c>
@@ -3290,7 +3290,7 @@
       <c r="M85" s="9"/>
       <c r="N85" s="9"/>
     </row>
-    <row r="86" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="86" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B86" s="10" t="s">
         <v>16</v>
       </c>
@@ -3299,37 +3299,37 @@
       </c>
       <c r="D86" s="11"/>
       <c r="E86" s="11">
-        <v>-123847</v>
+        <v>-200964</v>
       </c>
       <c r="F86" s="11">
-        <v>-200964</v>
+        <v>-115372</v>
       </c>
       <c r="G86" s="11">
-        <v>-115372</v>
+        <v>-94694</v>
       </c>
       <c r="H86" s="11">
-        <v>-94694</v>
+        <v>-246346</v>
       </c>
       <c r="I86" s="11">
-        <v>-246346</v>
+        <v>-245999</v>
       </c>
       <c r="J86" s="11">
-        <v>-245999</v>
+        <v>-124827</v>
       </c>
       <c r="K86" s="11">
-        <v>-124827</v>
+        <v>-118678</v>
       </c>
       <c r="L86" s="11">
-        <v>-118678</v>
+        <v>-186674</v>
       </c>
       <c r="M86" s="11">
-        <v>-186674</v>
+        <v>-637689</v>
       </c>
       <c r="N86" s="11">
-        <v>-637689</v>
-      </c>
-    </row>
-    <row r="87" spans="2:14" x14ac:dyDescent="0.25">
+        <v>-163120</v>
+      </c>
+    </row>
+    <row r="87" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B87" s="12" t="s">
         <v>19</v>
       </c>
@@ -3338,37 +3338,37 @@
       </c>
       <c r="D87" s="13"/>
       <c r="E87" s="13">
-        <v>-24999</v>
+        <v>-54699</v>
       </c>
       <c r="F87" s="13">
-        <v>-54699</v>
+        <v>-17775</v>
       </c>
       <c r="G87" s="13">
-        <v>-17775</v>
+        <v>-12519</v>
       </c>
       <c r="H87" s="13">
-        <v>-12519</v>
+        <v>-112963</v>
       </c>
       <c r="I87" s="13">
-        <v>-112963</v>
+        <v>-116285</v>
       </c>
       <c r="J87" s="13">
-        <v>-116285</v>
+        <v>-45082</v>
       </c>
       <c r="K87" s="13">
-        <v>-45082</v>
+        <v>-38086</v>
       </c>
       <c r="L87" s="13">
-        <v>-38086</v>
+        <v>-182388</v>
       </c>
       <c r="M87" s="13">
-        <v>-182388</v>
+        <v>-219483</v>
       </c>
       <c r="N87" s="13">
-        <v>-219483</v>
-      </c>
-    </row>
-    <row r="88" spans="2:14" x14ac:dyDescent="0.25">
+        <v>-118122</v>
+      </c>
+    </row>
+    <row r="88" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B88" s="10" t="s">
         <v>20</v>
       </c>
@@ -3380,25 +3380,25 @@
         <v>0</v>
       </c>
       <c r="F88" s="11">
-        <v>0</v>
-      </c>
-      <c r="G88" s="11">
         <v>-32932</v>
       </c>
-      <c r="H88" s="11" t="s">
-        <v>18</v>
+      <c r="G88" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="H88" s="11">
+        <v>0</v>
       </c>
       <c r="I88" s="11">
         <v>0</v>
       </c>
       <c r="J88" s="11">
-        <v>0</v>
+        <v>-1060</v>
       </c>
       <c r="K88" s="11">
-        <v>-1060</v>
+        <v>-21</v>
       </c>
       <c r="L88" s="11">
-        <v>-21</v>
+        <v>0</v>
       </c>
       <c r="M88" s="11">
         <v>0</v>
@@ -3407,7 +3407,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="89" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B89" s="12" t="s">
         <v>21</v>
       </c>
@@ -3416,37 +3416,37 @@
       </c>
       <c r="D89" s="13"/>
       <c r="E89" s="13">
-        <v>-599145</v>
+        <v>-1575558</v>
       </c>
       <c r="F89" s="13">
-        <v>-1575558</v>
+        <v>-738343</v>
       </c>
       <c r="G89" s="13">
-        <v>-738343</v>
+        <v>-497680</v>
       </c>
       <c r="H89" s="13">
-        <v>-497680</v>
+        <v>-1808661</v>
       </c>
       <c r="I89" s="13">
-        <v>-1808661</v>
+        <v>-3105618</v>
       </c>
       <c r="J89" s="13">
-        <v>-3105618</v>
+        <v>-1838925</v>
       </c>
       <c r="K89" s="13">
-        <v>-1838925</v>
+        <v>-926724</v>
       </c>
       <c r="L89" s="13">
-        <v>-926724</v>
+        <v>-1240727</v>
       </c>
       <c r="M89" s="13">
-        <v>-1240727</v>
+        <v>-3558804</v>
       </c>
       <c r="N89" s="13">
-        <v>-3558804</v>
-      </c>
-    </row>
-    <row r="90" spans="2:14" x14ac:dyDescent="0.25">
+        <v>-4550462</v>
+      </c>
+    </row>
+    <row r="90" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B90" s="10" t="s">
         <v>22</v>
       </c>
@@ -3455,37 +3455,37 @@
       </c>
       <c r="D90" s="11"/>
       <c r="E90" s="11">
-        <v>-6</v>
+        <v>-4</v>
       </c>
       <c r="F90" s="11">
+        <v>-1</v>
+      </c>
+      <c r="G90" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="H90" s="11">
         <v>-4</v>
-      </c>
-      <c r="G90" s="11">
-        <v>-1</v>
-      </c>
-      <c r="H90" s="11" t="s">
-        <v>18</v>
       </c>
       <c r="I90" s="11">
         <v>-4</v>
       </c>
       <c r="J90" s="11">
-        <v>-4</v>
+        <v>0</v>
       </c>
       <c r="K90" s="11">
         <v>0</v>
       </c>
       <c r="L90" s="11">
-        <v>0</v>
+        <v>-3</v>
       </c>
       <c r="M90" s="11">
-        <v>-3</v>
+        <v>3</v>
       </c>
       <c r="N90" s="11">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="91" spans="2:14" x14ac:dyDescent="0.25">
+        <v>-46710</v>
+      </c>
+    </row>
+    <row r="91" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B91" s="12" t="s">
         <v>23</v>
       </c>
@@ -3508,11 +3508,11 @@
       <c r="I91" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="J91" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="K91" s="13">
-        <v>0</v>
+      <c r="J91" s="13">
+        <v>0</v>
+      </c>
+      <c r="K91" s="13" t="s">
+        <v>18</v>
       </c>
       <c r="L91" s="13" t="s">
         <v>18</v>
@@ -3524,7 +3524,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="92" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="92" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B92" s="10" t="s">
         <v>24</v>
       </c>
@@ -3547,11 +3547,11 @@
       <c r="I92" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="J92" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="K92" s="11">
-        <v>0</v>
+      <c r="J92" s="11">
+        <v>0</v>
+      </c>
+      <c r="K92" s="11" t="s">
+        <v>18</v>
       </c>
       <c r="L92" s="11" t="s">
         <v>18</v>
@@ -3563,7 +3563,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="93" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="93" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B93" s="12" t="s">
         <v>25</v>
       </c>
@@ -3586,11 +3586,11 @@
       <c r="I93" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="J93" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="K93" s="13">
-        <v>0</v>
+      <c r="J93" s="13">
+        <v>0</v>
+      </c>
+      <c r="K93" s="13" t="s">
+        <v>18</v>
       </c>
       <c r="L93" s="13" t="s">
         <v>18</v>
@@ -3602,7 +3602,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="94" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="94" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B94" s="10" t="s">
         <v>26</v>
       </c>
@@ -3625,23 +3625,23 @@
       <c r="I94" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="J94" s="11" t="s">
-        <v>18</v>
+      <c r="J94" s="11">
+        <v>-311730</v>
       </c>
       <c r="K94" s="11">
-        <v>-311730</v>
+        <v>-4409</v>
       </c>
       <c r="L94" s="11">
-        <v>-4409</v>
+        <v>-144398</v>
       </c>
       <c r="M94" s="11">
-        <v>-144398</v>
+        <v>22879</v>
       </c>
       <c r="N94" s="11">
-        <v>22879</v>
-      </c>
-    </row>
-    <row r="95" spans="2:14" x14ac:dyDescent="0.25">
+        <v>-331557</v>
+      </c>
+    </row>
+    <row r="95" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B95" s="12" t="s">
         <v>27</v>
       </c>
@@ -3664,60 +3664,60 @@
       <c r="I95" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="J95" s="13" t="s">
-        <v>18</v>
+      <c r="J95" s="13">
+        <v>-119437</v>
       </c>
       <c r="K95" s="13">
-        <v>-119437</v>
+        <v>0</v>
       </c>
       <c r="L95" s="13">
-        <v>0</v>
+        <v>-46119</v>
       </c>
       <c r="M95" s="13">
-        <v>-46119</v>
+        <v>-16771</v>
       </c>
       <c r="N95" s="13">
-        <v>-16771</v>
-      </c>
-    </row>
-    <row r="96" spans="2:14" x14ac:dyDescent="0.25">
+        <v>14940</v>
+      </c>
+    </row>
+    <row r="96" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B96" s="14" t="s">
         <v>52</v>
       </c>
       <c r="C96" s="15"/>
       <c r="D96" s="15"/>
       <c r="E96" s="15">
-        <v>-747997</v>
+        <v>-1831225</v>
       </c>
       <c r="F96" s="15">
-        <v>-1831225</v>
+        <v>-904423</v>
       </c>
       <c r="G96" s="15">
-        <v>-904423</v>
+        <v>-604893</v>
       </c>
       <c r="H96" s="15">
-        <v>-604893</v>
+        <v>-2167974</v>
       </c>
       <c r="I96" s="15">
-        <v>-2167974</v>
+        <v>-3467906</v>
       </c>
       <c r="J96" s="15">
-        <v>-3467906</v>
+        <v>-2441061</v>
       </c>
       <c r="K96" s="15">
-        <v>-2441061</v>
+        <v>-1087918</v>
       </c>
       <c r="L96" s="15">
-        <v>-1087918</v>
+        <v>-1800309</v>
       </c>
       <c r="M96" s="15">
-        <v>-1800309</v>
+        <v>-4409865</v>
       </c>
       <c r="N96" s="15">
-        <v>-4409865</v>
-      </c>
-    </row>
-    <row r="97" spans="2:14" x14ac:dyDescent="0.25">
+        <v>-5195031</v>
+      </c>
+    </row>
+    <row r="97" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B97" s="8" t="s">
         <v>53</v>
       </c>
@@ -3734,7 +3734,7 @@
       <c r="M97" s="9"/>
       <c r="N97" s="9"/>
     </row>
-    <row r="98" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="98" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B98" s="10" t="s">
         <v>30</v>
       </c>
@@ -3751,8 +3751,8 @@
       <c r="G98" s="11">
         <v>0</v>
       </c>
-      <c r="H98" s="11">
-        <v>0</v>
+      <c r="H98" s="11" t="s">
+        <v>18</v>
       </c>
       <c r="I98" s="11" t="s">
         <v>18</v>
@@ -3773,7 +3773,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="99" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="99" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B99" s="12" t="s">
         <v>31</v>
       </c>
@@ -3787,11 +3787,11 @@
       <c r="F99" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="G99" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="H99" s="13">
-        <v>0</v>
+      <c r="G99" s="13">
+        <v>0</v>
+      </c>
+      <c r="H99" s="13" t="s">
+        <v>18</v>
       </c>
       <c r="I99" s="13" t="s">
         <v>18</v>
@@ -3812,7 +3812,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="100" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="100" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B100" s="14" t="s">
         <v>54</v>
       </c>
@@ -3849,7 +3849,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="101" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B101" s="8" t="s">
         <v>55</v>
       </c>
@@ -3866,7 +3866,7 @@
       <c r="M101" s="9"/>
       <c r="N101" s="9"/>
     </row>
-    <row r="102" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="102" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B102" s="10" t="s">
         <v>34</v>
       </c>
@@ -3875,74 +3875,74 @@
       </c>
       <c r="D102" s="11"/>
       <c r="E102" s="11">
-        <v>-59803</v>
+        <v>-28161</v>
       </c>
       <c r="F102" s="11">
-        <v>-28161</v>
+        <v>-107457</v>
       </c>
       <c r="G102" s="11">
-        <v>-107457</v>
+        <v>-81215</v>
       </c>
       <c r="H102" s="11">
-        <v>-81215</v>
+        <v>-167378</v>
       </c>
       <c r="I102" s="11">
-        <v>-167378</v>
+        <v>-59707</v>
       </c>
       <c r="J102" s="11">
-        <v>-59707</v>
+        <v>-211774</v>
       </c>
       <c r="K102" s="11">
-        <v>-211774</v>
+        <v>-63526</v>
       </c>
       <c r="L102" s="11">
-        <v>-63526</v>
+        <v>-274301</v>
       </c>
       <c r="M102" s="11">
-        <v>-274301</v>
+        <v>-3012</v>
       </c>
       <c r="N102" s="11">
-        <v>-3012</v>
-      </c>
-    </row>
-    <row r="103" spans="2:14" x14ac:dyDescent="0.25">
+        <v>-325009</v>
+      </c>
+    </row>
+    <row r="103" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B103" s="16" t="s">
         <v>56</v>
       </c>
       <c r="C103" s="17"/>
       <c r="D103" s="17"/>
       <c r="E103" s="17">
-        <v>-59803</v>
+        <v>-28161</v>
       </c>
       <c r="F103" s="17">
-        <v>-28161</v>
+        <v>-107457</v>
       </c>
       <c r="G103" s="17">
-        <v>-107457</v>
+        <v>-81215</v>
       </c>
       <c r="H103" s="17">
-        <v>-81215</v>
+        <v>-167378</v>
       </c>
       <c r="I103" s="17">
-        <v>-167378</v>
+        <v>-59707</v>
       </c>
       <c r="J103" s="17">
-        <v>-59707</v>
+        <v>-211774</v>
       </c>
       <c r="K103" s="17">
-        <v>-211774</v>
+        <v>-63526</v>
       </c>
       <c r="L103" s="17">
-        <v>-63526</v>
+        <v>-274301</v>
       </c>
       <c r="M103" s="17">
-        <v>-274301</v>
+        <v>-3012</v>
       </c>
       <c r="N103" s="17">
-        <v>-3012</v>
-      </c>
-    </row>
-    <row r="104" spans="2:14" x14ac:dyDescent="0.25">
+        <v>-325009</v>
+      </c>
+    </row>
+    <row r="104" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B104" s="14" t="s">
         <v>36</v>
       </c>
@@ -3956,8 +3956,8 @@
       <c r="F104" s="15">
         <v>0</v>
       </c>
-      <c r="G104" s="15">
-        <v>0</v>
+      <c r="G104" s="15" t="s">
+        <v>18</v>
       </c>
       <c r="H104" s="15" t="s">
         <v>18</v>
@@ -3981,7 +3981,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="105" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="105" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B105" s="16" t="s">
         <v>38</v>
       </c>
@@ -3995,11 +3995,11 @@
       <c r="F105" s="17">
         <v>0</v>
       </c>
-      <c r="G105" s="17">
-        <v>0</v>
-      </c>
-      <c r="H105" s="17" t="s">
-        <v>18</v>
+      <c r="G105" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="H105" s="17">
+        <v>0</v>
       </c>
       <c r="I105" s="17">
         <v>0</v>
@@ -4020,44 +4020,44 @@
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="106" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B106" s="14" t="s">
         <v>39</v>
       </c>
       <c r="C106" s="15"/>
       <c r="D106" s="15"/>
       <c r="E106" s="15">
-        <v>-807800</v>
+        <v>-1859386</v>
       </c>
       <c r="F106" s="15">
-        <v>-1859386</v>
+        <v>-1011880</v>
       </c>
       <c r="G106" s="15">
-        <v>-1011880</v>
+        <v>-686108</v>
       </c>
       <c r="H106" s="15">
-        <v>-686108</v>
+        <v>-2335352</v>
       </c>
       <c r="I106" s="15">
-        <v>-2335352</v>
+        <v>-3527613</v>
       </c>
       <c r="J106" s="15">
-        <v>-3527613</v>
+        <v>-2652835</v>
       </c>
       <c r="K106" s="15">
-        <v>-2652835</v>
+        <v>-1151444</v>
       </c>
       <c r="L106" s="15">
-        <v>-1151444</v>
+        <v>-2074610</v>
       </c>
       <c r="M106" s="15">
-        <v>-2074610</v>
+        <v>-4412877</v>
       </c>
       <c r="N106" s="15">
-        <v>-4412877</v>
-      </c>
-    </row>
-    <row r="107" spans="2:14" x14ac:dyDescent="0.25">
+        <v>-5520040</v>
+      </c>
+    </row>
+    <row r="107" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B107" s="1"/>
       <c r="C107" s="1"/>
       <c r="D107" s="1"/>
@@ -4072,7 +4072,7 @@
       <c r="M107" s="1"/>
       <c r="N107" s="1"/>
     </row>
-    <row r="108" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="108" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B108" s="1"/>
       <c r="C108" s="1"/>
       <c r="D108" s="1"/>
@@ -4087,7 +4087,7 @@
       <c r="M108" s="1"/>
       <c r="N108" s="1"/>
     </row>
-    <row r="109" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="109" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B109" s="1"/>
       <c r="C109" s="1"/>
       <c r="D109" s="1"/>
@@ -4102,7 +4102,7 @@
       <c r="M109" s="1"/>
       <c r="N109" s="1"/>
     </row>
-    <row r="110" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="110" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B110" s="7" t="s">
         <v>57</v>
       </c>
@@ -4139,7 +4139,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="111" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="111" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B111" s="1"/>
       <c r="C111" s="1"/>
       <c r="D111" s="1"/>
@@ -4154,7 +4154,7 @@
       <c r="M111" s="1"/>
       <c r="N111" s="1"/>
     </row>
-    <row r="112" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="112" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B112" s="8" t="s">
         <v>58</v>
       </c>
@@ -4171,7 +4171,7 @@
       <c r="M112" s="9"/>
       <c r="N112" s="9"/>
     </row>
-    <row r="113" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="113" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B113" s="10" t="s">
         <v>16</v>
       </c>
@@ -4180,37 +4180,37 @@
       </c>
       <c r="D113" s="11"/>
       <c r="E113" s="11">
-        <v>31029</v>
+        <v>185322</v>
       </c>
       <c r="F113" s="11">
-        <v>185322</v>
+        <v>-73824</v>
       </c>
       <c r="G113" s="11">
-        <v>-73824</v>
+        <v>94577</v>
       </c>
       <c r="H113" s="11">
-        <v>94577</v>
+        <v>-41584</v>
       </c>
       <c r="I113" s="11">
-        <v>-41584</v>
+        <v>245977</v>
       </c>
       <c r="J113" s="11">
-        <v>245977</v>
+        <v>208818</v>
       </c>
       <c r="K113" s="11">
-        <v>208818</v>
+        <v>146478</v>
       </c>
       <c r="L113" s="11">
-        <v>146478</v>
+        <v>27782</v>
       </c>
       <c r="M113" s="11">
-        <v>27782</v>
+        <v>677480</v>
       </c>
       <c r="N113" s="11">
-        <v>677480</v>
-      </c>
-    </row>
-    <row r="114" spans="2:14" x14ac:dyDescent="0.25">
+        <v>97116</v>
+      </c>
+    </row>
+    <row r="114" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B114" s="12" t="s">
         <v>19</v>
       </c>
@@ -4219,37 +4219,37 @@
       </c>
       <c r="D114" s="13"/>
       <c r="E114" s="13">
-        <v>30229</v>
+        <v>71932</v>
       </c>
       <c r="F114" s="13">
-        <v>71932</v>
+        <v>95399</v>
       </c>
       <c r="G114" s="13">
-        <v>95399</v>
+        <v>53070</v>
       </c>
       <c r="H114" s="13">
-        <v>53070</v>
+        <v>95546</v>
       </c>
       <c r="I114" s="13">
-        <v>95546</v>
+        <v>80297</v>
       </c>
       <c r="J114" s="13">
-        <v>80297</v>
+        <v>81814</v>
       </c>
       <c r="K114" s="13">
-        <v>81814</v>
+        <v>66106</v>
       </c>
       <c r="L114" s="13">
-        <v>66106</v>
+        <v>98758</v>
       </c>
       <c r="M114" s="13">
-        <v>98758</v>
+        <v>116295</v>
       </c>
       <c r="N114" s="13">
-        <v>116295</v>
-      </c>
-    </row>
-    <row r="115" spans="2:14" x14ac:dyDescent="0.25">
+        <v>226905</v>
+      </c>
+    </row>
+    <row r="115" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B115" s="10" t="s">
         <v>20</v>
       </c>
@@ -4261,25 +4261,25 @@
         <v>0</v>
       </c>
       <c r="F115" s="11">
-        <v>0</v>
-      </c>
-      <c r="G115" s="11">
         <v>1048</v>
       </c>
-      <c r="H115" s="11" t="s">
-        <v>18</v>
+      <c r="G115" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="H115" s="11">
+        <v>0</v>
       </c>
       <c r="I115" s="11">
         <v>0</v>
       </c>
       <c r="J115" s="11">
-        <v>0</v>
+        <v>2345</v>
       </c>
       <c r="K115" s="11">
-        <v>2345</v>
+        <v>49</v>
       </c>
       <c r="L115" s="11">
-        <v>49</v>
+        <v>0</v>
       </c>
       <c r="M115" s="11">
         <v>0</v>
@@ -4288,7 +4288,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="116" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="116" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B116" s="12" t="s">
         <v>21</v>
       </c>
@@ -4297,37 +4297,37 @@
       </c>
       <c r="D116" s="13"/>
       <c r="E116" s="13">
-        <v>101443</v>
+        <v>146126</v>
       </c>
       <c r="F116" s="13">
-        <v>146126</v>
+        <v>190990</v>
       </c>
       <c r="G116" s="13">
-        <v>190990</v>
+        <v>4677</v>
       </c>
       <c r="H116" s="13">
-        <v>4677</v>
+        <v>354214</v>
       </c>
       <c r="I116" s="13">
-        <v>354214</v>
+        <v>643151</v>
       </c>
       <c r="J116" s="13">
-        <v>643151</v>
+        <v>170129</v>
       </c>
       <c r="K116" s="13">
-        <v>170129</v>
+        <v>-1186</v>
       </c>
       <c r="L116" s="13">
-        <v>-1186</v>
+        <v>266133</v>
       </c>
       <c r="M116" s="13">
-        <v>266133</v>
+        <v>268724</v>
       </c>
       <c r="N116" s="13">
-        <v>268724</v>
-      </c>
-    </row>
-    <row r="117" spans="2:14" x14ac:dyDescent="0.25">
+        <v>73639</v>
+      </c>
+    </row>
+    <row r="117" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B117" s="10" t="s">
         <v>22</v>
       </c>
@@ -4336,37 +4336,37 @@
       </c>
       <c r="D117" s="11"/>
       <c r="E117" s="11">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="F117" s="11">
-        <v>15</v>
-      </c>
-      <c r="G117" s="11">
         <v>7</v>
       </c>
-      <c r="H117" s="11" t="s">
-        <v>18</v>
+      <c r="G117" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="H117" s="11">
+        <v>23</v>
       </c>
       <c r="I117" s="11">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="J117" s="11">
-        <v>28</v>
+        <v>6</v>
       </c>
       <c r="K117" s="11">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="L117" s="11">
-        <v>0</v>
+        <v>33</v>
       </c>
       <c r="M117" s="11">
-        <v>33</v>
+        <v>-33</v>
       </c>
       <c r="N117" s="11">
-        <v>-33</v>
-      </c>
-    </row>
-    <row r="118" spans="2:14" x14ac:dyDescent="0.25">
+        <v>2507</v>
+      </c>
+    </row>
+    <row r="118" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B118" s="12" t="s">
         <v>23</v>
       </c>
@@ -4389,11 +4389,11 @@
       <c r="I118" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="J118" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="K118" s="13">
-        <v>0</v>
+      <c r="J118" s="13">
+        <v>0</v>
+      </c>
+      <c r="K118" s="13" t="s">
+        <v>18</v>
       </c>
       <c r="L118" s="13" t="s">
         <v>18</v>
@@ -4405,7 +4405,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="119" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="119" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B119" s="10" t="s">
         <v>24</v>
       </c>
@@ -4428,11 +4428,11 @@
       <c r="I119" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="J119" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="K119" s="11">
-        <v>0</v>
+      <c r="J119" s="11">
+        <v>0</v>
+      </c>
+      <c r="K119" s="11" t="s">
+        <v>18</v>
       </c>
       <c r="L119" s="11" t="s">
         <v>18</v>
@@ -4444,7 +4444,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="120" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="120" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B120" s="12" t="s">
         <v>25</v>
       </c>
@@ -4467,11 +4467,11 @@
       <c r="I120" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="J120" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="K120" s="13">
-        <v>0</v>
+      <c r="J120" s="13">
+        <v>0</v>
+      </c>
+      <c r="K120" s="13" t="s">
+        <v>18</v>
       </c>
       <c r="L120" s="13" t="s">
         <v>18</v>
@@ -4483,7 +4483,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="121" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="121" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B121" s="10" t="s">
         <v>26</v>
       </c>
@@ -4506,23 +4506,23 @@
       <c r="I121" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="J121" s="11" t="s">
-        <v>18</v>
+      <c r="J121" s="11">
+        <v>-239271</v>
       </c>
       <c r="K121" s="11">
-        <v>-239271</v>
+        <v>-3447</v>
       </c>
       <c r="L121" s="11">
-        <v>-3447</v>
+        <v>-122606</v>
       </c>
       <c r="M121" s="11">
-        <v>-122606</v>
+        <v>22879</v>
       </c>
       <c r="N121" s="11">
-        <v>22879</v>
-      </c>
-    </row>
-    <row r="122" spans="2:14" x14ac:dyDescent="0.25">
+        <v>-273863</v>
+      </c>
+    </row>
+    <row r="122" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B122" s="12" t="s">
         <v>27</v>
       </c>
@@ -4545,60 +4545,60 @@
       <c r="I122" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="J122" s="13" t="s">
-        <v>18</v>
+      <c r="J122" s="13">
+        <v>-98563</v>
       </c>
       <c r="K122" s="13">
-        <v>-98563</v>
+        <v>0</v>
       </c>
       <c r="L122" s="13">
-        <v>0</v>
+        <v>-39862</v>
       </c>
       <c r="M122" s="13">
-        <v>-39862</v>
+        <v>-14580</v>
       </c>
       <c r="N122" s="13">
-        <v>-14580</v>
-      </c>
-    </row>
-    <row r="123" spans="2:14" x14ac:dyDescent="0.25">
+        <v>12749</v>
+      </c>
+    </row>
+    <row r="123" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B123" s="14" t="s">
         <v>59</v>
       </c>
       <c r="C123" s="15"/>
       <c r="D123" s="15"/>
       <c r="E123" s="15">
-        <v>162718</v>
+        <v>403395</v>
       </c>
       <c r="F123" s="15">
-        <v>403395</v>
+        <v>213620</v>
       </c>
       <c r="G123" s="15">
-        <v>213620</v>
+        <v>152324</v>
       </c>
       <c r="H123" s="15">
-        <v>152324</v>
+        <v>408199</v>
       </c>
       <c r="I123" s="15">
-        <v>408199</v>
+        <v>969453</v>
       </c>
       <c r="J123" s="15">
-        <v>969453</v>
+        <v>125278</v>
       </c>
       <c r="K123" s="15">
-        <v>125278</v>
+        <v>208000</v>
       </c>
       <c r="L123" s="15">
-        <v>208000</v>
+        <v>230238</v>
       </c>
       <c r="M123" s="15">
-        <v>230238</v>
+        <v>1070765</v>
       </c>
       <c r="N123" s="15">
-        <v>1070765</v>
-      </c>
-    </row>
-    <row r="124" spans="2:14" x14ac:dyDescent="0.25">
+        <v>139053</v>
+      </c>
+    </row>
+    <row r="124" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B124" s="8" t="s">
         <v>60</v>
       </c>
@@ -4615,7 +4615,7 @@
       <c r="M124" s="9"/>
       <c r="N124" s="9"/>
     </row>
-    <row r="125" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="125" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B125" s="10" t="s">
         <v>30</v>
       </c>
@@ -4632,8 +4632,8 @@
       <c r="G125" s="11">
         <v>0</v>
       </c>
-      <c r="H125" s="11">
-        <v>0</v>
+      <c r="H125" s="11" t="s">
+        <v>18</v>
       </c>
       <c r="I125" s="11" t="s">
         <v>18</v>
@@ -4654,7 +4654,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="126" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="126" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B126" s="12" t="s">
         <v>31</v>
       </c>
@@ -4668,11 +4668,11 @@
       <c r="F126" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="G126" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="H126" s="13">
-        <v>0</v>
+      <c r="G126" s="13">
+        <v>0</v>
+      </c>
+      <c r="H126" s="13" t="s">
+        <v>18</v>
       </c>
       <c r="I126" s="13" t="s">
         <v>18</v>
@@ -4693,7 +4693,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="127" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="127" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B127" s="14" t="s">
         <v>61</v>
       </c>
@@ -4730,7 +4730,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="128" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="128" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B128" s="8" t="s">
         <v>62</v>
       </c>
@@ -4747,7 +4747,7 @@
       <c r="M128" s="9"/>
       <c r="N128" s="9"/>
     </row>
-    <row r="129" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="129" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B129" s="10" t="s">
         <v>34</v>
       </c>
@@ -4756,108 +4756,108 @@
       </c>
       <c r="D129" s="11"/>
       <c r="E129" s="11">
-        <v>-39077</v>
+        <v>8401</v>
       </c>
       <c r="F129" s="11">
-        <v>8401</v>
+        <v>-59377</v>
       </c>
       <c r="G129" s="11">
-        <v>-59377</v>
+        <v>-14919</v>
       </c>
       <c r="H129" s="11">
-        <v>-14919</v>
+        <v>-46193</v>
       </c>
       <c r="I129" s="11">
-        <v>-46193</v>
+        <v>-10079</v>
       </c>
       <c r="J129" s="11">
-        <v>-10079</v>
+        <v>-129266</v>
       </c>
       <c r="K129" s="11">
-        <v>-129266</v>
+        <v>-29703</v>
       </c>
       <c r="L129" s="11">
-        <v>-29703</v>
+        <v>-63689</v>
       </c>
       <c r="M129" s="11">
-        <v>-63689</v>
+        <v>40401</v>
       </c>
       <c r="N129" s="11">
-        <v>40401</v>
-      </c>
-    </row>
-    <row r="130" spans="2:14" x14ac:dyDescent="0.25">
+        <v>-32604</v>
+      </c>
+    </row>
+    <row r="130" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B130" s="16" t="s">
         <v>63</v>
       </c>
       <c r="C130" s="17"/>
       <c r="D130" s="17"/>
       <c r="E130" s="17">
-        <v>-39077</v>
+        <v>8401</v>
       </c>
       <c r="F130" s="17">
-        <v>8401</v>
+        <v>-59377</v>
       </c>
       <c r="G130" s="17">
-        <v>-59377</v>
+        <v>-14919</v>
       </c>
       <c r="H130" s="17">
-        <v>-14919</v>
+        <v>-46193</v>
       </c>
       <c r="I130" s="17">
-        <v>-46193</v>
+        <v>-10079</v>
       </c>
       <c r="J130" s="17">
-        <v>-10079</v>
+        <v>-129266</v>
       </c>
       <c r="K130" s="17">
-        <v>-129266</v>
+        <v>-29703</v>
       </c>
       <c r="L130" s="17">
-        <v>-29703</v>
+        <v>-63689</v>
       </c>
       <c r="M130" s="17">
-        <v>-63689</v>
+        <v>40401</v>
       </c>
       <c r="N130" s="17">
-        <v>40401</v>
-      </c>
-    </row>
-    <row r="131" spans="2:14" x14ac:dyDescent="0.25">
+        <v>-32604</v>
+      </c>
+    </row>
+    <row r="131" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B131" s="14" t="s">
         <v>39</v>
       </c>
       <c r="C131" s="15"/>
       <c r="D131" s="15"/>
       <c r="E131" s="15">
-        <v>123641</v>
+        <v>411796</v>
       </c>
       <c r="F131" s="15">
-        <v>411796</v>
+        <v>154243</v>
       </c>
       <c r="G131" s="15">
-        <v>154243</v>
+        <v>137405</v>
       </c>
       <c r="H131" s="15">
-        <v>137405</v>
+        <v>362006</v>
       </c>
       <c r="I131" s="15">
-        <v>362006</v>
+        <v>959374</v>
       </c>
       <c r="J131" s="15">
-        <v>959374</v>
+        <v>-3988</v>
       </c>
       <c r="K131" s="15">
-        <v>-3988</v>
+        <v>178297</v>
       </c>
       <c r="L131" s="15">
-        <v>178297</v>
+        <v>166549</v>
       </c>
       <c r="M131" s="15">
-        <v>166549</v>
+        <v>1111166</v>
       </c>
       <c r="N131" s="15">
-        <v>1111166</v>
+        <v>106449</v>
       </c>
     </row>
   </sheetData>
